--- a/QuantLibXL/Data2/XLS/GBP/GBP_Market.xlsx
+++ b/QuantLibXL/Data2/XLS/GBP/GBP_Market.xlsx
@@ -2220,13 +2220,13 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="10" fillId="12" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="168" fontId="10" fillId="9" borderId="7" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="9" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="24">
     <cellStyle name="Euro" xfId="12"/>
@@ -2594,126 +2594,126 @@
       <tp t="s">
         <v>Real-Time Engine Initialization Error</v>
         <stp/>
-        <stp>{083B6744-A8CD-437F-B526-CDE96B25D19F}_x0000_</stp>
+        <stp>{3F39CD78-3256-4857-A399-0B174ED5120C}_x0000_</stp>
         <tr r="K21" s="6"/>
+      </tp>
+      <tp t="s">
+        <v>Real-Time Engine Initialization Error</v>
+        <stp/>
+        <stp>{3B4DE934-B8D0-4046-ABE6-2BD804D39FEA}_x0000_</stp>
+        <tr r="K16" s="6"/>
       </tp>
     </main>
     <main first="pldatasource.rdatartdserver">
       <tp t="s">
         <v>Real-Time Engine Initialization Error</v>
         <stp/>
-        <stp>{B9730408-20D9-4BA3-BA07-24B34BC07665}</stp>
+        <stp>{A8C19430-C5F5-402E-AF65-1AE39DC324AD}</stp>
+        <tr r="O4" s="83"/>
+      </tp>
+      <tp t="s">
+        <v>Real-Time Engine Initialization Error</v>
+        <stp/>
+        <stp>{56A3BE40-6DB8-4A88-8437-8296A124369F}</stp>
+        <tr r="O4" s="19"/>
+      </tp>
+      <tp t="s">
+        <v>Real-Time Engine Initialization Error</v>
+        <stp/>
+        <stp>{956F388D-78BA-45BD-9467-333B59A10DF4}</stp>
+        <tr r="Q4" s="79"/>
+      </tp>
+      <tp t="s">
+        <v>Real-Time Engine Initialization Error</v>
+        <stp/>
+        <stp>{5C4ED22C-B545-486C-96AF-0218A575F3FE}</stp>
+        <tr r="O4" s="25"/>
+      </tp>
+      <tp t="s">
+        <v>Real-Time Engine Initialization Error</v>
+        <stp/>
+        <stp>{65B7A90F-9F5C-4471-AF49-F435D9626867}</stp>
+        <tr r="O4" s="32"/>
+      </tp>
+      <tp t="s">
+        <v>Real-Time Engine Initialization Error</v>
+        <stp/>
+        <stp>{B6203872-CF34-4875-8E64-7DF04B59008C}</stp>
+        <tr r="O4" s="30"/>
+      </tp>
+      <tp t="s">
+        <v>Real-Time Engine Initialization Error</v>
+        <stp/>
+        <stp>{5B282CAD-3F48-42E3-8B9D-DB91200596D3}</stp>
         <tr r="O4" s="18"/>
       </tp>
       <tp t="s">
         <v>Real-Time Engine Initialization Error</v>
         <stp/>
-        <stp>{1183C28E-51A8-4E04-9BF4-507D6074500A}</stp>
-        <tr r="O4" s="83"/>
+        <stp>{CB4B1BF3-EDB4-40FE-9937-F9890CFD06BA}</stp>
+        <tr r="R4" s="24"/>
       </tp>
       <tp t="s">
         <v>Real-Time Engine Initialization Error</v>
         <stp/>
-        <stp>{560A0903-42EA-499E-B550-1A315DD6D6FB}</stp>
+        <stp>{A4F3DC08-8EF4-47F7-8555-32F5D7C1EF9D}</stp>
+        <tr r="O4" s="29"/>
+      </tp>
+      <tp t="s">
+        <v>Real-Time Engine Initialization Error</v>
+        <stp/>
+        <stp>{F8D11DA3-39A5-444B-B1E1-3F0A18428830}</stp>
+        <tr r="P4" s="72"/>
+      </tp>
+      <tp t="s">
+        <v>Real-Time Engine Initialization Error</v>
+        <stp/>
+        <stp>{15579A29-CA18-49E4-99FE-E65F9E8E0261}</stp>
+        <tr r="L4" s="26"/>
+      </tp>
+      <tp t="s">
+        <v>Real-Time Engine Initialization Error</v>
+        <stp/>
+        <stp>{4EBDA21E-9DCD-4F6F-8F87-123516C3DF22}</stp>
         <tr r="O4" s="82"/>
       </tp>
       <tp t="s">
         <v>Real-Time Engine Initialization Error</v>
         <stp/>
-        <stp>{B19FAE06-A2F5-420D-AC9D-B986E772E7C5}</stp>
-        <tr r="L4" s="26"/>
-      </tp>
-      <tp t="s">
-        <v>Real-Time Engine Initialization Error</v>
-        <stp/>
-        <stp>{CB79AC39-1B84-424B-A0BB-17F531334DA2}</stp>
-        <tr r="P4" s="72"/>
-      </tp>
-      <tp t="s">
-        <v>Real-Time Engine Initialization Error</v>
-        <stp/>
-        <stp>{6AA099C0-2D92-4AF2-8306-F99582B8BC38}</stp>
-        <tr r="R4" s="24"/>
-      </tp>
-      <tp t="s">
-        <v>Real-Time Engine Initialization Error</v>
-        <stp/>
-        <stp>{FDBEA6DF-54D8-4005-8770-C40B2880FE3C}</stp>
-        <tr r="O4" s="29"/>
-      </tp>
-      <tp t="s">
-        <v>Real-Time Engine Initialization Error</v>
-        <stp/>
-        <stp>{05E7ADF2-FB15-46DC-9FAE-2642E0CFF95F}</stp>
+        <stp>{54D9100B-C104-428F-87FC-EEE108366221}</stp>
         <tr r="H3" s="6"/>
       </tp>
       <tp t="s">
         <v>Real-Time Engine Initialization Error</v>
         <stp/>
-        <stp>{87F6DF1E-0029-463D-872E-4B1A99FA4115}</stp>
-        <tr r="O4" s="32"/>
+        <stp>{3B04BCDD-B14D-420F-895E-2884CF4E88B9}</stp>
+        <tr r="O4" s="28"/>
       </tp>
       <tp t="s">
         <v>Real-Time Engine Initialization Error</v>
         <stp/>
-        <stp>{C9478400-9DB2-47B1-BB47-81F305F77957}</stp>
-        <tr r="O4" s="17"/>
-      </tp>
-      <tp t="s">
-        <v>Real-Time Engine Initialization Error</v>
-        <stp/>
-        <stp>{14EB30D3-6D57-4A54-821A-D47536D83F49}</stp>
-        <tr r="O4" s="19"/>
-      </tp>
-      <tp t="s">
-        <v>Real-Time Engine Initialization Error</v>
-        <stp/>
-        <stp>{2CF5FB58-C699-4836-9B78-764DB3C448DF}</stp>
+        <stp>{6E8BBE2A-307E-4CD5-B6E5-B7532EFE6D1E}</stp>
         <tr r="O4" s="22"/>
       </tp>
       <tp t="s">
         <v>Real-Time Engine Initialization Error</v>
         <stp/>
-        <stp>{28ACAA92-9A38-41E0-A79C-6D60522F005D}</stp>
-        <tr r="O4" s="30"/>
-      </tp>
-      <tp t="s">
-        <v>Real-Time Engine Initialization Error</v>
-        <stp/>
-        <stp>{8E678EE8-9915-41C2-AB1B-29D630068B70}</stp>
-        <tr r="Q4" s="79"/>
-      </tp>
-      <tp t="s">
-        <v>Real-Time Engine Initialization Error</v>
-        <stp/>
-        <stp>{6D0C11EA-EBF4-4DD6-9688-7FAD4ACBB3D0}</stp>
-        <tr r="O4" s="28"/>
-      </tp>
-      <tp t="s">
-        <v>Real-Time Engine Initialization Error</v>
-        <stp/>
-        <stp>{77B1C4C5-9EF9-4813-B42E-EE2CB7CBA19C}</stp>
-        <tr r="O4" s="25"/>
+        <stp>{0DF8A02C-4936-4C57-9D46-47F87B64BCA6}</stp>
+        <tr r="O4" s="17"/>
       </tp>
     </main>
     <main first="pldatasource.rhistoryrtdserver">
       <tp t="s">
         <v>Real-Time Engine Initialization Error</v>
         <stp/>
-        <stp>{651ABD73-DEAF-403D-B9AD-6FC645027F50}_x0000_</stp>
-        <tr r="H21" s="6"/>
+        <stp>{84CC59DB-829F-4799-A964-6E91C87A388C}_x0000_</stp>
+        <tr r="H16" s="6"/>
       </tp>
       <tp t="s">
         <v>Real-Time Engine Initialization Error</v>
         <stp/>
-        <stp>{1B44568E-BDFF-4F75-BBEF-1CF3CD1AEC05}_x0000_</stp>
-        <tr r="K16" s="6"/>
-      </tp>
-      <tp t="s">
-        <v>Real-Time Engine Initialization Error</v>
-        <stp/>
-        <stp>{FEF94BA2-3BC3-48A4-B607-C3E54979456C}_x0000_</stp>
-        <tr r="H16" s="6"/>
+        <stp>{6C2D99EF-9EDF-439F-9B1C-79EDF9F5224E}_x0000_</stp>
+        <tr r="H21" s="6"/>
       </tp>
     </main>
   </volType>
@@ -3061,9 +3061,7 @@
       <c r="C4" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="373">
-        <v>42275.523541666669</v>
-      </c>
+      <c r="D4" s="373"/>
       <c r="E4" s="353"/>
       <c r="G4" s="216"/>
       <c r="H4" s="4" t="s">
@@ -3110,7 +3108,7 @@
       </c>
       <c r="D7" s="9">
         <f ca="1">_xll.ohTrigger(GBPLibor!J5:J10,Deposits!S2,FRA!X2,OIS!X2,'MPC OIS'!Z2,Futures3M!AD2,BasisSwap1MxM!X2,BasisSwap3M6M!X2,BasisSwapxM12M!X2,Swaps1M!X2,#REF!,Swap3MSemiAnnual!X2,Swap6M!X2,#REF!)</f>
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="E7" s="217"/>
     </row>
@@ -3121,7 +3119,7 @@
       </c>
       <c r="D8" s="11">
         <f>_xll.ohTrigger(GBPLibor!L5:L10)</f>
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="E8" s="217"/>
     </row>
@@ -3189,7 +3187,7 @@
         <v>1</v>
       </c>
       <c r="I14" s="176" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J14" s="353"/>
     </row>
@@ -20070,7 +20068,7 @@
       <c r="T2" s="174"/>
       <c r="U2" s="196">
         <f>_xll.ohTrigger(U5:U6)</f>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="V2" s="217"/>
     </row>
@@ -20122,10 +20120,10 @@
         <v>100</v>
       </c>
       <c r="N4" s="282"/>
-      <c r="O4" s="407" t="s">
+      <c r="O4" s="408" t="s">
         <v>105</v>
       </c>
-      <c r="P4" s="408"/>
+      <c r="P4" s="409"/>
       <c r="Q4" s="282"/>
       <c r="R4" s="184" t="s">
         <v>97</v>
@@ -20147,7 +20145,7 @@
       </c>
       <c r="C5" s="114" t="str">
         <f>_xll.qlSimpleQuote(B5,,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GBPHW_Volatility_Quote#0000</v>
+        <v>GBPHW_Volatility_Quote#0003</v>
       </c>
       <c r="D5" s="115" t="str">
         <f>_xll.ohRangeRetrieveError(C5)</f>
@@ -20206,7 +20204,7 @@
       </c>
       <c r="C6" s="114" t="str">
         <f>_xll.qlSimpleQuote(B6,,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GBPHW_MeanReversion_Quote#0000</v>
+        <v>GBPHW_MeanReversion_Quote#0003</v>
       </c>
       <c r="D6" s="115" t="str">
         <f>_xll.ohRangeRetrieveError(C6)</f>
@@ -20368,7 +20366,7 @@
       <c r="W2" s="18"/>
       <c r="X2" s="94">
         <f>_xll.ohTrigger(X5:X41)</f>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="Y2" s="111"/>
     </row>
@@ -20471,7 +20469,7 @@
       </c>
       <c r="F5" s="41" t="str">
         <f>_xll.qlSimpleQuote(E5,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GBP1L6L1Y_Quote#0000</v>
+        <v>GBP1L6L1Y_Quote#0003</v>
       </c>
       <c r="G5" s="46" t="str">
         <f>_xll.ohRangeRetrieveError(F5)</f>
@@ -20545,7 +20543,7 @@
       </c>
       <c r="F6" s="41" t="str">
         <f>_xll.qlSimpleQuote(E6,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GBP1L6L15M_Quote#0000</v>
+        <v>GBP1L6L15M_Quote#0003</v>
       </c>
       <c r="G6" s="46" t="str">
         <f>_xll.ohRangeRetrieveError(F6)</f>
@@ -20617,7 +20615,7 @@
       </c>
       <c r="F7" s="41" t="str">
         <f>_xll.qlSimpleQuote(E7,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GBP1L6L18M_Quote#0000</v>
+        <v>GBP1L6L18M_Quote#0003</v>
       </c>
       <c r="G7" s="46" t="str">
         <f>_xll.ohRangeRetrieveError(F7)</f>
@@ -20689,7 +20687,7 @@
       </c>
       <c r="F8" s="41" t="str">
         <f>_xll.qlSimpleQuote(E8,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GBP1L6L21M_Quote#0000</v>
+        <v>GBP1L6L21M_Quote#0003</v>
       </c>
       <c r="G8" s="46" t="str">
         <f>_xll.ohRangeRetrieveError(F8)</f>
@@ -20761,7 +20759,7 @@
       </c>
       <c r="F9" s="41" t="str">
         <f>_xll.qlSimpleQuote(E9,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GBP1L6L2Y_Quote#0000</v>
+        <v>GBP1L6L2Y_Quote#0003</v>
       </c>
       <c r="G9" s="46" t="str">
         <f>_xll.ohRangeRetrieveError(F9)</f>
@@ -20833,7 +20831,7 @@
       </c>
       <c r="F10" s="41" t="str">
         <f>_xll.qlSimpleQuote(E10,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GBP1L6L3Y_Quote#0000</v>
+        <v>GBP1L6L3Y_Quote#0003</v>
       </c>
       <c r="G10" s="46" t="str">
         <f>_xll.ohRangeRetrieveError(F10)</f>
@@ -20905,7 +20903,7 @@
       </c>
       <c r="F11" s="41" t="str">
         <f>_xll.qlSimpleQuote(E11,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GBP1L6L4Y_Quote#0000</v>
+        <v>GBP1L6L4Y_Quote#0003</v>
       </c>
       <c r="G11" s="46" t="str">
         <f>_xll.ohRangeRetrieveError(F11)</f>
@@ -20977,7 +20975,7 @@
       </c>
       <c r="F12" s="41" t="str">
         <f>_xll.qlSimpleQuote(E12,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GBP1L6L5Y_Quote#0000</v>
+        <v>GBP1L6L5Y_Quote#0003</v>
       </c>
       <c r="G12" s="46" t="str">
         <f>_xll.ohRangeRetrieveError(F12)</f>
@@ -21049,7 +21047,7 @@
       </c>
       <c r="F13" s="41" t="str">
         <f>_xll.qlSimpleQuote(E13,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GBP1L6L6Y_Quote#0000</v>
+        <v>GBP1L6L6Y_Quote#0003</v>
       </c>
       <c r="G13" s="46" t="str">
         <f>_xll.ohRangeRetrieveError(F13)</f>
@@ -21121,7 +21119,7 @@
       </c>
       <c r="F14" s="41" t="str">
         <f>_xll.qlSimpleQuote(E14,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GBP1L6L7Y_Quote#0000</v>
+        <v>GBP1L6L7Y_Quote#0003</v>
       </c>
       <c r="G14" s="46" t="str">
         <f>_xll.ohRangeRetrieveError(F14)</f>
@@ -21193,7 +21191,7 @@
       </c>
       <c r="F15" s="41" t="str">
         <f>_xll.qlSimpleQuote(E15,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GBP1L6L8Y_Quote#0000</v>
+        <v>GBP1L6L8Y_Quote#0003</v>
       </c>
       <c r="G15" s="46" t="str">
         <f>_xll.ohRangeRetrieveError(F15)</f>
@@ -21265,7 +21263,7 @@
       </c>
       <c r="F16" s="41" t="str">
         <f>_xll.qlSimpleQuote(E16,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GBP1L6L9Y_Quote#0000</v>
+        <v>GBP1L6L9Y_Quote#0003</v>
       </c>
       <c r="G16" s="46" t="str">
         <f>_xll.ohRangeRetrieveError(F16)</f>
@@ -21337,7 +21335,7 @@
       </c>
       <c r="F17" s="41" t="str">
         <f>_xll.qlSimpleQuote(E17,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GBP1L6L10Y_Quote#0000</v>
+        <v>GBP1L6L10Y_Quote#0003</v>
       </c>
       <c r="G17" s="46" t="str">
         <f>_xll.ohRangeRetrieveError(F17)</f>
@@ -21409,7 +21407,7 @@
       </c>
       <c r="F18" s="41" t="str">
         <f>_xll.qlSimpleQuote(E18,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GBP1L6L11Y_Quote#0000</v>
+        <v>GBP1L6L11Y_Quote#0003</v>
       </c>
       <c r="G18" s="46" t="str">
         <f>_xll.ohRangeRetrieveError(F18)</f>
@@ -21481,7 +21479,7 @@
       </c>
       <c r="F19" s="41" t="str">
         <f>_xll.qlSimpleQuote(E19,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GBP1L6L12Y_Quote#0000</v>
+        <v>GBP1L6L12Y_Quote#0003</v>
       </c>
       <c r="G19" s="46" t="str">
         <f>_xll.ohRangeRetrieveError(F19)</f>
@@ -21553,7 +21551,7 @@
       </c>
       <c r="F20" s="41" t="str">
         <f>_xll.qlSimpleQuote(E20,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GBP1L6L13Y_Quote#0000</v>
+        <v>GBP1L6L13Y_Quote#0003</v>
       </c>
       <c r="G20" s="46" t="str">
         <f>_xll.ohRangeRetrieveError(F20)</f>
@@ -21625,7 +21623,7 @@
       </c>
       <c r="F21" s="41" t="str">
         <f>_xll.qlSimpleQuote(E21,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GBP1L6L14Y_Quote#0000</v>
+        <v>GBP1L6L14Y_Quote#0003</v>
       </c>
       <c r="G21" s="46" t="str">
         <f>_xll.ohRangeRetrieveError(F21)</f>
@@ -21697,7 +21695,7 @@
       </c>
       <c r="F22" s="41" t="str">
         <f>_xll.qlSimpleQuote(E22,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GBP1L6L15Y_Quote#0000</v>
+        <v>GBP1L6L15Y_Quote#0003</v>
       </c>
       <c r="G22" s="46" t="str">
         <f>_xll.ohRangeRetrieveError(F22)</f>
@@ -21769,7 +21767,7 @@
       </c>
       <c r="F23" s="41" t="str">
         <f>_xll.qlSimpleQuote(E23,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GBP1L6L16Y_Quote#0000</v>
+        <v>GBP1L6L16Y_Quote#0003</v>
       </c>
       <c r="G23" s="46" t="str">
         <f>_xll.ohRangeRetrieveError(F23)</f>
@@ -21841,7 +21839,7 @@
       </c>
       <c r="F24" s="41" t="str">
         <f>_xll.qlSimpleQuote(E24,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GBP1L6L17Y_Quote#0000</v>
+        <v>GBP1L6L17Y_Quote#0003</v>
       </c>
       <c r="G24" s="46" t="str">
         <f>_xll.ohRangeRetrieveError(F24)</f>
@@ -21913,7 +21911,7 @@
       </c>
       <c r="F25" s="41" t="str">
         <f>_xll.qlSimpleQuote(E25,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GBP1L6L18Y_Quote#0000</v>
+        <v>GBP1L6L18Y_Quote#0003</v>
       </c>
       <c r="G25" s="46" t="str">
         <f>_xll.ohRangeRetrieveError(F25)</f>
@@ -21985,7 +21983,7 @@
       </c>
       <c r="F26" s="41" t="str">
         <f>_xll.qlSimpleQuote(E26,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GBP1L6L19Y_Quote#0000</v>
+        <v>GBP1L6L19Y_Quote#0003</v>
       </c>
       <c r="G26" s="46" t="str">
         <f>_xll.ohRangeRetrieveError(F26)</f>
@@ -22057,7 +22055,7 @@
       </c>
       <c r="F27" s="41" t="str">
         <f>_xll.qlSimpleQuote(E27,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GBP1L6L20Y_Quote#0000</v>
+        <v>GBP1L6L20Y_Quote#0003</v>
       </c>
       <c r="G27" s="46" t="str">
         <f>_xll.ohRangeRetrieveError(F27)</f>
@@ -22129,7 +22127,7 @@
       </c>
       <c r="F28" s="41" t="str">
         <f>_xll.qlSimpleQuote(E28,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GBP1L6L21Y_Quote#0000</v>
+        <v>GBP1L6L21Y_Quote#0003</v>
       </c>
       <c r="G28" s="46" t="str">
         <f>_xll.ohRangeRetrieveError(F28)</f>
@@ -22201,7 +22199,7 @@
       </c>
       <c r="F29" s="41" t="str">
         <f>_xll.qlSimpleQuote(E29,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GBP1L6L22Y_Quote#0000</v>
+        <v>GBP1L6L22Y_Quote#0003</v>
       </c>
       <c r="G29" s="46" t="str">
         <f>_xll.ohRangeRetrieveError(F29)</f>
@@ -22273,7 +22271,7 @@
       </c>
       <c r="F30" s="41" t="str">
         <f>_xll.qlSimpleQuote(E30,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GBP1L6L23Y_Quote#0000</v>
+        <v>GBP1L6L23Y_Quote#0003</v>
       </c>
       <c r="G30" s="46" t="str">
         <f>_xll.ohRangeRetrieveError(F30)</f>
@@ -22345,7 +22343,7 @@
       </c>
       <c r="F31" s="41" t="str">
         <f>_xll.qlSimpleQuote(E31,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GBP1L6L24Y_Quote#0000</v>
+        <v>GBP1L6L24Y_Quote#0003</v>
       </c>
       <c r="G31" s="46" t="str">
         <f>_xll.ohRangeRetrieveError(F31)</f>
@@ -22417,7 +22415,7 @@
       </c>
       <c r="F32" s="41" t="str">
         <f>_xll.qlSimpleQuote(E32,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GBP1L6L25Y_Quote#0000</v>
+        <v>GBP1L6L25Y_Quote#0003</v>
       </c>
       <c r="G32" s="46" t="str">
         <f>_xll.ohRangeRetrieveError(F32)</f>
@@ -22489,7 +22487,7 @@
       </c>
       <c r="F33" s="41" t="str">
         <f>_xll.qlSimpleQuote(E33,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GBP1L6L26Y_Quote#0000</v>
+        <v>GBP1L6L26Y_Quote#0003</v>
       </c>
       <c r="G33" s="46" t="str">
         <f>_xll.ohRangeRetrieveError(F33)</f>
@@ -22561,7 +22559,7 @@
       </c>
       <c r="F34" s="41" t="str">
         <f>_xll.qlSimpleQuote(E34,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GBP1L6L27Y_Quote#0000</v>
+        <v>GBP1L6L27Y_Quote#0003</v>
       </c>
       <c r="G34" s="46" t="str">
         <f>_xll.ohRangeRetrieveError(F34)</f>
@@ -22633,7 +22631,7 @@
       </c>
       <c r="F35" s="41" t="str">
         <f>_xll.qlSimpleQuote(E35,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GBP1L6L28Y_Quote#0000</v>
+        <v>GBP1L6L28Y_Quote#0003</v>
       </c>
       <c r="G35" s="46" t="str">
         <f>_xll.ohRangeRetrieveError(F35)</f>
@@ -22705,7 +22703,7 @@
       </c>
       <c r="F36" s="41" t="str">
         <f>_xll.qlSimpleQuote(E36,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GBP1L6L29Y_Quote#0000</v>
+        <v>GBP1L6L29Y_Quote#0003</v>
       </c>
       <c r="G36" s="46" t="str">
         <f>_xll.ohRangeRetrieveError(F36)</f>
@@ -22777,7 +22775,7 @@
       </c>
       <c r="F37" s="41" t="str">
         <f>_xll.qlSimpleQuote(E37,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GBP1L6L30Y_Quote#0000</v>
+        <v>GBP1L6L30Y_Quote#0003</v>
       </c>
       <c r="G37" s="46" t="str">
         <f>_xll.ohRangeRetrieveError(F37)</f>
@@ -22849,7 +22847,7 @@
       </c>
       <c r="F38" s="41" t="str">
         <f>_xll.qlSimpleQuote(E38,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GBP1L6L35Y_Quote#0000</v>
+        <v>GBP1L6L35Y_Quote#0003</v>
       </c>
       <c r="G38" s="46" t="str">
         <f>_xll.ohRangeRetrieveError(F38)</f>
@@ -22921,7 +22919,7 @@
       </c>
       <c r="F39" s="41" t="str">
         <f>_xll.qlSimpleQuote(E39,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GBP1L6L40Y_Quote#0000</v>
+        <v>GBP1L6L40Y_Quote#0003</v>
       </c>
       <c r="G39" s="46" t="str">
         <f>_xll.ohRangeRetrieveError(F39)</f>
@@ -22993,7 +22991,7 @@
       </c>
       <c r="F40" s="53" t="str">
         <f>_xll.qlSimpleQuote(E40,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GBP1L6L50Y_Quote#0000</v>
+        <v>GBP1L6L50Y_Quote#0003</v>
       </c>
       <c r="G40" s="46" t="str">
         <f>_xll.ohRangeRetrieveError(F40)</f>
@@ -23065,7 +23063,7 @@
       </c>
       <c r="F41" s="55" t="str">
         <f>_xll.qlSimpleQuote(E41,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GBP1L6L60Y_Quote#0000</v>
+        <v>GBP1L6L60Y_Quote#0003</v>
       </c>
       <c r="G41" s="48" t="str">
         <f>_xll.ohRangeRetrieveError(F41)</f>
@@ -23240,7 +23238,7 @@
       <c r="W2" s="177"/>
       <c r="X2" s="196">
         <f>_xll.ohTrigger(X5:X41)</f>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="Y2" s="217"/>
     </row>
@@ -23343,7 +23341,7 @@
       </c>
       <c r="F5" s="41" t="str">
         <f>_xll.qlSimpleQuote(E5,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GBP3L6L1Y_Quote#0000</v>
+        <v>GBP3L6L1Y_Quote#0003</v>
       </c>
       <c r="G5" s="46" t="str">
         <f>_xll.ohRangeRetrieveError(F5)</f>
@@ -23417,7 +23415,7 @@
       </c>
       <c r="F6" s="41" t="str">
         <f>_xll.qlSimpleQuote(E6,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GBP3L6L15M_Quote#0000</v>
+        <v>GBP3L6L15M_Quote#0003</v>
       </c>
       <c r="G6" s="46" t="str">
         <f>_xll.ohRangeRetrieveError(F6)</f>
@@ -23489,7 +23487,7 @@
       </c>
       <c r="F7" s="41" t="str">
         <f>_xll.qlSimpleQuote(E7,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GBP3L6L18M_Quote#0000</v>
+        <v>GBP3L6L18M_Quote#0003</v>
       </c>
       <c r="G7" s="46" t="str">
         <f>_xll.ohRangeRetrieveError(F7)</f>
@@ -23561,7 +23559,7 @@
       </c>
       <c r="F8" s="41" t="str">
         <f>_xll.qlSimpleQuote(E8,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GBP3L6L21M_Quote#0000</v>
+        <v>GBP3L6L21M_Quote#0003</v>
       </c>
       <c r="G8" s="46" t="str">
         <f>_xll.ohRangeRetrieveError(F8)</f>
@@ -23633,7 +23631,7 @@
       </c>
       <c r="F9" s="41" t="str">
         <f>_xll.qlSimpleQuote(E9,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GBP3L6L2Y_Quote#0000</v>
+        <v>GBP3L6L2Y_Quote#0003</v>
       </c>
       <c r="G9" s="46" t="str">
         <f>_xll.ohRangeRetrieveError(F9)</f>
@@ -23705,7 +23703,7 @@
       </c>
       <c r="F10" s="41" t="str">
         <f>_xll.qlSimpleQuote(E10,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GBP3L6L3Y_Quote#0000</v>
+        <v>GBP3L6L3Y_Quote#0003</v>
       </c>
       <c r="G10" s="46" t="str">
         <f>_xll.ohRangeRetrieveError(F10)</f>
@@ -23777,7 +23775,7 @@
       </c>
       <c r="F11" s="41" t="str">
         <f>_xll.qlSimpleQuote(E11,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GBP3L6L4Y_Quote#0000</v>
+        <v>GBP3L6L4Y_Quote#0003</v>
       </c>
       <c r="G11" s="46" t="str">
         <f>_xll.ohRangeRetrieveError(F11)</f>
@@ -23849,7 +23847,7 @@
       </c>
       <c r="F12" s="41" t="str">
         <f>_xll.qlSimpleQuote(E12,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GBP3L6L5Y_Quote#0000</v>
+        <v>GBP3L6L5Y_Quote#0003</v>
       </c>
       <c r="G12" s="46" t="str">
         <f>_xll.ohRangeRetrieveError(F12)</f>
@@ -23921,7 +23919,7 @@
       </c>
       <c r="F13" s="41" t="str">
         <f>_xll.qlSimpleQuote(E13,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GBP3L6L6Y_Quote#0000</v>
+        <v>GBP3L6L6Y_Quote#0003</v>
       </c>
       <c r="G13" s="46" t="str">
         <f>_xll.ohRangeRetrieveError(F13)</f>
@@ -23993,7 +23991,7 @@
       </c>
       <c r="F14" s="41" t="str">
         <f>_xll.qlSimpleQuote(E14,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GBP3L6L7Y_Quote#0000</v>
+        <v>GBP3L6L7Y_Quote#0003</v>
       </c>
       <c r="G14" s="46" t="str">
         <f>_xll.ohRangeRetrieveError(F14)</f>
@@ -24065,7 +24063,7 @@
       </c>
       <c r="F15" s="41" t="str">
         <f>_xll.qlSimpleQuote(E15,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GBP3L6L8Y_Quote#0000</v>
+        <v>GBP3L6L8Y_Quote#0003</v>
       </c>
       <c r="G15" s="46" t="str">
         <f>_xll.ohRangeRetrieveError(F15)</f>
@@ -24137,7 +24135,7 @@
       </c>
       <c r="F16" s="41" t="str">
         <f>_xll.qlSimpleQuote(E16,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GBP3L6L9Y_Quote#0000</v>
+        <v>GBP3L6L9Y_Quote#0003</v>
       </c>
       <c r="G16" s="46" t="str">
         <f>_xll.ohRangeRetrieveError(F16)</f>
@@ -24209,7 +24207,7 @@
       </c>
       <c r="F17" s="41" t="str">
         <f>_xll.qlSimpleQuote(E17,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GBP3L6L10Y_Quote#0000</v>
+        <v>GBP3L6L10Y_Quote#0003</v>
       </c>
       <c r="G17" s="46" t="str">
         <f>_xll.ohRangeRetrieveError(F17)</f>
@@ -24281,7 +24279,7 @@
       </c>
       <c r="F18" s="41" t="str">
         <f>_xll.qlSimpleQuote(E18,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GBP3L6L11Y_Quote#0000</v>
+        <v>GBP3L6L11Y_Quote#0003</v>
       </c>
       <c r="G18" s="46" t="str">
         <f>_xll.ohRangeRetrieveError(F18)</f>
@@ -24353,7 +24351,7 @@
       </c>
       <c r="F19" s="41" t="str">
         <f>_xll.qlSimpleQuote(E19,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GBP3L6L12Y_Quote#0000</v>
+        <v>GBP3L6L12Y_Quote#0003</v>
       </c>
       <c r="G19" s="46" t="str">
         <f>_xll.ohRangeRetrieveError(F19)</f>
@@ -24425,7 +24423,7 @@
       </c>
       <c r="F20" s="41" t="str">
         <f>_xll.qlSimpleQuote(E20,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GBP3L6L13Y_Quote#0000</v>
+        <v>GBP3L6L13Y_Quote#0003</v>
       </c>
       <c r="G20" s="46" t="str">
         <f>_xll.ohRangeRetrieveError(F20)</f>
@@ -24497,7 +24495,7 @@
       </c>
       <c r="F21" s="41" t="str">
         <f>_xll.qlSimpleQuote(E21,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GBP3L6L14Y_Quote#0000</v>
+        <v>GBP3L6L14Y_Quote#0003</v>
       </c>
       <c r="G21" s="46" t="str">
         <f>_xll.ohRangeRetrieveError(F21)</f>
@@ -24569,7 +24567,7 @@
       </c>
       <c r="F22" s="41" t="str">
         <f>_xll.qlSimpleQuote(E22,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GBP3L6L15Y_Quote#0000</v>
+        <v>GBP3L6L15Y_Quote#0003</v>
       </c>
       <c r="G22" s="46" t="str">
         <f>_xll.ohRangeRetrieveError(F22)</f>
@@ -24641,7 +24639,7 @@
       </c>
       <c r="F23" s="41" t="str">
         <f>_xll.qlSimpleQuote(E23,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GBP3L6L16Y_Quote#0000</v>
+        <v>GBP3L6L16Y_Quote#0003</v>
       </c>
       <c r="G23" s="46" t="str">
         <f>_xll.ohRangeRetrieveError(F23)</f>
@@ -24713,7 +24711,7 @@
       </c>
       <c r="F24" s="41" t="str">
         <f>_xll.qlSimpleQuote(E24,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GBP3L6L17Y_Quote#0000</v>
+        <v>GBP3L6L17Y_Quote#0003</v>
       </c>
       <c r="G24" s="46" t="str">
         <f>_xll.ohRangeRetrieveError(F24)</f>
@@ -24785,7 +24783,7 @@
       </c>
       <c r="F25" s="41" t="str">
         <f>_xll.qlSimpleQuote(E25,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GBP3L6L18Y_Quote#0000</v>
+        <v>GBP3L6L18Y_Quote#0003</v>
       </c>
       <c r="G25" s="46" t="str">
         <f>_xll.ohRangeRetrieveError(F25)</f>
@@ -24857,7 +24855,7 @@
       </c>
       <c r="F26" s="41" t="str">
         <f>_xll.qlSimpleQuote(E26,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GBP3L6L19Y_Quote#0000</v>
+        <v>GBP3L6L19Y_Quote#0003</v>
       </c>
       <c r="G26" s="46" t="str">
         <f>_xll.ohRangeRetrieveError(F26)</f>
@@ -24929,7 +24927,7 @@
       </c>
       <c r="F27" s="41" t="str">
         <f>_xll.qlSimpleQuote(E27,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GBP3L6L20Y_Quote#0000</v>
+        <v>GBP3L6L20Y_Quote#0003</v>
       </c>
       <c r="G27" s="46" t="str">
         <f>_xll.ohRangeRetrieveError(F27)</f>
@@ -25001,7 +24999,7 @@
       </c>
       <c r="F28" s="41" t="str">
         <f>_xll.qlSimpleQuote(E28,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GBP3L6L21Y_Quote#0000</v>
+        <v>GBP3L6L21Y_Quote#0003</v>
       </c>
       <c r="G28" s="46" t="str">
         <f>_xll.ohRangeRetrieveError(F28)</f>
@@ -25073,7 +25071,7 @@
       </c>
       <c r="F29" s="41" t="str">
         <f>_xll.qlSimpleQuote(E29,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GBP3L6L22Y_Quote#0000</v>
+        <v>GBP3L6L22Y_Quote#0003</v>
       </c>
       <c r="G29" s="46" t="str">
         <f>_xll.ohRangeRetrieveError(F29)</f>
@@ -25145,7 +25143,7 @@
       </c>
       <c r="F30" s="41" t="str">
         <f>_xll.qlSimpleQuote(E30,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GBP3L6L23Y_Quote#0000</v>
+        <v>GBP3L6L23Y_Quote#0003</v>
       </c>
       <c r="G30" s="46" t="str">
         <f>_xll.ohRangeRetrieveError(F30)</f>
@@ -25217,7 +25215,7 @@
       </c>
       <c r="F31" s="41" t="str">
         <f>_xll.qlSimpleQuote(E31,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GBP3L6L24Y_Quote#0000</v>
+        <v>GBP3L6L24Y_Quote#0003</v>
       </c>
       <c r="G31" s="46" t="str">
         <f>_xll.ohRangeRetrieveError(F31)</f>
@@ -25289,7 +25287,7 @@
       </c>
       <c r="F32" s="41" t="str">
         <f>_xll.qlSimpleQuote(E32,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GBP3L6L25Y_Quote#0000</v>
+        <v>GBP3L6L25Y_Quote#0003</v>
       </c>
       <c r="G32" s="46" t="str">
         <f>_xll.ohRangeRetrieveError(F32)</f>
@@ -25361,7 +25359,7 @@
       </c>
       <c r="F33" s="41" t="str">
         <f>_xll.qlSimpleQuote(E33,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GBP3L6L26Y_Quote#0000</v>
+        <v>GBP3L6L26Y_Quote#0003</v>
       </c>
       <c r="G33" s="46" t="str">
         <f>_xll.ohRangeRetrieveError(F33)</f>
@@ -25433,7 +25431,7 @@
       </c>
       <c r="F34" s="41" t="str">
         <f>_xll.qlSimpleQuote(E34,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GBP3L6L27Y_Quote#0000</v>
+        <v>GBP3L6L27Y_Quote#0003</v>
       </c>
       <c r="G34" s="46" t="str">
         <f>_xll.ohRangeRetrieveError(F34)</f>
@@ -25505,7 +25503,7 @@
       </c>
       <c r="F35" s="41" t="str">
         <f>_xll.qlSimpleQuote(E35,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GBP3L6L28Y_Quote#0000</v>
+        <v>GBP3L6L28Y_Quote#0003</v>
       </c>
       <c r="G35" s="46" t="str">
         <f>_xll.ohRangeRetrieveError(F35)</f>
@@ -25577,7 +25575,7 @@
       </c>
       <c r="F36" s="41" t="str">
         <f>_xll.qlSimpleQuote(E36,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GBP3L6L29Y_Quote#0000</v>
+        <v>GBP3L6L29Y_Quote#0003</v>
       </c>
       <c r="G36" s="46" t="str">
         <f>_xll.ohRangeRetrieveError(F36)</f>
@@ -25649,7 +25647,7 @@
       </c>
       <c r="F37" s="41" t="str">
         <f>_xll.qlSimpleQuote(E37,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GBP3L6L30Y_Quote#0000</v>
+        <v>GBP3L6L30Y_Quote#0003</v>
       </c>
       <c r="G37" s="46" t="str">
         <f>_xll.ohRangeRetrieveError(F37)</f>
@@ -25721,7 +25719,7 @@
       </c>
       <c r="F38" s="41" t="str">
         <f>_xll.qlSimpleQuote(E38,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GBP3L6L35Y_Quote#0000</v>
+        <v>GBP3L6L35Y_Quote#0003</v>
       </c>
       <c r="G38" s="46" t="str">
         <f>_xll.ohRangeRetrieveError(F38)</f>
@@ -25793,7 +25791,7 @@
       </c>
       <c r="F39" s="41" t="str">
         <f>_xll.qlSimpleQuote(E39,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GBP3L6L40Y_Quote#0000</v>
+        <v>GBP3L6L40Y_Quote#0003</v>
       </c>
       <c r="G39" s="46" t="str">
         <f>_xll.ohRangeRetrieveError(F39)</f>
@@ -25865,7 +25863,7 @@
       </c>
       <c r="F40" s="41" t="str">
         <f>_xll.qlSimpleQuote(E40,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GBP3L6L50Y_Quote#0000</v>
+        <v>GBP3L6L50Y_Quote#0003</v>
       </c>
       <c r="G40" s="46" t="str">
         <f>_xll.ohRangeRetrieveError(F40)</f>
@@ -25937,7 +25935,7 @@
       </c>
       <c r="F41" s="44" t="str">
         <f>_xll.qlSimpleQuote(E41,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GBP3L6L60Y_Quote#0000</v>
+        <v>GBP3L6L60Y_Quote#0003</v>
       </c>
       <c r="G41" s="48" t="str">
         <f>_xll.ohRangeRetrieveError(F41)</f>
@@ -26115,7 +26113,7 @@
       <c r="W2" s="177"/>
       <c r="X2" s="196">
         <f>_xll.ohTrigger(X5:X41)</f>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="Y2" s="217"/>
     </row>
@@ -26218,7 +26216,7 @@
       </c>
       <c r="F5" s="41" t="str">
         <f>_xll.qlSimpleQuote(E5,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GBP6L12L1Y_Quote#0000</v>
+        <v>GBP6L12L1Y_Quote#0003</v>
       </c>
       <c r="G5" s="46" t="str">
         <f>_xll.ohRangeRetrieveError(F5)</f>
@@ -26292,7 +26290,7 @@
       </c>
       <c r="F6" s="41" t="str">
         <f>_xll.qlSimpleQuote(E6,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GBP6L12L15M_Quote#0000</v>
+        <v>GBP6L12L15M_Quote#0003</v>
       </c>
       <c r="G6" s="46" t="str">
         <f>_xll.ohRangeRetrieveError(F6)</f>
@@ -26364,7 +26362,7 @@
       </c>
       <c r="F7" s="41" t="str">
         <f>_xll.qlSimpleQuote(E7,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GBP6L12L18M_Quote#0000</v>
+        <v>GBP6L12L18M_Quote#0003</v>
       </c>
       <c r="G7" s="46" t="str">
         <f>_xll.ohRangeRetrieveError(F7)</f>
@@ -26436,7 +26434,7 @@
       </c>
       <c r="F8" s="41" t="str">
         <f>_xll.qlSimpleQuote(E8,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GBP6L12L21M_Quote#0000</v>
+        <v>GBP6L12L21M_Quote#0003</v>
       </c>
       <c r="G8" s="46" t="str">
         <f>_xll.ohRangeRetrieveError(F8)</f>
@@ -26508,7 +26506,7 @@
       </c>
       <c r="F9" s="41" t="str">
         <f>_xll.qlSimpleQuote(E9,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GBP6L12L2Y_Quote#0000</v>
+        <v>GBP6L12L2Y_Quote#0003</v>
       </c>
       <c r="G9" s="46" t="str">
         <f>_xll.ohRangeRetrieveError(F9)</f>
@@ -26580,7 +26578,7 @@
       </c>
       <c r="F10" s="41" t="str">
         <f>_xll.qlSimpleQuote(E10,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GBP6L12L3Y_Quote#0000</v>
+        <v>GBP6L12L3Y_Quote#0003</v>
       </c>
       <c r="G10" s="46" t="str">
         <f>_xll.ohRangeRetrieveError(F10)</f>
@@ -26652,7 +26650,7 @@
       </c>
       <c r="F11" s="41" t="str">
         <f>_xll.qlSimpleQuote(E11,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GBP6L12L4Y_Quote#0000</v>
+        <v>GBP6L12L4Y_Quote#0003</v>
       </c>
       <c r="G11" s="46" t="str">
         <f>_xll.ohRangeRetrieveError(F11)</f>
@@ -26724,7 +26722,7 @@
       </c>
       <c r="F12" s="41" t="str">
         <f>_xll.qlSimpleQuote(E12,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GBP6L12L5Y_Quote#0000</v>
+        <v>GBP6L12L5Y_Quote#0003</v>
       </c>
       <c r="G12" s="46" t="str">
         <f>_xll.ohRangeRetrieveError(F12)</f>
@@ -26796,7 +26794,7 @@
       </c>
       <c r="F13" s="41" t="str">
         <f>_xll.qlSimpleQuote(E13,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GBP6L12L6Y_Quote#0000</v>
+        <v>GBP6L12L6Y_Quote#0003</v>
       </c>
       <c r="G13" s="46" t="str">
         <f>_xll.ohRangeRetrieveError(F13)</f>
@@ -26868,7 +26866,7 @@
       </c>
       <c r="F14" s="41" t="str">
         <f>_xll.qlSimpleQuote(E14,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GBP6L12L7Y_Quote#0000</v>
+        <v>GBP6L12L7Y_Quote#0003</v>
       </c>
       <c r="G14" s="46" t="str">
         <f>_xll.ohRangeRetrieveError(F14)</f>
@@ -26940,7 +26938,7 @@
       </c>
       <c r="F15" s="41" t="str">
         <f>_xll.qlSimpleQuote(E15,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GBP6L12L8Y_Quote#0000</v>
+        <v>GBP6L12L8Y_Quote#0003</v>
       </c>
       <c r="G15" s="46" t="str">
         <f>_xll.ohRangeRetrieveError(F15)</f>
@@ -27012,7 +27010,7 @@
       </c>
       <c r="F16" s="41" t="str">
         <f>_xll.qlSimpleQuote(E16,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GBP6L12L9Y_Quote#0000</v>
+        <v>GBP6L12L9Y_Quote#0003</v>
       </c>
       <c r="G16" s="46" t="str">
         <f>_xll.ohRangeRetrieveError(F16)</f>
@@ -27084,7 +27082,7 @@
       </c>
       <c r="F17" s="41" t="str">
         <f>_xll.qlSimpleQuote(E17,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GBP6L12L10Y_Quote#0000</v>
+        <v>GBP6L12L10Y_Quote#0003</v>
       </c>
       <c r="G17" s="46" t="str">
         <f>_xll.ohRangeRetrieveError(F17)</f>
@@ -27156,7 +27154,7 @@
       </c>
       <c r="F18" s="41" t="str">
         <f>_xll.qlSimpleQuote(E18,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GBP6L12L11Y_Quote#0000</v>
+        <v>GBP6L12L11Y_Quote#0003</v>
       </c>
       <c r="G18" s="46" t="str">
         <f>_xll.ohRangeRetrieveError(F18)</f>
@@ -27228,7 +27226,7 @@
       </c>
       <c r="F19" s="41" t="str">
         <f>_xll.qlSimpleQuote(E19,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GBP6L12L12Y_Quote#0000</v>
+        <v>GBP6L12L12Y_Quote#0003</v>
       </c>
       <c r="G19" s="46" t="str">
         <f>_xll.ohRangeRetrieveError(F19)</f>
@@ -27300,7 +27298,7 @@
       </c>
       <c r="F20" s="41" t="str">
         <f>_xll.qlSimpleQuote(E20,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GBP6L12L13Y_Quote#0000</v>
+        <v>GBP6L12L13Y_Quote#0003</v>
       </c>
       <c r="G20" s="46" t="str">
         <f>_xll.ohRangeRetrieveError(F20)</f>
@@ -27372,7 +27370,7 @@
       </c>
       <c r="F21" s="41" t="str">
         <f>_xll.qlSimpleQuote(E21,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GBP6L12L14Y_Quote#0000</v>
+        <v>GBP6L12L14Y_Quote#0003</v>
       </c>
       <c r="G21" s="46" t="str">
         <f>_xll.ohRangeRetrieveError(F21)</f>
@@ -27444,7 +27442,7 @@
       </c>
       <c r="F22" s="41" t="str">
         <f>_xll.qlSimpleQuote(E22,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GBP6L12L15Y_Quote#0000</v>
+        <v>GBP6L12L15Y_Quote#0003</v>
       </c>
       <c r="G22" s="46" t="str">
         <f>_xll.ohRangeRetrieveError(F22)</f>
@@ -27516,7 +27514,7 @@
       </c>
       <c r="F23" s="41" t="str">
         <f>_xll.qlSimpleQuote(E23,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GBP6L12L16Y_Quote#0000</v>
+        <v>GBP6L12L16Y_Quote#0003</v>
       </c>
       <c r="G23" s="46" t="str">
         <f>_xll.ohRangeRetrieveError(F23)</f>
@@ -27588,7 +27586,7 @@
       </c>
       <c r="F24" s="41" t="str">
         <f>_xll.qlSimpleQuote(E24,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GBP6L12L17Y_Quote#0000</v>
+        <v>GBP6L12L17Y_Quote#0003</v>
       </c>
       <c r="G24" s="46" t="str">
         <f>_xll.ohRangeRetrieveError(F24)</f>
@@ -27660,7 +27658,7 @@
       </c>
       <c r="F25" s="41" t="str">
         <f>_xll.qlSimpleQuote(E25,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GBP6L12L18Y_Quote#0000</v>
+        <v>GBP6L12L18Y_Quote#0003</v>
       </c>
       <c r="G25" s="46" t="str">
         <f>_xll.ohRangeRetrieveError(F25)</f>
@@ -27732,7 +27730,7 @@
       </c>
       <c r="F26" s="41" t="str">
         <f>_xll.qlSimpleQuote(E26,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GBP6L12L19Y_Quote#0000</v>
+        <v>GBP6L12L19Y_Quote#0003</v>
       </c>
       <c r="G26" s="46" t="str">
         <f>_xll.ohRangeRetrieveError(F26)</f>
@@ -27804,7 +27802,7 @@
       </c>
       <c r="F27" s="41" t="str">
         <f>_xll.qlSimpleQuote(E27,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GBP6L12L20Y_Quote#0000</v>
+        <v>GBP6L12L20Y_Quote#0003</v>
       </c>
       <c r="G27" s="46" t="str">
         <f>_xll.ohRangeRetrieveError(F27)</f>
@@ -27876,7 +27874,7 @@
       </c>
       <c r="F28" s="41" t="str">
         <f>_xll.qlSimpleQuote(E28,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GBP6L12L21Y_Quote#0000</v>
+        <v>GBP6L12L21Y_Quote#0003</v>
       </c>
       <c r="G28" s="46" t="str">
         <f>_xll.ohRangeRetrieveError(F28)</f>
@@ -27948,7 +27946,7 @@
       </c>
       <c r="F29" s="41" t="str">
         <f>_xll.qlSimpleQuote(E29,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GBP6L12L22Y_Quote#0000</v>
+        <v>GBP6L12L22Y_Quote#0003</v>
       </c>
       <c r="G29" s="46" t="str">
         <f>_xll.ohRangeRetrieveError(F29)</f>
@@ -28020,7 +28018,7 @@
       </c>
       <c r="F30" s="41" t="str">
         <f>_xll.qlSimpleQuote(E30,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GBP6L12L23Y_Quote#0000</v>
+        <v>GBP6L12L23Y_Quote#0003</v>
       </c>
       <c r="G30" s="46" t="str">
         <f>_xll.ohRangeRetrieveError(F30)</f>
@@ -28092,7 +28090,7 @@
       </c>
       <c r="F31" s="41" t="str">
         <f>_xll.qlSimpleQuote(E31,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GBP6L12L24Y_Quote#0000</v>
+        <v>GBP6L12L24Y_Quote#0003</v>
       </c>
       <c r="G31" s="46" t="str">
         <f>_xll.ohRangeRetrieveError(F31)</f>
@@ -28164,7 +28162,7 @@
       </c>
       <c r="F32" s="41" t="str">
         <f>_xll.qlSimpleQuote(E32,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GBP6L12L25Y_Quote#0000</v>
+        <v>GBP6L12L25Y_Quote#0003</v>
       </c>
       <c r="G32" s="46" t="str">
         <f>_xll.ohRangeRetrieveError(F32)</f>
@@ -28236,7 +28234,7 @@
       </c>
       <c r="F33" s="41" t="str">
         <f>_xll.qlSimpleQuote(E33,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GBP6L12L26Y_Quote#0000</v>
+        <v>GBP6L12L26Y_Quote#0003</v>
       </c>
       <c r="G33" s="46" t="str">
         <f>_xll.ohRangeRetrieveError(F33)</f>
@@ -28308,7 +28306,7 @@
       </c>
       <c r="F34" s="41" t="str">
         <f>_xll.qlSimpleQuote(E34,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GBP6L12L27Y_Quote#0000</v>
+        <v>GBP6L12L27Y_Quote#0003</v>
       </c>
       <c r="G34" s="46" t="str">
         <f>_xll.ohRangeRetrieveError(F34)</f>
@@ -28380,7 +28378,7 @@
       </c>
       <c r="F35" s="41" t="str">
         <f>_xll.qlSimpleQuote(E35,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GBP6L12L28Y_Quote#0000</v>
+        <v>GBP6L12L28Y_Quote#0003</v>
       </c>
       <c r="G35" s="46" t="str">
         <f>_xll.ohRangeRetrieveError(F35)</f>
@@ -28452,7 +28450,7 @@
       </c>
       <c r="F36" s="41" t="str">
         <f>_xll.qlSimpleQuote(E36,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GBP6L12L29Y_Quote#0000</v>
+        <v>GBP6L12L29Y_Quote#0003</v>
       </c>
       <c r="G36" s="46" t="str">
         <f>_xll.ohRangeRetrieveError(F36)</f>
@@ -28524,7 +28522,7 @@
       </c>
       <c r="F37" s="41" t="str">
         <f>_xll.qlSimpleQuote(E37,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GBP6L12L30Y_Quote#0000</v>
+        <v>GBP6L12L30Y_Quote#0003</v>
       </c>
       <c r="G37" s="46" t="str">
         <f>_xll.ohRangeRetrieveError(F37)</f>
@@ -28596,7 +28594,7 @@
       </c>
       <c r="F38" s="41" t="str">
         <f>_xll.qlSimpleQuote(E38,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GBP6L12L35Y_Quote#0000</v>
+        <v>GBP6L12L35Y_Quote#0003</v>
       </c>
       <c r="G38" s="46" t="str">
         <f>_xll.ohRangeRetrieveError(F38)</f>
@@ -28668,7 +28666,7 @@
       </c>
       <c r="F39" s="41" t="str">
         <f>_xll.qlSimpleQuote(E39,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GBP6L12L40Y_Quote#0000</v>
+        <v>GBP6L12L40Y_Quote#0003</v>
       </c>
       <c r="G39" s="46" t="str">
         <f>_xll.ohRangeRetrieveError(F39)</f>
@@ -28740,7 +28738,7 @@
       </c>
       <c r="F40" s="41" t="str">
         <f>_xll.qlSimpleQuote(E40,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GBP6L12L50Y_Quote#0000</v>
+        <v>GBP6L12L50Y_Quote#0003</v>
       </c>
       <c r="G40" s="46" t="str">
         <f>_xll.ohRangeRetrieveError(F40)</f>
@@ -28812,7 +28810,7 @@
       </c>
       <c r="F41" s="44" t="str">
         <f>_xll.qlSimpleQuote(E41,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GBP6L12L60Y_Quote#0000</v>
+        <v>GBP6L12L60Y_Quote#0003</v>
       </c>
       <c r="G41" s="48" t="str">
         <f>_xll.ohRangeRetrieveError(F41)</f>
@@ -28991,7 +28989,7 @@
       <c r="W2" s="177"/>
       <c r="X2" s="196">
         <f>_xll.ohTrigger(X5:X15)</f>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="Y2" s="217"/>
     </row>
@@ -29087,7 +29085,7 @@
       </c>
       <c r="F5" s="248" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$C5&amp;$D5&amp;$B5&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GBP2X1S_Quote#0000</v>
+        <v>GBP2X1S_Quote#0003</v>
       </c>
       <c r="G5" s="249" t="str">
         <f>_xll.ohRangeRetrieveError(F5)</f>
@@ -29156,7 +29154,7 @@
       </c>
       <c r="F6" s="253" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$C6&amp;$D6&amp;$B6&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GBP3X1S_Quote#0000</v>
+        <v>GBP3X1S_Quote#0003</v>
       </c>
       <c r="G6" s="254" t="str">
         <f>_xll.ohRangeRetrieveError(F6)</f>
@@ -29223,7 +29221,7 @@
       </c>
       <c r="F7" s="253" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$C7&amp;$D7&amp;$B7&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GBP4X1S_Quote#0000</v>
+        <v>GBP4X1S_Quote#0003</v>
       </c>
       <c r="G7" s="254" t="str">
         <f>_xll.ohRangeRetrieveError(F7)</f>
@@ -29290,7 +29288,7 @@
       </c>
       <c r="F8" s="253" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$C8&amp;$D8&amp;$B8&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GBP5X1S_Quote#0000</v>
+        <v>GBP5X1S_Quote#0003</v>
       </c>
       <c r="G8" s="254" t="str">
         <f>_xll.ohRangeRetrieveError(F8)</f>
@@ -29357,7 +29355,7 @@
       </c>
       <c r="F9" s="253" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$C9&amp;$D9&amp;$B9&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GBP6X1S_Quote#0000</v>
+        <v>GBP6X1S_Quote#0003</v>
       </c>
       <c r="G9" s="254" t="str">
         <f>_xll.ohRangeRetrieveError(F9)</f>
@@ -29424,7 +29422,7 @@
       </c>
       <c r="F10" s="253" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$C10&amp;$D10&amp;$B10&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GBP7X1S_Quote#0000</v>
+        <v>GBP7X1S_Quote#0003</v>
       </c>
       <c r="G10" s="254" t="str">
         <f>_xll.ohRangeRetrieveError(F10)</f>
@@ -29491,7 +29489,7 @@
       </c>
       <c r="F11" s="253" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$C11&amp;$D11&amp;$B11&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GBP8X1S_Quote#0000</v>
+        <v>GBP8X1S_Quote#0003</v>
       </c>
       <c r="G11" s="254" t="str">
         <f>_xll.ohRangeRetrieveError(F11)</f>
@@ -29558,7 +29556,7 @@
       </c>
       <c r="F12" s="253" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$C12&amp;$D12&amp;$B12&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GBP9X1S_Quote#0000</v>
+        <v>GBP9X1S_Quote#0003</v>
       </c>
       <c r="G12" s="254" t="str">
         <f>_xll.ohRangeRetrieveError(F12)</f>
@@ -29625,7 +29623,7 @@
       </c>
       <c r="F13" s="253" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$C13&amp;$D13&amp;$B13&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GBP10X1S_Quote#0000</v>
+        <v>GBP10X1S_Quote#0003</v>
       </c>
       <c r="G13" s="254" t="str">
         <f>_xll.ohRangeRetrieveError(F13)</f>
@@ -29692,7 +29690,7 @@
       </c>
       <c r="F14" s="253" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$C14&amp;$D14&amp;$B14&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GBP11X1S_Quote#0000</v>
+        <v>GBP11X1S_Quote#0003</v>
       </c>
       <c r="G14" s="254" t="str">
         <f>_xll.ohRangeRetrieveError(F14)</f>
@@ -29759,7 +29757,7 @@
       </c>
       <c r="F15" s="257" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$C15&amp;$D15&amp;$B15&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GBP12X1S_Quote#0000</v>
+        <v>GBP12X1S_Quote#0003</v>
       </c>
       <c r="G15" s="258" t="str">
         <f>_xll.ohRangeRetrieveError(F15)</f>
@@ -29950,7 +29948,7 @@
       <c r="W2" s="177"/>
       <c r="X2" s="196">
         <f>_xll.ohTrigger(X5:X43)</f>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="Y2" s="217"/>
     </row>
@@ -30053,7 +30051,7 @@
       </c>
       <c r="F5" s="253" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$C5&amp;$D5&amp;$B5&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GBPAM3L6M_Quote#0000</v>
+        <v>GBPAM3L6M_Quote#0003</v>
       </c>
       <c r="G5" s="254" t="str">
         <f>_xll.ohRangeRetrieveError(F5)</f>
@@ -30127,7 +30125,7 @@
       </c>
       <c r="F6" s="253" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$C6&amp;$D6&amp;$B6&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GBPAM3L9M_Quote#0000</v>
+        <v>GBPAM3L9M_Quote#0003</v>
       </c>
       <c r="G6" s="254" t="str">
         <f>_xll.ohRangeRetrieveError(F6)</f>
@@ -30199,7 +30197,7 @@
       </c>
       <c r="F7" s="253" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$C7&amp;$D7&amp;$B7&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GBPAM3L1Y_Quote#0000</v>
+        <v>GBPAM3L1Y_Quote#0003</v>
       </c>
       <c r="G7" s="254" t="str">
         <f>_xll.ohRangeRetrieveError(F7)</f>
@@ -30271,7 +30269,7 @@
       </c>
       <c r="F8" s="253" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$C8&amp;$D8&amp;$B8&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GBPAM3L15M_Quote#0000</v>
+        <v>GBPAM3L15M_Quote#0003</v>
       </c>
       <c r="G8" s="254" t="str">
         <f>_xll.ohRangeRetrieveError(F8)</f>
@@ -30343,7 +30341,7 @@
       </c>
       <c r="F9" s="253" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$C9&amp;$D9&amp;$B9&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GBPAM3L18M_Quote#0000</v>
+        <v>GBPAM3L18M_Quote#0003</v>
       </c>
       <c r="G9" s="254" t="str">
         <f>_xll.ohRangeRetrieveError(F9)</f>
@@ -30415,7 +30413,7 @@
       </c>
       <c r="F10" s="253" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$C10&amp;$D10&amp;$B10&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GBPAM3L21M_Quote#0000</v>
+        <v>GBPAM3L21M_Quote#0003</v>
       </c>
       <c r="G10" s="254" t="str">
         <f>_xll.ohRangeRetrieveError(F10)</f>
@@ -30487,7 +30485,7 @@
       </c>
       <c r="F11" s="253" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$C11&amp;$D11&amp;$B11&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GBPAM3L2Y_Quote#0000</v>
+        <v>GBPAM3L2Y_Quote#0003</v>
       </c>
       <c r="G11" s="254" t="str">
         <f>_xll.ohRangeRetrieveError(F11)</f>
@@ -30559,7 +30557,7 @@
       </c>
       <c r="F12" s="253" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$C12&amp;$D12&amp;$B12&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GBPAM3L3Y_Quote#0000</v>
+        <v>GBPAM3L3Y_Quote#0003</v>
       </c>
       <c r="G12" s="254" t="str">
         <f>_xll.ohRangeRetrieveError(F12)</f>
@@ -30631,7 +30629,7 @@
       </c>
       <c r="F13" s="253" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$C13&amp;$D13&amp;$B13&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GBPAM3L4Y_Quote#0000</v>
+        <v>GBPAM3L4Y_Quote#0003</v>
       </c>
       <c r="G13" s="254" t="str">
         <f>_xll.ohRangeRetrieveError(F13)</f>
@@ -30703,7 +30701,7 @@
       </c>
       <c r="F14" s="253" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$C14&amp;$D14&amp;$B14&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GBPAM3L5Y_Quote#0000</v>
+        <v>GBPAM3L5Y_Quote#0003</v>
       </c>
       <c r="G14" s="254" t="str">
         <f>_xll.ohRangeRetrieveError(F14)</f>
@@ -30775,7 +30773,7 @@
       </c>
       <c r="F15" s="253" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$C15&amp;$D15&amp;$B15&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GBPAM3L6Y_Quote#0000</v>
+        <v>GBPAM3L6Y_Quote#0003</v>
       </c>
       <c r="G15" s="254" t="str">
         <f>_xll.ohRangeRetrieveError(F15)</f>
@@ -30847,7 +30845,7 @@
       </c>
       <c r="F16" s="253" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$C16&amp;$D16&amp;$B16&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GBPAM3L7Y_Quote#0000</v>
+        <v>GBPAM3L7Y_Quote#0003</v>
       </c>
       <c r="G16" s="254" t="str">
         <f>_xll.ohRangeRetrieveError(F16)</f>
@@ -30919,7 +30917,7 @@
       </c>
       <c r="F17" s="253" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$C17&amp;$D17&amp;$B17&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GBPAM3L8Y_Quote#0000</v>
+        <v>GBPAM3L8Y_Quote#0003</v>
       </c>
       <c r="G17" s="254" t="str">
         <f>_xll.ohRangeRetrieveError(F17)</f>
@@ -30991,7 +30989,7 @@
       </c>
       <c r="F18" s="253" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$C18&amp;$D18&amp;$B18&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GBPAM3L9Y_Quote#0000</v>
+        <v>GBPAM3L9Y_Quote#0003</v>
       </c>
       <c r="G18" s="254" t="str">
         <f>_xll.ohRangeRetrieveError(F18)</f>
@@ -31063,7 +31061,7 @@
       </c>
       <c r="F19" s="253" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$C19&amp;$D19&amp;$B19&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GBPAM3L10Y_Quote#0000</v>
+        <v>GBPAM3L10Y_Quote#0003</v>
       </c>
       <c r="G19" s="254" t="str">
         <f>_xll.ohRangeRetrieveError(F19)</f>
@@ -31135,7 +31133,7 @@
       </c>
       <c r="F20" s="253" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$C20&amp;$D20&amp;$B20&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GBPAM3L11Y_Quote#0000</v>
+        <v>GBPAM3L11Y_Quote#0003</v>
       </c>
       <c r="G20" s="254" t="str">
         <f>_xll.ohRangeRetrieveError(F20)</f>
@@ -31207,7 +31205,7 @@
       </c>
       <c r="F21" s="253" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$C21&amp;$D21&amp;$B21&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GBPAM3L12Y_Quote#0000</v>
+        <v>GBPAM3L12Y_Quote#0003</v>
       </c>
       <c r="G21" s="254" t="str">
         <f>_xll.ohRangeRetrieveError(F21)</f>
@@ -31279,7 +31277,7 @@
       </c>
       <c r="F22" s="253" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$C22&amp;$D22&amp;$B22&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GBPAM3L13Y_Quote#0000</v>
+        <v>GBPAM3L13Y_Quote#0003</v>
       </c>
       <c r="G22" s="254" t="str">
         <f>_xll.ohRangeRetrieveError(F22)</f>
@@ -31351,7 +31349,7 @@
       </c>
       <c r="F23" s="253" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$C23&amp;$D23&amp;$B23&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GBPAM3L14Y_Quote#0000</v>
+        <v>GBPAM3L14Y_Quote#0003</v>
       </c>
       <c r="G23" s="254" t="str">
         <f>_xll.ohRangeRetrieveError(F23)</f>
@@ -31423,7 +31421,7 @@
       </c>
       <c r="F24" s="253" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$C24&amp;$D24&amp;$B24&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GBPAM3L15Y_Quote#0000</v>
+        <v>GBPAM3L15Y_Quote#0003</v>
       </c>
       <c r="G24" s="254" t="str">
         <f>_xll.ohRangeRetrieveError(F24)</f>
@@ -31495,7 +31493,7 @@
       </c>
       <c r="F25" s="253" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$C25&amp;$D25&amp;$B25&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GBPAM3L16Y_Quote#0000</v>
+        <v>GBPAM3L16Y_Quote#0003</v>
       </c>
       <c r="G25" s="254" t="str">
         <f>_xll.ohRangeRetrieveError(F25)</f>
@@ -31567,7 +31565,7 @@
       </c>
       <c r="F26" s="253" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$C26&amp;$D26&amp;$B26&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GBPAM3L17Y_Quote#0000</v>
+        <v>GBPAM3L17Y_Quote#0003</v>
       </c>
       <c r="G26" s="254" t="str">
         <f>_xll.ohRangeRetrieveError(F26)</f>
@@ -31639,7 +31637,7 @@
       </c>
       <c r="F27" s="253" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$C27&amp;$D27&amp;$B27&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GBPAM3L18Y_Quote#0000</v>
+        <v>GBPAM3L18Y_Quote#0003</v>
       </c>
       <c r="G27" s="254" t="str">
         <f>_xll.ohRangeRetrieveError(F27)</f>
@@ -31711,7 +31709,7 @@
       </c>
       <c r="F28" s="253" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$C28&amp;$D28&amp;$B28&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GBPAM3L19Y_Quote#0000</v>
+        <v>GBPAM3L19Y_Quote#0003</v>
       </c>
       <c r="G28" s="254" t="str">
         <f>_xll.ohRangeRetrieveError(F28)</f>
@@ -31783,7 +31781,7 @@
       </c>
       <c r="F29" s="253" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$C29&amp;$D29&amp;$B29&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GBPAM3L20Y_Quote#0000</v>
+        <v>GBPAM3L20Y_Quote#0003</v>
       </c>
       <c r="G29" s="254" t="str">
         <f>_xll.ohRangeRetrieveError(F29)</f>
@@ -31855,7 +31853,7 @@
       </c>
       <c r="F30" s="253" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$C30&amp;$D30&amp;$B30&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GBPAM3L21Y_Quote#0000</v>
+        <v>GBPAM3L21Y_Quote#0003</v>
       </c>
       <c r="G30" s="254" t="str">
         <f>_xll.ohRangeRetrieveError(F30)</f>
@@ -31927,7 +31925,7 @@
       </c>
       <c r="F31" s="253" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$C31&amp;$D31&amp;$B31&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GBPAM3L22Y_Quote#0000</v>
+        <v>GBPAM3L22Y_Quote#0003</v>
       </c>
       <c r="G31" s="254" t="str">
         <f>_xll.ohRangeRetrieveError(F31)</f>
@@ -31999,7 +31997,7 @@
       </c>
       <c r="F32" s="253" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$C32&amp;$D32&amp;$B32&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GBPAM3L23Y_Quote#0000</v>
+        <v>GBPAM3L23Y_Quote#0003</v>
       </c>
       <c r="G32" s="254" t="str">
         <f>_xll.ohRangeRetrieveError(F32)</f>
@@ -32071,7 +32069,7 @@
       </c>
       <c r="F33" s="253" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$C33&amp;$D33&amp;$B33&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GBPAM3L24Y_Quote#0000</v>
+        <v>GBPAM3L24Y_Quote#0003</v>
       </c>
       <c r="G33" s="254" t="str">
         <f>_xll.ohRangeRetrieveError(F33)</f>
@@ -32143,7 +32141,7 @@
       </c>
       <c r="F34" s="253" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$C34&amp;$D34&amp;$B34&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GBPAM3L25Y_Quote#0000</v>
+        <v>GBPAM3L25Y_Quote#0003</v>
       </c>
       <c r="G34" s="254" t="str">
         <f>_xll.ohRangeRetrieveError(F34)</f>
@@ -32215,7 +32213,7 @@
       </c>
       <c r="F35" s="253" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$C35&amp;$D35&amp;$B35&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GBPAM3L26Y_Quote#0000</v>
+        <v>GBPAM3L26Y_Quote#0003</v>
       </c>
       <c r="G35" s="254" t="str">
         <f>_xll.ohRangeRetrieveError(F35)</f>
@@ -32287,7 +32285,7 @@
       </c>
       <c r="F36" s="253" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$C36&amp;$D36&amp;$B36&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GBPAM3L27Y_Quote#0000</v>
+        <v>GBPAM3L27Y_Quote#0003</v>
       </c>
       <c r="G36" s="254" t="str">
         <f>_xll.ohRangeRetrieveError(F36)</f>
@@ -32359,7 +32357,7 @@
       </c>
       <c r="F37" s="253" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$C37&amp;$D37&amp;$B37&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GBPAM3L28Y_Quote#0000</v>
+        <v>GBPAM3L28Y_Quote#0003</v>
       </c>
       <c r="G37" s="254" t="str">
         <f>_xll.ohRangeRetrieveError(F37)</f>
@@ -32432,7 +32430,7 @@
       </c>
       <c r="F38" s="253" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$C38&amp;$D38&amp;$B38&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GBPAM3L29Y_Quote#0000</v>
+        <v>GBPAM3L29Y_Quote#0003</v>
       </c>
       <c r="G38" s="254" t="str">
         <f>_xll.ohRangeRetrieveError(F38)</f>
@@ -32505,7 +32503,7 @@
       </c>
       <c r="F39" s="253" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$C39&amp;$D39&amp;$B39&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GBPAM3L30Y_Quote#0000</v>
+        <v>GBPAM3L30Y_Quote#0003</v>
       </c>
       <c r="G39" s="254" t="str">
         <f>_xll.ohRangeRetrieveError(F39)</f>
@@ -32578,7 +32576,7 @@
       </c>
       <c r="F40" s="253" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$C40&amp;$D40&amp;$B40&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GBPAM3L35Y_Quote#0000</v>
+        <v>GBPAM3L35Y_Quote#0003</v>
       </c>
       <c r="G40" s="254" t="str">
         <f>_xll.ohRangeRetrieveError(F40)</f>
@@ -32651,7 +32649,7 @@
       </c>
       <c r="F41" s="253" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$C41&amp;$D41&amp;$B41&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GBPAM3L40Y_Quote#0000</v>
+        <v>GBPAM3L40Y_Quote#0003</v>
       </c>
       <c r="G41" s="254" t="str">
         <f>_xll.ohRangeRetrieveError(F41)</f>
@@ -32724,7 +32722,7 @@
       </c>
       <c r="F42" s="253" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$C42&amp;$D42&amp;$B42&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GBPAM3L50Y_Quote#0000</v>
+        <v>GBPAM3L50Y_Quote#0003</v>
       </c>
       <c r="G42" s="254" t="str">
         <f>_xll.ohRangeRetrieveError(F42)</f>
@@ -32797,7 +32795,7 @@
       </c>
       <c r="F43" s="257" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$C43&amp;$D43&amp;$B43&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GBPAM3L60Y_Quote#0000</v>
+        <v>GBPAM3L60Y_Quote#0003</v>
       </c>
       <c r="G43" s="258" t="str">
         <f>_xll.ohRangeRetrieveError(F43)</f>
@@ -33007,7 +33005,7 @@
       <c r="W2" s="177"/>
       <c r="X2" s="196">
         <f>_xll.ohTrigger(X5:X41)</f>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="Y2" s="217"/>
     </row>
@@ -33110,7 +33108,7 @@
       </c>
       <c r="F5" s="253" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$C5&amp;$D5&amp;$B5&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GBPSM3L1Y_Quote#0000</v>
+        <v>GBPSM3L1Y_Quote#0003</v>
       </c>
       <c r="G5" s="254" t="str">
         <f>_xll.ohRangeRetrieveError(F5)</f>
@@ -33184,7 +33182,7 @@
       </c>
       <c r="F6" s="253" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$C6&amp;$D6&amp;$B6&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GBPSM3L15M_Quote#0000</v>
+        <v>GBPSM3L15M_Quote#0003</v>
       </c>
       <c r="G6" s="254" t="str">
         <f>_xll.ohRangeRetrieveError(F6)</f>
@@ -33256,7 +33254,7 @@
       </c>
       <c r="F7" s="253" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$C7&amp;$D7&amp;$B7&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GBPSM3L18M_Quote#0000</v>
+        <v>GBPSM3L18M_Quote#0003</v>
       </c>
       <c r="G7" s="254" t="str">
         <f>_xll.ohRangeRetrieveError(F7)</f>
@@ -33328,7 +33326,7 @@
       </c>
       <c r="F8" s="253" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$C8&amp;$D8&amp;$B8&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GBPSM3L21M_Quote#0000</v>
+        <v>GBPSM3L21M_Quote#0003</v>
       </c>
       <c r="G8" s="254" t="str">
         <f>_xll.ohRangeRetrieveError(F8)</f>
@@ -33400,7 +33398,7 @@
       </c>
       <c r="F9" s="253" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$C9&amp;$D9&amp;$B9&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GBPSM3L2Y_Quote#0000</v>
+        <v>GBPSM3L2Y_Quote#0003</v>
       </c>
       <c r="G9" s="254" t="str">
         <f>_xll.ohRangeRetrieveError(F9)</f>
@@ -33472,7 +33470,7 @@
       </c>
       <c r="F10" s="253" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$C10&amp;$D10&amp;$B10&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GBPSM3L3Y_Quote#0000</v>
+        <v>GBPSM3L3Y_Quote#0003</v>
       </c>
       <c r="G10" s="254" t="str">
         <f>_xll.ohRangeRetrieveError(F10)</f>
@@ -33544,7 +33542,7 @@
       </c>
       <c r="F11" s="253" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$C11&amp;$D11&amp;$B11&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GBPSM3L4Y_Quote#0000</v>
+        <v>GBPSM3L4Y_Quote#0003</v>
       </c>
       <c r="G11" s="254" t="str">
         <f>_xll.ohRangeRetrieveError(F11)</f>
@@ -33616,7 +33614,7 @@
       </c>
       <c r="F12" s="253" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$C12&amp;$D12&amp;$B12&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GBPSM3L5Y_Quote#0000</v>
+        <v>GBPSM3L5Y_Quote#0003</v>
       </c>
       <c r="G12" s="254" t="str">
         <f>_xll.ohRangeRetrieveError(F12)</f>
@@ -33688,7 +33686,7 @@
       </c>
       <c r="F13" s="253" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$C13&amp;$D13&amp;$B13&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GBPSM3L6Y_Quote#0000</v>
+        <v>GBPSM3L6Y_Quote#0003</v>
       </c>
       <c r="G13" s="254" t="str">
         <f>_xll.ohRangeRetrieveError(F13)</f>
@@ -33760,7 +33758,7 @@
       </c>
       <c r="F14" s="253" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$C14&amp;$D14&amp;$B14&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GBPSM3L7Y_Quote#0000</v>
+        <v>GBPSM3L7Y_Quote#0003</v>
       </c>
       <c r="G14" s="254" t="str">
         <f>_xll.ohRangeRetrieveError(F14)</f>
@@ -33832,7 +33830,7 @@
       </c>
       <c r="F15" s="253" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$C15&amp;$D15&amp;$B15&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GBPSM3L8Y_Quote#0000</v>
+        <v>GBPSM3L8Y_Quote#0003</v>
       </c>
       <c r="G15" s="254" t="str">
         <f>_xll.ohRangeRetrieveError(F15)</f>
@@ -33904,7 +33902,7 @@
       </c>
       <c r="F16" s="253" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$C16&amp;$D16&amp;$B16&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GBPSM3L9Y_Quote#0000</v>
+        <v>GBPSM3L9Y_Quote#0003</v>
       </c>
       <c r="G16" s="254" t="str">
         <f>_xll.ohRangeRetrieveError(F16)</f>
@@ -33976,7 +33974,7 @@
       </c>
       <c r="F17" s="253" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$C17&amp;$D17&amp;$B17&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GBPSM3L10Y_Quote#0000</v>
+        <v>GBPSM3L10Y_Quote#0003</v>
       </c>
       <c r="G17" s="254" t="str">
         <f>_xll.ohRangeRetrieveError(F17)</f>
@@ -34048,7 +34046,7 @@
       </c>
       <c r="F18" s="253" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$C18&amp;$D18&amp;$B18&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GBPSM3L11Y_Quote#0000</v>
+        <v>GBPSM3L11Y_Quote#0003</v>
       </c>
       <c r="G18" s="254" t="str">
         <f>_xll.ohRangeRetrieveError(F18)</f>
@@ -34120,7 +34118,7 @@
       </c>
       <c r="F19" s="253" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$C19&amp;$D19&amp;$B19&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GBPSM3L12Y_Quote#0000</v>
+        <v>GBPSM3L12Y_Quote#0003</v>
       </c>
       <c r="G19" s="254" t="str">
         <f>_xll.ohRangeRetrieveError(F19)</f>
@@ -34192,7 +34190,7 @@
       </c>
       <c r="F20" s="253" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$C20&amp;$D20&amp;$B20&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GBPSM3L13Y_Quote#0000</v>
+        <v>GBPSM3L13Y_Quote#0003</v>
       </c>
       <c r="G20" s="254" t="str">
         <f>_xll.ohRangeRetrieveError(F20)</f>
@@ -34264,7 +34262,7 @@
       </c>
       <c r="F21" s="253" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$C21&amp;$D21&amp;$B21&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GBPSM3L14Y_Quote#0000</v>
+        <v>GBPSM3L14Y_Quote#0003</v>
       </c>
       <c r="G21" s="254" t="str">
         <f>_xll.ohRangeRetrieveError(F21)</f>
@@ -34336,7 +34334,7 @@
       </c>
       <c r="F22" s="253" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$C22&amp;$D22&amp;$B22&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GBPSM3L15Y_Quote#0000</v>
+        <v>GBPSM3L15Y_Quote#0003</v>
       </c>
       <c r="G22" s="254" t="str">
         <f>_xll.ohRangeRetrieveError(F22)</f>
@@ -34408,7 +34406,7 @@
       </c>
       <c r="F23" s="253" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$C23&amp;$D23&amp;$B23&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GBPSM3L16Y_Quote#0000</v>
+        <v>GBPSM3L16Y_Quote#0003</v>
       </c>
       <c r="G23" s="254" t="str">
         <f>_xll.ohRangeRetrieveError(F23)</f>
@@ -34480,7 +34478,7 @@
       </c>
       <c r="F24" s="253" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$C24&amp;$D24&amp;$B24&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GBPSM3L17Y_Quote#0000</v>
+        <v>GBPSM3L17Y_Quote#0003</v>
       </c>
       <c r="G24" s="254" t="str">
         <f>_xll.ohRangeRetrieveError(F24)</f>
@@ -34552,7 +34550,7 @@
       </c>
       <c r="F25" s="253" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$C25&amp;$D25&amp;$B25&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GBPSM3L18Y_Quote#0000</v>
+        <v>GBPSM3L18Y_Quote#0003</v>
       </c>
       <c r="G25" s="254" t="str">
         <f>_xll.ohRangeRetrieveError(F25)</f>
@@ -34624,7 +34622,7 @@
       </c>
       <c r="F26" s="253" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$C26&amp;$D26&amp;$B26&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GBPSM3L19Y_Quote#0000</v>
+        <v>GBPSM3L19Y_Quote#0003</v>
       </c>
       <c r="G26" s="254" t="str">
         <f>_xll.ohRangeRetrieveError(F26)</f>
@@ -34696,7 +34694,7 @@
       </c>
       <c r="F27" s="253" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$C27&amp;$D27&amp;$B27&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GBPSM3L20Y_Quote#0000</v>
+        <v>GBPSM3L20Y_Quote#0003</v>
       </c>
       <c r="G27" s="254" t="str">
         <f>_xll.ohRangeRetrieveError(F27)</f>
@@ -34768,7 +34766,7 @@
       </c>
       <c r="F28" s="253" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$C28&amp;$D28&amp;$B28&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GBPSM3L21Y_Quote#0000</v>
+        <v>GBPSM3L21Y_Quote#0003</v>
       </c>
       <c r="G28" s="254" t="str">
         <f>_xll.ohRangeRetrieveError(F28)</f>
@@ -34840,7 +34838,7 @@
       </c>
       <c r="F29" s="253" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$C29&amp;$D29&amp;$B29&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GBPSM3L22Y_Quote#0000</v>
+        <v>GBPSM3L22Y_Quote#0003</v>
       </c>
       <c r="G29" s="254" t="str">
         <f>_xll.ohRangeRetrieveError(F29)</f>
@@ -34912,7 +34910,7 @@
       </c>
       <c r="F30" s="253" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$C30&amp;$D30&amp;$B30&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GBPSM3L23Y_Quote#0000</v>
+        <v>GBPSM3L23Y_Quote#0003</v>
       </c>
       <c r="G30" s="254" t="str">
         <f>_xll.ohRangeRetrieveError(F30)</f>
@@ -34984,7 +34982,7 @@
       </c>
       <c r="F31" s="253" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$C31&amp;$D31&amp;$B31&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GBPSM3L24Y_Quote#0000</v>
+        <v>GBPSM3L24Y_Quote#0003</v>
       </c>
       <c r="G31" s="254" t="str">
         <f>_xll.ohRangeRetrieveError(F31)</f>
@@ -35056,7 +35054,7 @@
       </c>
       <c r="F32" s="253" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$C32&amp;$D32&amp;$B32&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GBPSM3L25Y_Quote#0000</v>
+        <v>GBPSM3L25Y_Quote#0003</v>
       </c>
       <c r="G32" s="254" t="str">
         <f>_xll.ohRangeRetrieveError(F32)</f>
@@ -35128,7 +35126,7 @@
       </c>
       <c r="F33" s="253" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$C33&amp;$D33&amp;$B33&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GBPSM3L26Y_Quote#0000</v>
+        <v>GBPSM3L26Y_Quote#0003</v>
       </c>
       <c r="G33" s="254" t="str">
         <f>_xll.ohRangeRetrieveError(F33)</f>
@@ -35200,7 +35198,7 @@
       </c>
       <c r="F34" s="253" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$C34&amp;$D34&amp;$B34&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GBPSM3L27Y_Quote#0000</v>
+        <v>GBPSM3L27Y_Quote#0003</v>
       </c>
       <c r="G34" s="254" t="str">
         <f>_xll.ohRangeRetrieveError(F34)</f>
@@ -35272,7 +35270,7 @@
       </c>
       <c r="F35" s="253" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$C35&amp;$D35&amp;$B35&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GBPSM3L28Y_Quote#0000</v>
+        <v>GBPSM3L28Y_Quote#0003</v>
       </c>
       <c r="G35" s="254" t="str">
         <f>_xll.ohRangeRetrieveError(F35)</f>
@@ -35345,7 +35343,7 @@
       </c>
       <c r="F36" s="253" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$C36&amp;$D36&amp;$B36&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GBPSM3L29Y_Quote#0000</v>
+        <v>GBPSM3L29Y_Quote#0003</v>
       </c>
       <c r="G36" s="254" t="str">
         <f>_xll.ohRangeRetrieveError(F36)</f>
@@ -35418,7 +35416,7 @@
       </c>
       <c r="F37" s="253" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$C37&amp;$D37&amp;$B37&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GBPSM3L30Y_Quote#0000</v>
+        <v>GBPSM3L30Y_Quote#0003</v>
       </c>
       <c r="G37" s="254" t="str">
         <f>_xll.ohRangeRetrieveError(F37)</f>
@@ -35491,7 +35489,7 @@
       </c>
       <c r="F38" s="253" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$C38&amp;$D38&amp;$B38&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GBPSM3L35Y_Quote#0000</v>
+        <v>GBPSM3L35Y_Quote#0003</v>
       </c>
       <c r="G38" s="254" t="str">
         <f>_xll.ohRangeRetrieveError(F38)</f>
@@ -35564,7 +35562,7 @@
       </c>
       <c r="F39" s="253" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$C39&amp;$D39&amp;$B39&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GBPSM3L40Y_Quote#0000</v>
+        <v>GBPSM3L40Y_Quote#0003</v>
       </c>
       <c r="G39" s="254" t="str">
         <f>_xll.ohRangeRetrieveError(F39)</f>
@@ -35637,7 +35635,7 @@
       </c>
       <c r="F40" s="253" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$C40&amp;$D40&amp;$B40&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GBPSM3L50Y_Quote#0000</v>
+        <v>GBPSM3L50Y_Quote#0003</v>
       </c>
       <c r="G40" s="254" t="str">
         <f>_xll.ohRangeRetrieveError(F40)</f>
@@ -35710,7 +35708,7 @@
       </c>
       <c r="F41" s="257" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$C41&amp;$D41&amp;$B41&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GBPSM3L60Y_Quote#0000</v>
+        <v>GBPSM3L60Y_Quote#0003</v>
       </c>
       <c r="G41" s="258" t="str">
         <f>_xll.ohRangeRetrieveError(F41)</f>
@@ -35919,7 +35917,7 @@
       <c r="W2" s="177"/>
       <c r="X2" s="196">
         <f>_xll.ohTrigger(X5:X41)</f>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="Y2" s="217"/>
     </row>
@@ -36022,7 +36020,7 @@
       </c>
       <c r="F5" s="253" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$C5&amp;$D5&amp;$B5&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GBPSM6L1Y_Quote#0000</v>
+        <v>GBPSM6L1Y_Quote#0003</v>
       </c>
       <c r="G5" s="254" t="str">
         <f>_xll.ohRangeRetrieveError(F5)</f>
@@ -36096,7 +36094,7 @@
       </c>
       <c r="F6" s="253" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$C6&amp;$D6&amp;$B6&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GBPSB6L15M_Quote#0000</v>
+        <v>GBPSB6L15M_Quote#0003</v>
       </c>
       <c r="G6" s="254" t="str">
         <f>_xll.ohRangeRetrieveError(F6)</f>
@@ -36169,7 +36167,7 @@
       </c>
       <c r="F7" s="253" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$C7&amp;$D7&amp;$B7&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GBPSB6L18M_Quote#0000</v>
+        <v>GBPSB6L18M_Quote#0003</v>
       </c>
       <c r="G7" s="254" t="str">
         <f>_xll.ohRangeRetrieveError(F7)</f>
@@ -36242,7 +36240,7 @@
       </c>
       <c r="F8" s="253" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$C8&amp;$D8&amp;$B8&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GBPSB6L21M_Quote#0000</v>
+        <v>GBPSB6L21M_Quote#0003</v>
       </c>
       <c r="G8" s="254" t="str">
         <f>_xll.ohRangeRetrieveError(F8)</f>
@@ -36314,7 +36312,7 @@
       </c>
       <c r="F9" s="253" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$C9&amp;$D9&amp;$B9&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GBPSB6L2Y_Quote#0000</v>
+        <v>GBPSB6L2Y_Quote#0003</v>
       </c>
       <c r="G9" s="254" t="str">
         <f>_xll.ohRangeRetrieveError(F9)</f>
@@ -36386,7 +36384,7 @@
       </c>
       <c r="F10" s="253" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$C10&amp;$D10&amp;$B10&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GBPSB6L3Y_Quote#0000</v>
+        <v>GBPSB6L3Y_Quote#0003</v>
       </c>
       <c r="G10" s="254" t="str">
         <f>_xll.ohRangeRetrieveError(F10)</f>
@@ -36458,7 +36456,7 @@
       </c>
       <c r="F11" s="253" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$C11&amp;$D11&amp;$B11&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GBPSB6L4Y_Quote#0000</v>
+        <v>GBPSB6L4Y_Quote#0003</v>
       </c>
       <c r="G11" s="254" t="str">
         <f>_xll.ohRangeRetrieveError(F11)</f>
@@ -36530,7 +36528,7 @@
       </c>
       <c r="F12" s="253" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$C12&amp;$D12&amp;$B12&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GBPSB6L5Y_Quote#0000</v>
+        <v>GBPSB6L5Y_Quote#0003</v>
       </c>
       <c r="G12" s="254" t="str">
         <f>_xll.ohRangeRetrieveError(F12)</f>
@@ -36602,7 +36600,7 @@
       </c>
       <c r="F13" s="253" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$C13&amp;$D13&amp;$B13&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GBPSB6L6Y_Quote#0000</v>
+        <v>GBPSB6L6Y_Quote#0003</v>
       </c>
       <c r="G13" s="254" t="str">
         <f>_xll.ohRangeRetrieveError(F13)</f>
@@ -36674,7 +36672,7 @@
       </c>
       <c r="F14" s="253" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$C14&amp;$D14&amp;$B14&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GBPSB6L7Y_Quote#0000</v>
+        <v>GBPSB6L7Y_Quote#0003</v>
       </c>
       <c r="G14" s="254" t="str">
         <f>_xll.ohRangeRetrieveError(F14)</f>
@@ -36746,7 +36744,7 @@
       </c>
       <c r="F15" s="253" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$C15&amp;$D15&amp;$B15&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GBPSB6L8Y_Quote#0000</v>
+        <v>GBPSB6L8Y_Quote#0003</v>
       </c>
       <c r="G15" s="254" t="str">
         <f>_xll.ohRangeRetrieveError(F15)</f>
@@ -36818,7 +36816,7 @@
       </c>
       <c r="F16" s="253" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$C16&amp;$D16&amp;$B16&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GBPSB6L9Y_Quote#0000</v>
+        <v>GBPSB6L9Y_Quote#0003</v>
       </c>
       <c r="G16" s="254" t="str">
         <f>_xll.ohRangeRetrieveError(F16)</f>
@@ -36890,7 +36888,7 @@
       </c>
       <c r="F17" s="253" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$C17&amp;$D17&amp;$B17&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GBPSB6L10Y_Quote#0000</v>
+        <v>GBPSB6L10Y_Quote#0003</v>
       </c>
       <c r="G17" s="254" t="str">
         <f>_xll.ohRangeRetrieveError(F17)</f>
@@ -36962,7 +36960,7 @@
       </c>
       <c r="F18" s="253" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$C18&amp;$D18&amp;$B18&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GBPSB6L11Y_Quote#0000</v>
+        <v>GBPSB6L11Y_Quote#0003</v>
       </c>
       <c r="G18" s="254" t="str">
         <f>_xll.ohRangeRetrieveError(F18)</f>
@@ -37034,7 +37032,7 @@
       </c>
       <c r="F19" s="253" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$C19&amp;$D19&amp;$B19&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GBPSB6L12Y_Quote#0000</v>
+        <v>GBPSB6L12Y_Quote#0003</v>
       </c>
       <c r="G19" s="254" t="str">
         <f>_xll.ohRangeRetrieveError(F19)</f>
@@ -37106,7 +37104,7 @@
       </c>
       <c r="F20" s="253" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$C20&amp;$D20&amp;$B20&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GBPSB6L13Y_Quote#0000</v>
+        <v>GBPSB6L13Y_Quote#0003</v>
       </c>
       <c r="G20" s="254" t="str">
         <f>_xll.ohRangeRetrieveError(F20)</f>
@@ -37178,7 +37176,7 @@
       </c>
       <c r="F21" s="253" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$C21&amp;$D21&amp;$B21&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GBPSB6L14Y_Quote#0000</v>
+        <v>GBPSB6L14Y_Quote#0003</v>
       </c>
       <c r="G21" s="254" t="str">
         <f>_xll.ohRangeRetrieveError(F21)</f>
@@ -37250,7 +37248,7 @@
       </c>
       <c r="F22" s="253" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$C22&amp;$D22&amp;$B22&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GBPSB6L15Y_Quote#0000</v>
+        <v>GBPSB6L15Y_Quote#0003</v>
       </c>
       <c r="G22" s="254" t="str">
         <f>_xll.ohRangeRetrieveError(F22)</f>
@@ -37322,7 +37320,7 @@
       </c>
       <c r="F23" s="253" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$C23&amp;$D23&amp;$B23&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GBPSB6L16Y_Quote#0000</v>
+        <v>GBPSB6L16Y_Quote#0003</v>
       </c>
       <c r="G23" s="254" t="str">
         <f>_xll.ohRangeRetrieveError(F23)</f>
@@ -37394,7 +37392,7 @@
       </c>
       <c r="F24" s="253" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$C24&amp;$D24&amp;$B24&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GBPSB6L17Y_Quote#0000</v>
+        <v>GBPSB6L17Y_Quote#0003</v>
       </c>
       <c r="G24" s="254" t="str">
         <f>_xll.ohRangeRetrieveError(F24)</f>
@@ -37466,7 +37464,7 @@
       </c>
       <c r="F25" s="253" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$C25&amp;$D25&amp;$B25&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GBPSB6L18Y_Quote#0000</v>
+        <v>GBPSB6L18Y_Quote#0003</v>
       </c>
       <c r="G25" s="254" t="str">
         <f>_xll.ohRangeRetrieveError(F25)</f>
@@ -37538,7 +37536,7 @@
       </c>
       <c r="F26" s="253" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$C26&amp;$D26&amp;$B26&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GBPSB6L19Y_Quote#0000</v>
+        <v>GBPSB6L19Y_Quote#0003</v>
       </c>
       <c r="G26" s="254" t="str">
         <f>_xll.ohRangeRetrieveError(F26)</f>
@@ -37610,7 +37608,7 @@
       </c>
       <c r="F27" s="253" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$C27&amp;$D27&amp;$B27&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GBPSB6L20Y_Quote#0000</v>
+        <v>GBPSB6L20Y_Quote#0003</v>
       </c>
       <c r="G27" s="254" t="str">
         <f>_xll.ohRangeRetrieveError(F27)</f>
@@ -37682,7 +37680,7 @@
       </c>
       <c r="F28" s="253" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$C28&amp;$D28&amp;$B28&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GBPSB6L21Y_Quote#0000</v>
+        <v>GBPSB6L21Y_Quote#0003</v>
       </c>
       <c r="G28" s="254" t="str">
         <f>_xll.ohRangeRetrieveError(F28)</f>
@@ -37754,7 +37752,7 @@
       </c>
       <c r="F29" s="253" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$C29&amp;$D29&amp;$B29&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GBPSB6L22Y_Quote#0000</v>
+        <v>GBPSB6L22Y_Quote#0003</v>
       </c>
       <c r="G29" s="254" t="str">
         <f>_xll.ohRangeRetrieveError(F29)</f>
@@ -37826,7 +37824,7 @@
       </c>
       <c r="F30" s="253" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$C30&amp;$D30&amp;$B30&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GBPSB6L23Y_Quote#0000</v>
+        <v>GBPSB6L23Y_Quote#0003</v>
       </c>
       <c r="G30" s="254" t="str">
         <f>_xll.ohRangeRetrieveError(F30)</f>
@@ -37898,7 +37896,7 @@
       </c>
       <c r="F31" s="253" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$C31&amp;$D31&amp;$B31&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GBPSB6L24Y_Quote#0000</v>
+        <v>GBPSB6L24Y_Quote#0003</v>
       </c>
       <c r="G31" s="254" t="str">
         <f>_xll.ohRangeRetrieveError(F31)</f>
@@ -37970,7 +37968,7 @@
       </c>
       <c r="F32" s="253" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$C32&amp;$D32&amp;$B32&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GBPSB6L25Y_Quote#0000</v>
+        <v>GBPSB6L25Y_Quote#0003</v>
       </c>
       <c r="G32" s="254" t="str">
         <f>_xll.ohRangeRetrieveError(F32)</f>
@@ -38042,7 +38040,7 @@
       </c>
       <c r="F33" s="253" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$C33&amp;$D33&amp;$B33&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GBPSB6L26Y_Quote#0000</v>
+        <v>GBPSB6L26Y_Quote#0003</v>
       </c>
       <c r="G33" s="254" t="str">
         <f>_xll.ohRangeRetrieveError(F33)</f>
@@ -38114,7 +38112,7 @@
       </c>
       <c r="F34" s="253" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$C34&amp;$D34&amp;$B34&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GBPSB6L27Y_Quote#0000</v>
+        <v>GBPSB6L27Y_Quote#0003</v>
       </c>
       <c r="G34" s="254" t="str">
         <f>_xll.ohRangeRetrieveError(F34)</f>
@@ -38186,7 +38184,7 @@
       </c>
       <c r="F35" s="253" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$C35&amp;$D35&amp;$B35&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GBPSB6L28Y_Quote#0000</v>
+        <v>GBPSB6L28Y_Quote#0003</v>
       </c>
       <c r="G35" s="254" t="str">
         <f>_xll.ohRangeRetrieveError(F35)</f>
@@ -38258,7 +38256,7 @@
       </c>
       <c r="F36" s="253" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$C36&amp;$D36&amp;$B36&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GBPSB6L29Y_Quote#0000</v>
+        <v>GBPSB6L29Y_Quote#0003</v>
       </c>
       <c r="G36" s="254" t="str">
         <f>_xll.ohRangeRetrieveError(F36)</f>
@@ -38330,7 +38328,7 @@
       </c>
       <c r="F37" s="253" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$C37&amp;$D37&amp;$B37&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GBPSB6L30Y_Quote#0000</v>
+        <v>GBPSB6L30Y_Quote#0003</v>
       </c>
       <c r="G37" s="254" t="str">
         <f>_xll.ohRangeRetrieveError(F37)</f>
@@ -38402,7 +38400,7 @@
       </c>
       <c r="F38" s="253" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$C38&amp;$D38&amp;$B38&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GBPSB6L35Y_Quote#0000</v>
+        <v>GBPSB6L35Y_Quote#0003</v>
       </c>
       <c r="G38" s="254" t="str">
         <f>_xll.ohRangeRetrieveError(F38)</f>
@@ -38474,7 +38472,7 @@
       </c>
       <c r="F39" s="253" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$C39&amp;$D39&amp;$B39&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GBPSB6L40Y_Quote#0000</v>
+        <v>GBPSB6L40Y_Quote#0003</v>
       </c>
       <c r="G39" s="254" t="str">
         <f>_xll.ohRangeRetrieveError(F39)</f>
@@ -38546,7 +38544,7 @@
       </c>
       <c r="F40" s="253" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$C40&amp;$D40&amp;$B40&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GBPSB6L50Y_Quote#0000</v>
+        <v>GBPSB6L50Y_Quote#0003</v>
       </c>
       <c r="G40" s="254" t="str">
         <f>_xll.ohRangeRetrieveError(F40)</f>
@@ -38618,7 +38616,7 @@
       </c>
       <c r="F41" s="257" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$C41&amp;$D41&amp;$B41&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GBPSB6L60Y_Quote#0000</v>
+        <v>GBPSB6L60Y_Quote#0003</v>
       </c>
       <c r="G41" s="258" t="str">
         <f>_xll.ohRangeRetrieveError(F41)</f>
@@ -38834,7 +38832,7 @@
       <c r="W2" s="177"/>
       <c r="X2" s="162">
         <f>_xll.ohTrigger(X5:X11)</f>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="Y2" s="217"/>
     </row>
@@ -38928,7 +38926,7 @@
       </c>
       <c r="F5" s="248" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$C5&amp;$D5&amp;$B5&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GBP1S12_Quote#0000</v>
+        <v>GBP1S12_Quote#0003</v>
       </c>
       <c r="G5" s="249" t="str">
         <f>_xll.ohRangeRetrieveError(F5)</f>
@@ -38995,7 +38993,7 @@
       </c>
       <c r="F6" s="253" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$C6&amp;$D6&amp;$B6&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GBP2S12_Quote#0000</v>
+        <v>GBP2S12_Quote#0003</v>
       </c>
       <c r="G6" s="254" t="str">
         <f>_xll.ohRangeRetrieveError(F6)</f>
@@ -39060,7 +39058,7 @@
       </c>
       <c r="F7" s="253" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$C7&amp;$D7&amp;$B7&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GBP3S12_Quote#0000</v>
+        <v>GBP3S12_Quote#0003</v>
       </c>
       <c r="G7" s="254" t="str">
         <f>_xll.ohRangeRetrieveError(F7)</f>
@@ -39125,7 +39123,7 @@
       </c>
       <c r="F8" s="253" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$C8&amp;$D8&amp;$B8&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GBP4S12_Quote#0000</v>
+        <v>GBP4S12_Quote#0003</v>
       </c>
       <c r="G8" s="254" t="str">
         <f>_xll.ohRangeRetrieveError(F8)</f>
@@ -39190,7 +39188,7 @@
       </c>
       <c r="F9" s="253" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$C9&amp;$D9&amp;$B9&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GBP1S24_Quote#0000</v>
+        <v>GBP1S24_Quote#0003</v>
       </c>
       <c r="G9" s="254" t="str">
         <f>_xll.ohRangeRetrieveError(F9)</f>
@@ -39255,7 +39253,7 @@
       </c>
       <c r="F10" s="253" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$C10&amp;$D10&amp;$B10&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GBP2S24_Quote#0000</v>
+        <v>GBP2S24_Quote#0003</v>
       </c>
       <c r="G10" s="254" t="str">
         <f>_xll.ohRangeRetrieveError(F10)</f>
@@ -39320,7 +39318,7 @@
       </c>
       <c r="F11" s="257" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$C11&amp;$D11&amp;$B11&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GBP1S36_Quote#0000</v>
+        <v>GBP1S36_Quote#0003</v>
       </c>
       <c r="G11" s="258" t="str">
         <f>_xll.ohRangeRetrieveError(F11)</f>
@@ -39582,9 +39580,9 @@
       <c r="C6" s="397" t="s">
         <v>5</v>
       </c>
-      <c r="D6" s="409" t="str">
+      <c r="D6" s="407" t="str">
         <f>GBPLibor!D8</f>
-        <v>GBP3M#0000</v>
+        <v>GBP3M#0003</v>
       </c>
       <c r="E6" s="399" t="str">
         <f t="shared" ref="E6:E37" si="0">PROPER(Currency)&amp;FamilyName&amp;FixingType&amp;$C6</f>
@@ -39592,7 +39590,7 @@
       </c>
       <c r="F6" s="400" t="str">
         <f>_xll.qlLiborSwap($E6,Currency,FixingType,$C6,$D6,Discounting,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GbpLiborSwapIsda1Y#0052</v>
+        <v>GbpLiborSwapIsda1Y#0003</v>
       </c>
       <c r="G6" s="405" t="str">
         <f>_xll.ohRangeRetrieveError(F6)</f>
@@ -39626,7 +39624,7 @@
       </c>
       <c r="D7" s="398" t="str">
         <f>GBPLibor!$D$9</f>
-        <v>GBP6M#0000</v>
+        <v>GBP6M#0003</v>
       </c>
       <c r="E7" s="399" t="str">
         <f t="shared" si="0"/>
@@ -39634,7 +39632,7 @@
       </c>
       <c r="F7" s="400" t="str">
         <f>_xll.qlLiborSwap($E7,Currency,FixingType,$C7,$D7,Discounting,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GbpLiborSwapIsda2Y#0002</v>
+        <v>GbpLiborSwapIsda2Y#0003</v>
       </c>
       <c r="G7" s="405" t="str">
         <f>_xll.ohRangeRetrieveError(F7)</f>
@@ -39668,7 +39666,7 @@
       </c>
       <c r="D8" s="398" t="str">
         <f>GBPLibor!$D$9</f>
-        <v>GBP6M#0000</v>
+        <v>GBP6M#0003</v>
       </c>
       <c r="E8" s="399" t="str">
         <f t="shared" si="0"/>
@@ -39676,7 +39674,7 @@
       </c>
       <c r="F8" s="400" t="str">
         <f>_xll.qlLiborSwap($E8,Currency,FixingType,$C8,$D8,Discounting,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GbpLiborSwapIsda3Y#0002</v>
+        <v>GbpLiborSwapIsda3Y#0003</v>
       </c>
       <c r="G8" s="405" t="str">
         <f>_xll.ohRangeRetrieveError(F8)</f>
@@ -39710,7 +39708,7 @@
       </c>
       <c r="D9" s="398" t="str">
         <f>GBPLibor!$D$9</f>
-        <v>GBP6M#0000</v>
+        <v>GBP6M#0003</v>
       </c>
       <c r="E9" s="399" t="str">
         <f t="shared" si="0"/>
@@ -39718,7 +39716,7 @@
       </c>
       <c r="F9" s="400" t="str">
         <f>_xll.qlLiborSwap($E9,Currency,FixingType,$C9,$D9,Discounting,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GbpLiborSwapIsda4Y#0002</v>
+        <v>GbpLiborSwapIsda4Y#0003</v>
       </c>
       <c r="G9" s="405" t="str">
         <f>_xll.ohRangeRetrieveError(F9)</f>
@@ -39752,7 +39750,7 @@
       </c>
       <c r="D10" s="398" t="str">
         <f>GBPLibor!$D$9</f>
-        <v>GBP6M#0000</v>
+        <v>GBP6M#0003</v>
       </c>
       <c r="E10" s="399" t="str">
         <f t="shared" si="0"/>
@@ -39760,7 +39758,7 @@
       </c>
       <c r="F10" s="400" t="str">
         <f>_xll.qlLiborSwap($E10,Currency,FixingType,$C10,$D10,Discounting,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GbpLiborSwapIsda5Y#0002</v>
+        <v>GbpLiborSwapIsda5Y#0003</v>
       </c>
       <c r="G10" s="405" t="str">
         <f>_xll.ohRangeRetrieveError(F10)</f>
@@ -39794,7 +39792,7 @@
       </c>
       <c r="D11" s="398" t="str">
         <f>GBPLibor!$D$9</f>
-        <v>GBP6M#0000</v>
+        <v>GBP6M#0003</v>
       </c>
       <c r="E11" s="399" t="str">
         <f t="shared" si="0"/>
@@ -39802,7 +39800,7 @@
       </c>
       <c r="F11" s="400" t="str">
         <f>_xll.qlLiborSwap($E11,Currency,FixingType,$C11,$D11,Discounting,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GbpLiborSwapIsda6Y#0002</v>
+        <v>GbpLiborSwapIsda6Y#0003</v>
       </c>
       <c r="G11" s="405" t="str">
         <f>_xll.ohRangeRetrieveError(F11)</f>
@@ -39836,7 +39834,7 @@
       </c>
       <c r="D12" s="398" t="str">
         <f>GBPLibor!$D$9</f>
-        <v>GBP6M#0000</v>
+        <v>GBP6M#0003</v>
       </c>
       <c r="E12" s="399" t="str">
         <f t="shared" si="0"/>
@@ -39844,7 +39842,7 @@
       </c>
       <c r="F12" s="400" t="str">
         <f>_xll.qlLiborSwap($E12,Currency,FixingType,$C12,$D12,Discounting,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GbpLiborSwapIsda7Y#0002</v>
+        <v>GbpLiborSwapIsda7Y#0003</v>
       </c>
       <c r="G12" s="405" t="str">
         <f>_xll.ohRangeRetrieveError(F12)</f>
@@ -39878,7 +39876,7 @@
       </c>
       <c r="D13" s="398" t="str">
         <f>GBPLibor!$D$9</f>
-        <v>GBP6M#0000</v>
+        <v>GBP6M#0003</v>
       </c>
       <c r="E13" s="399" t="str">
         <f t="shared" si="0"/>
@@ -39886,7 +39884,7 @@
       </c>
       <c r="F13" s="400" t="str">
         <f>_xll.qlLiborSwap($E13,Currency,FixingType,$C13,$D13,Discounting,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GbpLiborSwapIsda8Y#0002</v>
+        <v>GbpLiborSwapIsda8Y#0003</v>
       </c>
       <c r="G13" s="405" t="str">
         <f>_xll.ohRangeRetrieveError(F13)</f>
@@ -39920,7 +39918,7 @@
       </c>
       <c r="D14" s="398" t="str">
         <f>GBPLibor!$D$9</f>
-        <v>GBP6M#0000</v>
+        <v>GBP6M#0003</v>
       </c>
       <c r="E14" s="399" t="str">
         <f t="shared" si="0"/>
@@ -39928,7 +39926,7 @@
       </c>
       <c r="F14" s="400" t="str">
         <f>_xll.qlLiborSwap($E14,Currency,FixingType,$C14,$D14,Discounting,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GbpLiborSwapIsda9Y#0002</v>
+        <v>GbpLiborSwapIsda9Y#0003</v>
       </c>
       <c r="G14" s="405" t="str">
         <f>_xll.ohRangeRetrieveError(F14)</f>
@@ -39962,7 +39960,7 @@
       </c>
       <c r="D15" s="398" t="str">
         <f>GBPLibor!$D$9</f>
-        <v>GBP6M#0000</v>
+        <v>GBP6M#0003</v>
       </c>
       <c r="E15" s="399" t="str">
         <f t="shared" si="0"/>
@@ -39970,7 +39968,7 @@
       </c>
       <c r="F15" s="400" t="str">
         <f>_xll.qlLiborSwap($E15,Currency,FixingType,$C15,$D15,Discounting,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GbpLiborSwapIsda10Y#0002</v>
+        <v>GbpLiborSwapIsda10Y#0003</v>
       </c>
       <c r="G15" s="405" t="str">
         <f>_xll.ohRangeRetrieveError(F15)</f>
@@ -40004,7 +40002,7 @@
       </c>
       <c r="D16" s="398" t="str">
         <f>GBPLibor!$D$9</f>
-        <v>GBP6M#0000</v>
+        <v>GBP6M#0003</v>
       </c>
       <c r="E16" s="399" t="str">
         <f t="shared" si="0"/>
@@ -40012,7 +40010,7 @@
       </c>
       <c r="F16" s="400" t="str">
         <f>_xll.qlLiborSwap($E16,Currency,FixingType,$C16,$D16,Discounting,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GbpLiborSwapIsda11Y#0002</v>
+        <v>GbpLiborSwapIsda11Y#0003</v>
       </c>
       <c r="G16" s="405" t="str">
         <f>_xll.ohRangeRetrieveError(F16)</f>
@@ -40046,7 +40044,7 @@
       </c>
       <c r="D17" s="398" t="str">
         <f>GBPLibor!$D$9</f>
-        <v>GBP6M#0000</v>
+        <v>GBP6M#0003</v>
       </c>
       <c r="E17" s="399" t="str">
         <f t="shared" si="0"/>
@@ -40054,7 +40052,7 @@
       </c>
       <c r="F17" s="400" t="str">
         <f>_xll.qlLiborSwap($E17,Currency,FixingType,$C17,$D17,Discounting,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GbpLiborSwapIsda12Y#0002</v>
+        <v>GbpLiborSwapIsda12Y#0003</v>
       </c>
       <c r="G17" s="405" t="str">
         <f>_xll.ohRangeRetrieveError(F17)</f>
@@ -40088,7 +40086,7 @@
       </c>
       <c r="D18" s="398" t="str">
         <f>GBPLibor!$D$9</f>
-        <v>GBP6M#0000</v>
+        <v>GBP6M#0003</v>
       </c>
       <c r="E18" s="399" t="str">
         <f t="shared" si="0"/>
@@ -40096,7 +40094,7 @@
       </c>
       <c r="F18" s="400" t="str">
         <f>_xll.qlLiborSwap($E18,Currency,FixingType,$C18,$D18,Discounting,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GbpLiborSwapIsda13Y#0002</v>
+        <v>GbpLiborSwapIsda13Y#0003</v>
       </c>
       <c r="G18" s="405" t="str">
         <f>_xll.ohRangeRetrieveError(F18)</f>
@@ -40130,7 +40128,7 @@
       </c>
       <c r="D19" s="398" t="str">
         <f>GBPLibor!$D$9</f>
-        <v>GBP6M#0000</v>
+        <v>GBP6M#0003</v>
       </c>
       <c r="E19" s="399" t="str">
         <f t="shared" si="0"/>
@@ -40138,7 +40136,7 @@
       </c>
       <c r="F19" s="400" t="str">
         <f>_xll.qlLiborSwap($E19,Currency,FixingType,$C19,$D19,Discounting,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GbpLiborSwapIsda14Y#0002</v>
+        <v>GbpLiborSwapIsda14Y#0003</v>
       </c>
       <c r="G19" s="405" t="str">
         <f>_xll.ohRangeRetrieveError(F19)</f>
@@ -40172,7 +40170,7 @@
       </c>
       <c r="D20" s="398" t="str">
         <f>GBPLibor!$D$9</f>
-        <v>GBP6M#0000</v>
+        <v>GBP6M#0003</v>
       </c>
       <c r="E20" s="399" t="str">
         <f t="shared" si="0"/>
@@ -40180,7 +40178,7 @@
       </c>
       <c r="F20" s="400" t="str">
         <f>_xll.qlLiborSwap($E20,Currency,FixingType,$C20,$D20,Discounting,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GbpLiborSwapIsda15Y#0002</v>
+        <v>GbpLiborSwapIsda15Y#0003</v>
       </c>
       <c r="G20" s="405" t="str">
         <f>_xll.ohRangeRetrieveError(F20)</f>
@@ -40214,7 +40212,7 @@
       </c>
       <c r="D21" s="398" t="str">
         <f>GBPLibor!$D$9</f>
-        <v>GBP6M#0000</v>
+        <v>GBP6M#0003</v>
       </c>
       <c r="E21" s="399" t="str">
         <f t="shared" si="0"/>
@@ -40222,7 +40220,7 @@
       </c>
       <c r="F21" s="400" t="str">
         <f>_xll.qlLiborSwap($E21,Currency,FixingType,$C21,$D21,Discounting,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GbpLiborSwapIsda16Y#0002</v>
+        <v>GbpLiborSwapIsda16Y#0003</v>
       </c>
       <c r="G21" s="405" t="str">
         <f>_xll.ohRangeRetrieveError(F21)</f>
@@ -40256,7 +40254,7 @@
       </c>
       <c r="D22" s="398" t="str">
         <f>GBPLibor!$D$9</f>
-        <v>GBP6M#0000</v>
+        <v>GBP6M#0003</v>
       </c>
       <c r="E22" s="399" t="str">
         <f t="shared" si="0"/>
@@ -40264,7 +40262,7 @@
       </c>
       <c r="F22" s="400" t="str">
         <f>_xll.qlLiborSwap($E22,Currency,FixingType,$C22,$D22,Discounting,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GbpLiborSwapIsda17Y#0001</v>
+        <v>GbpLiborSwapIsda17Y#0003</v>
       </c>
       <c r="G22" s="405" t="str">
         <f>_xll.ohRangeRetrieveError(F22)</f>
@@ -40298,7 +40296,7 @@
       </c>
       <c r="D23" s="398" t="str">
         <f>GBPLibor!$D$9</f>
-        <v>GBP6M#0000</v>
+        <v>GBP6M#0003</v>
       </c>
       <c r="E23" s="399" t="str">
         <f t="shared" si="0"/>
@@ -40306,7 +40304,7 @@
       </c>
       <c r="F23" s="400" t="str">
         <f>_xll.qlLiborSwap($E23,Currency,FixingType,$C23,$D23,Discounting,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GbpLiborSwapIsda18Y#0001</v>
+        <v>GbpLiborSwapIsda18Y#0003</v>
       </c>
       <c r="G23" s="405" t="str">
         <f>_xll.ohRangeRetrieveError(F23)</f>
@@ -40340,7 +40338,7 @@
       </c>
       <c r="D24" s="398" t="str">
         <f>GBPLibor!$D$9</f>
-        <v>GBP6M#0000</v>
+        <v>GBP6M#0003</v>
       </c>
       <c r="E24" s="399" t="str">
         <f t="shared" si="0"/>
@@ -40348,7 +40346,7 @@
       </c>
       <c r="F24" s="400" t="str">
         <f>_xll.qlLiborSwap($E24,Currency,FixingType,$C24,$D24,Discounting,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GbpLiborSwapIsda19Y#0004</v>
+        <v>GbpLiborSwapIsda19Y#0003</v>
       </c>
       <c r="G24" s="405" t="str">
         <f>_xll.ohRangeRetrieveError(F24)</f>
@@ -40382,7 +40380,7 @@
       </c>
       <c r="D25" s="398" t="str">
         <f>GBPLibor!$D$9</f>
-        <v>GBP6M#0000</v>
+        <v>GBP6M#0003</v>
       </c>
       <c r="E25" s="399" t="str">
         <f t="shared" si="0"/>
@@ -40390,7 +40388,7 @@
       </c>
       <c r="F25" s="400" t="str">
         <f>_xll.qlLiborSwap($E25,Currency,FixingType,$C25,$D25,Discounting,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GbpLiborSwapIsda20Y#0001</v>
+        <v>GbpLiborSwapIsda20Y#0003</v>
       </c>
       <c r="G25" s="405" t="str">
         <f>_xll.ohRangeRetrieveError(F25)</f>
@@ -40424,7 +40422,7 @@
       </c>
       <c r="D26" s="398" t="str">
         <f>GBPLibor!$D$9</f>
-        <v>GBP6M#0000</v>
+        <v>GBP6M#0003</v>
       </c>
       <c r="E26" s="399" t="str">
         <f t="shared" si="0"/>
@@ -40432,7 +40430,7 @@
       </c>
       <c r="F26" s="400" t="str">
         <f>_xll.qlLiborSwap($E26,Currency,FixingType,$C26,$D26,Discounting,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GbpLiborSwapIsda21Y#0001</v>
+        <v>GbpLiborSwapIsda21Y#0003</v>
       </c>
       <c r="G26" s="405" t="str">
         <f>_xll.ohRangeRetrieveError(F26)</f>
@@ -40466,7 +40464,7 @@
       </c>
       <c r="D27" s="398" t="str">
         <f>GBPLibor!$D$9</f>
-        <v>GBP6M#0000</v>
+        <v>GBP6M#0003</v>
       </c>
       <c r="E27" s="399" t="str">
         <f t="shared" si="0"/>
@@ -40474,7 +40472,7 @@
       </c>
       <c r="F27" s="400" t="str">
         <f>_xll.qlLiborSwap($E27,Currency,FixingType,$C27,$D27,Discounting,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GbpLiborSwapIsda22Y#0001</v>
+        <v>GbpLiborSwapIsda22Y#0003</v>
       </c>
       <c r="G27" s="405" t="str">
         <f>_xll.ohRangeRetrieveError(F27)</f>
@@ -40508,7 +40506,7 @@
       </c>
       <c r="D28" s="398" t="str">
         <f>GBPLibor!$D$9</f>
-        <v>GBP6M#0000</v>
+        <v>GBP6M#0003</v>
       </c>
       <c r="E28" s="399" t="str">
         <f t="shared" si="0"/>
@@ -40516,7 +40514,7 @@
       </c>
       <c r="F28" s="400" t="str">
         <f>_xll.qlLiborSwap($E28,Currency,FixingType,$C28,$D28,Discounting,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GbpLiborSwapIsda23Y#0001</v>
+        <v>GbpLiborSwapIsda23Y#0003</v>
       </c>
       <c r="G28" s="405" t="str">
         <f>_xll.ohRangeRetrieveError(F28)</f>
@@ -40550,7 +40548,7 @@
       </c>
       <c r="D29" s="398" t="str">
         <f>GBPLibor!$D$9</f>
-        <v>GBP6M#0000</v>
+        <v>GBP6M#0003</v>
       </c>
       <c r="E29" s="399" t="str">
         <f t="shared" si="0"/>
@@ -40558,7 +40556,7 @@
       </c>
       <c r="F29" s="400" t="str">
         <f>_xll.qlLiborSwap($E29,Currency,FixingType,$C29,$D29,Discounting,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GbpLiborSwapIsda24Y#0001</v>
+        <v>GbpLiborSwapIsda24Y#0003</v>
       </c>
       <c r="G29" s="405" t="str">
         <f>_xll.ohRangeRetrieveError(F29)</f>
@@ -40592,7 +40590,7 @@
       </c>
       <c r="D30" s="398" t="str">
         <f>GBPLibor!$D$9</f>
-        <v>GBP6M#0000</v>
+        <v>GBP6M#0003</v>
       </c>
       <c r="E30" s="399" t="str">
         <f t="shared" si="0"/>
@@ -40600,7 +40598,7 @@
       </c>
       <c r="F30" s="400" t="str">
         <f>_xll.qlLiborSwap($E30,Currency,FixingType,$C30,$D30,Discounting,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GbpLiborSwapIsda25Y#0001</v>
+        <v>GbpLiborSwapIsda25Y#0003</v>
       </c>
       <c r="G30" s="405" t="str">
         <f>_xll.ohRangeRetrieveError(F30)</f>
@@ -40634,7 +40632,7 @@
       </c>
       <c r="D31" s="398" t="str">
         <f>GBPLibor!$D$9</f>
-        <v>GBP6M#0000</v>
+        <v>GBP6M#0003</v>
       </c>
       <c r="E31" s="399" t="str">
         <f t="shared" si="0"/>
@@ -40642,7 +40640,7 @@
       </c>
       <c r="F31" s="400" t="str">
         <f>_xll.qlLiborSwap($E31,Currency,FixingType,$C31,$D31,Discounting,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GbpLiborSwapIsda26Y#0001</v>
+        <v>GbpLiborSwapIsda26Y#0003</v>
       </c>
       <c r="G31" s="405" t="str">
         <f>_xll.ohRangeRetrieveError(F31)</f>
@@ -40676,7 +40674,7 @@
       </c>
       <c r="D32" s="398" t="str">
         <f>GBPLibor!$D$9</f>
-        <v>GBP6M#0000</v>
+        <v>GBP6M#0003</v>
       </c>
       <c r="E32" s="399" t="str">
         <f t="shared" si="0"/>
@@ -40684,7 +40682,7 @@
       </c>
       <c r="F32" s="400" t="str">
         <f>_xll.qlLiborSwap($E32,Currency,FixingType,$C32,$D32,Discounting,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GbpLiborSwapIsda27Y#0001</v>
+        <v>GbpLiborSwapIsda27Y#0003</v>
       </c>
       <c r="G32" s="405" t="str">
         <f>_xll.ohRangeRetrieveError(F32)</f>
@@ -40718,7 +40716,7 @@
       </c>
       <c r="D33" s="398" t="str">
         <f>GBPLibor!$D$9</f>
-        <v>GBP6M#0000</v>
+        <v>GBP6M#0003</v>
       </c>
       <c r="E33" s="399" t="str">
         <f t="shared" si="0"/>
@@ -40726,7 +40724,7 @@
       </c>
       <c r="F33" s="400" t="str">
         <f>_xll.qlLiborSwap($E33,Currency,FixingType,$C33,$D33,Discounting,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GbpLiborSwapIsda28Y#0001</v>
+        <v>GbpLiborSwapIsda28Y#0003</v>
       </c>
       <c r="G33" s="405" t="str">
         <f>_xll.ohRangeRetrieveError(F33)</f>
@@ -40760,7 +40758,7 @@
       </c>
       <c r="D34" s="398" t="str">
         <f>GBPLibor!$D$9</f>
-        <v>GBP6M#0000</v>
+        <v>GBP6M#0003</v>
       </c>
       <c r="E34" s="399" t="str">
         <f t="shared" si="0"/>
@@ -40768,7 +40766,7 @@
       </c>
       <c r="F34" s="400" t="str">
         <f>_xll.qlLiborSwap($E34,Currency,FixingType,$C34,$D34,Discounting,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GbpLiborSwapIsda29Y#0001</v>
+        <v>GbpLiborSwapIsda29Y#0003</v>
       </c>
       <c r="G34" s="405" t="str">
         <f>_xll.ohRangeRetrieveError(F34)</f>
@@ -40802,7 +40800,7 @@
       </c>
       <c r="D35" s="398" t="str">
         <f>GBPLibor!$D$9</f>
-        <v>GBP6M#0000</v>
+        <v>GBP6M#0003</v>
       </c>
       <c r="E35" s="399" t="str">
         <f t="shared" si="0"/>
@@ -40810,7 +40808,7 @@
       </c>
       <c r="F35" s="400" t="str">
         <f>_xll.qlLiborSwap($E35,Currency,FixingType,$C35,$D35,Discounting,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GbpLiborSwapIsda30Y#0001</v>
+        <v>GbpLiborSwapIsda30Y#0003</v>
       </c>
       <c r="G35" s="405" t="str">
         <f>_xll.ohRangeRetrieveError(F35)</f>
@@ -40844,7 +40842,7 @@
       </c>
       <c r="D36" s="398" t="str">
         <f>GBPLibor!$D$9</f>
-        <v>GBP6M#0000</v>
+        <v>GBP6M#0003</v>
       </c>
       <c r="E36" s="399" t="str">
         <f t="shared" si="0"/>
@@ -40852,7 +40850,7 @@
       </c>
       <c r="F36" s="400" t="str">
         <f>_xll.qlLiborSwap($E36,Currency,FixingType,$C36,$D36,Discounting,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GbpLiborSwapIsda31Y#0001</v>
+        <v>GbpLiborSwapIsda31Y#0003</v>
       </c>
       <c r="G36" s="405" t="str">
         <f>_xll.ohRangeRetrieveError(F36)</f>
@@ -40886,7 +40884,7 @@
       </c>
       <c r="D37" s="398" t="str">
         <f>GBPLibor!$D$9</f>
-        <v>GBP6M#0000</v>
+        <v>GBP6M#0003</v>
       </c>
       <c r="E37" s="399" t="str">
         <f t="shared" si="0"/>
@@ -40894,7 +40892,7 @@
       </c>
       <c r="F37" s="400" t="str">
         <f>_xll.qlLiborSwap($E37,Currency,FixingType,$C37,$D37,Discounting,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GbpLiborSwapIsda32Y#0001</v>
+        <v>GbpLiborSwapIsda32Y#0003</v>
       </c>
       <c r="G37" s="405" t="str">
         <f>_xll.ohRangeRetrieveError(F37)</f>
@@ -40928,7 +40926,7 @@
       </c>
       <c r="D38" s="398" t="str">
         <f>GBPLibor!$D$9</f>
-        <v>GBP6M#0000</v>
+        <v>GBP6M#0003</v>
       </c>
       <c r="E38" s="399" t="str">
         <f t="shared" ref="E38:E65" si="1">PROPER(Currency)&amp;FamilyName&amp;FixingType&amp;$C38</f>
@@ -40936,7 +40934,7 @@
       </c>
       <c r="F38" s="400" t="str">
         <f>_xll.qlLiborSwap($E38,Currency,FixingType,$C38,$D38,Discounting,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GbpLiborSwapIsda33Y#0001</v>
+        <v>GbpLiborSwapIsda33Y#0003</v>
       </c>
       <c r="G38" s="405" t="str">
         <f>_xll.ohRangeRetrieveError(F38)</f>
@@ -40970,7 +40968,7 @@
       </c>
       <c r="D39" s="398" t="str">
         <f>GBPLibor!$D$9</f>
-        <v>GBP6M#0000</v>
+        <v>GBP6M#0003</v>
       </c>
       <c r="E39" s="399" t="str">
         <f t="shared" si="1"/>
@@ -40978,7 +40976,7 @@
       </c>
       <c r="F39" s="400" t="str">
         <f>_xll.qlLiborSwap($E39,Currency,FixingType,$C39,$D39,Discounting,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GbpLiborSwapIsda34Y#0001</v>
+        <v>GbpLiborSwapIsda34Y#0003</v>
       </c>
       <c r="G39" s="405" t="str">
         <f>_xll.ohRangeRetrieveError(F39)</f>
@@ -41012,7 +41010,7 @@
       </c>
       <c r="D40" s="398" t="str">
         <f>GBPLibor!$D$9</f>
-        <v>GBP6M#0000</v>
+        <v>GBP6M#0003</v>
       </c>
       <c r="E40" s="399" t="str">
         <f t="shared" si="1"/>
@@ -41020,7 +41018,7 @@
       </c>
       <c r="F40" s="400" t="str">
         <f>_xll.qlLiborSwap($E40,Currency,FixingType,$C40,$D40,Discounting,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GbpLiborSwapIsda35Y#0001</v>
+        <v>GbpLiborSwapIsda35Y#0003</v>
       </c>
       <c r="G40" s="405" t="str">
         <f>_xll.ohRangeRetrieveError(F40)</f>
@@ -41054,7 +41052,7 @@
       </c>
       <c r="D41" s="398" t="str">
         <f>GBPLibor!$D$9</f>
-        <v>GBP6M#0000</v>
+        <v>GBP6M#0003</v>
       </c>
       <c r="E41" s="399" t="str">
         <f t="shared" si="1"/>
@@ -41062,7 +41060,7 @@
       </c>
       <c r="F41" s="400" t="str">
         <f>_xll.qlLiborSwap($E41,Currency,FixingType,$C41,$D41,Discounting,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GbpLiborSwapIsda36Y#0001</v>
+        <v>GbpLiborSwapIsda36Y#0003</v>
       </c>
       <c r="G41" s="405" t="str">
         <f>_xll.ohRangeRetrieveError(F41)</f>
@@ -41096,7 +41094,7 @@
       </c>
       <c r="D42" s="398" t="str">
         <f>GBPLibor!$D$9</f>
-        <v>GBP6M#0000</v>
+        <v>GBP6M#0003</v>
       </c>
       <c r="E42" s="399" t="str">
         <f t="shared" si="1"/>
@@ -41104,7 +41102,7 @@
       </c>
       <c r="F42" s="400" t="str">
         <f>_xll.qlLiborSwap($E42,Currency,FixingType,$C42,$D42,Discounting,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GbpLiborSwapIsda37Y#0001</v>
+        <v>GbpLiborSwapIsda37Y#0003</v>
       </c>
       <c r="G42" s="405" t="str">
         <f>_xll.ohRangeRetrieveError(F42)</f>
@@ -41138,7 +41136,7 @@
       </c>
       <c r="D43" s="398" t="str">
         <f>GBPLibor!$D$9</f>
-        <v>GBP6M#0000</v>
+        <v>GBP6M#0003</v>
       </c>
       <c r="E43" s="399" t="str">
         <f t="shared" si="1"/>
@@ -41146,7 +41144,7 @@
       </c>
       <c r="F43" s="400" t="str">
         <f>_xll.qlLiborSwap($E43,Currency,FixingType,$C43,$D43,Discounting,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GbpLiborSwapIsda38Y#0001</v>
+        <v>GbpLiborSwapIsda38Y#0003</v>
       </c>
       <c r="G43" s="405" t="str">
         <f>_xll.ohRangeRetrieveError(F43)</f>
@@ -41180,7 +41178,7 @@
       </c>
       <c r="D44" s="398" t="str">
         <f>GBPLibor!$D$9</f>
-        <v>GBP6M#0000</v>
+        <v>GBP6M#0003</v>
       </c>
       <c r="E44" s="399" t="str">
         <f t="shared" si="1"/>
@@ -41188,7 +41186,7 @@
       </c>
       <c r="F44" s="400" t="str">
         <f>_xll.qlLiborSwap($E44,Currency,FixingType,$C44,$D44,Discounting,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GbpLiborSwapIsda39Y#0001</v>
+        <v>GbpLiborSwapIsda39Y#0003</v>
       </c>
       <c r="G44" s="405" t="str">
         <f>_xll.ohRangeRetrieveError(F44)</f>
@@ -41222,7 +41220,7 @@
       </c>
       <c r="D45" s="398" t="str">
         <f>GBPLibor!$D$9</f>
-        <v>GBP6M#0000</v>
+        <v>GBP6M#0003</v>
       </c>
       <c r="E45" s="399" t="str">
         <f t="shared" si="1"/>
@@ -41230,7 +41228,7 @@
       </c>
       <c r="F45" s="400" t="str">
         <f>_xll.qlLiborSwap($E45,Currency,FixingType,$C45,$D45,Discounting,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GbpLiborSwapIsda40Y#0001</v>
+        <v>GbpLiborSwapIsda40Y#0003</v>
       </c>
       <c r="G45" s="405" t="str">
         <f>_xll.ohRangeRetrieveError(F45)</f>
@@ -41264,7 +41262,7 @@
       </c>
       <c r="D46" s="398" t="str">
         <f>GBPLibor!$D$9</f>
-        <v>GBP6M#0000</v>
+        <v>GBP6M#0003</v>
       </c>
       <c r="E46" s="399" t="str">
         <f t="shared" si="1"/>
@@ -41272,7 +41270,7 @@
       </c>
       <c r="F46" s="400" t="str">
         <f>_xll.qlLiborSwap($E46,Currency,FixingType,$C46,$D46,Discounting,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GbpLiborSwapIsda41Y#0001</v>
+        <v>GbpLiborSwapIsda41Y#0003</v>
       </c>
       <c r="G46" s="405" t="str">
         <f>_xll.ohRangeRetrieveError(F46)</f>
@@ -41306,7 +41304,7 @@
       </c>
       <c r="D47" s="398" t="str">
         <f>GBPLibor!$D$9</f>
-        <v>GBP6M#0000</v>
+        <v>GBP6M#0003</v>
       </c>
       <c r="E47" s="399" t="str">
         <f t="shared" si="1"/>
@@ -41314,7 +41312,7 @@
       </c>
       <c r="F47" s="400" t="str">
         <f>_xll.qlLiborSwap($E47,Currency,FixingType,$C47,$D47,Discounting,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GbpLiborSwapIsda42Y#0001</v>
+        <v>GbpLiborSwapIsda42Y#0003</v>
       </c>
       <c r="G47" s="405" t="str">
         <f>_xll.ohRangeRetrieveError(F47)</f>
@@ -41331,7 +41329,7 @@
       </c>
       <c r="D48" s="398" t="str">
         <f>GBPLibor!$D$9</f>
-        <v>GBP6M#0000</v>
+        <v>GBP6M#0003</v>
       </c>
       <c r="E48" s="399" t="str">
         <f t="shared" si="1"/>
@@ -41339,7 +41337,7 @@
       </c>
       <c r="F48" s="400" t="str">
         <f>_xll.qlLiborSwap($E48,Currency,FixingType,$C48,$D48,Discounting,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GbpLiborSwapIsda43Y#0001</v>
+        <v>GbpLiborSwapIsda43Y#0003</v>
       </c>
       <c r="G48" s="405" t="str">
         <f>_xll.ohRangeRetrieveError(F48)</f>
@@ -41356,7 +41354,7 @@
       </c>
       <c r="D49" s="398" t="str">
         <f>GBPLibor!$D$9</f>
-        <v>GBP6M#0000</v>
+        <v>GBP6M#0003</v>
       </c>
       <c r="E49" s="399" t="str">
         <f t="shared" si="1"/>
@@ -41364,7 +41362,7 @@
       </c>
       <c r="F49" s="400" t="str">
         <f>_xll.qlLiborSwap($E49,Currency,FixingType,$C49,$D49,Discounting,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GbpLiborSwapIsda44Y#0001</v>
+        <v>GbpLiborSwapIsda44Y#0003</v>
       </c>
       <c r="G49" s="405" t="str">
         <f>_xll.ohRangeRetrieveError(F49)</f>
@@ -41381,7 +41379,7 @@
       </c>
       <c r="D50" s="398" t="str">
         <f>GBPLibor!$D$9</f>
-        <v>GBP6M#0000</v>
+        <v>GBP6M#0003</v>
       </c>
       <c r="E50" s="399" t="str">
         <f t="shared" si="1"/>
@@ -41389,7 +41387,7 @@
       </c>
       <c r="F50" s="400" t="str">
         <f>_xll.qlLiborSwap($E50,Currency,FixingType,$C50,$D50,Discounting,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GbpLiborSwapIsda45Y#0001</v>
+        <v>GbpLiborSwapIsda45Y#0003</v>
       </c>
       <c r="G50" s="405" t="str">
         <f>_xll.ohRangeRetrieveError(F50)</f>
@@ -41406,7 +41404,7 @@
       </c>
       <c r="D51" s="398" t="str">
         <f>GBPLibor!$D$9</f>
-        <v>GBP6M#0000</v>
+        <v>GBP6M#0003</v>
       </c>
       <c r="E51" s="399" t="str">
         <f t="shared" si="1"/>
@@ -41414,7 +41412,7 @@
       </c>
       <c r="F51" s="400" t="str">
         <f>_xll.qlLiborSwap($E51,Currency,FixingType,$C51,$D51,Discounting,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GbpLiborSwapIsda46Y#0001</v>
+        <v>GbpLiborSwapIsda46Y#0003</v>
       </c>
       <c r="G51" s="405" t="str">
         <f>_xll.ohRangeRetrieveError(F51)</f>
@@ -41431,7 +41429,7 @@
       </c>
       <c r="D52" s="398" t="str">
         <f>GBPLibor!$D$9</f>
-        <v>GBP6M#0000</v>
+        <v>GBP6M#0003</v>
       </c>
       <c r="E52" s="399" t="str">
         <f t="shared" si="1"/>
@@ -41439,7 +41437,7 @@
       </c>
       <c r="F52" s="400" t="str">
         <f>_xll.qlLiborSwap($E52,Currency,FixingType,$C52,$D52,Discounting,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GbpLiborSwapIsda47Y#0001</v>
+        <v>GbpLiborSwapIsda47Y#0003</v>
       </c>
       <c r="G52" s="405" t="str">
         <f>_xll.ohRangeRetrieveError(F52)</f>
@@ -41456,7 +41454,7 @@
       </c>
       <c r="D53" s="398" t="str">
         <f>GBPLibor!$D$9</f>
-        <v>GBP6M#0000</v>
+        <v>GBP6M#0003</v>
       </c>
       <c r="E53" s="399" t="str">
         <f t="shared" si="1"/>
@@ -41464,7 +41462,7 @@
       </c>
       <c r="F53" s="400" t="str">
         <f>_xll.qlLiborSwap($E53,Currency,FixingType,$C53,$D53,Discounting,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GbpLiborSwapIsda48Y#0001</v>
+        <v>GbpLiborSwapIsda48Y#0003</v>
       </c>
       <c r="G53" s="405" t="str">
         <f>_xll.ohRangeRetrieveError(F53)</f>
@@ -41481,7 +41479,7 @@
       </c>
       <c r="D54" s="398" t="str">
         <f>GBPLibor!$D$9</f>
-        <v>GBP6M#0000</v>
+        <v>GBP6M#0003</v>
       </c>
       <c r="E54" s="399" t="str">
         <f t="shared" si="1"/>
@@ -41489,7 +41487,7 @@
       </c>
       <c r="F54" s="400" t="str">
         <f>_xll.qlLiborSwap($E54,Currency,FixingType,$C54,$D54,Discounting,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GbpLiborSwapIsda49Y#0001</v>
+        <v>GbpLiborSwapIsda49Y#0003</v>
       </c>
       <c r="G54" s="405" t="str">
         <f>_xll.ohRangeRetrieveError(F54)</f>
@@ -41506,7 +41504,7 @@
       </c>
       <c r="D55" s="398" t="str">
         <f>GBPLibor!$D$9</f>
-        <v>GBP6M#0000</v>
+        <v>GBP6M#0003</v>
       </c>
       <c r="E55" s="399" t="str">
         <f t="shared" si="1"/>
@@ -41514,7 +41512,7 @@
       </c>
       <c r="F55" s="400" t="str">
         <f>_xll.qlLiborSwap($E55,Currency,FixingType,$C55,$D55,Discounting,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GbpLiborSwapIsda50Y#0001</v>
+        <v>GbpLiborSwapIsda50Y#0003</v>
       </c>
       <c r="G55" s="405" t="str">
         <f>_xll.ohRangeRetrieveError(F55)</f>
@@ -41531,7 +41529,7 @@
       </c>
       <c r="D56" s="398" t="str">
         <f>GBPLibor!$D$9</f>
-        <v>GBP6M#0000</v>
+        <v>GBP6M#0003</v>
       </c>
       <c r="E56" s="399" t="str">
         <f t="shared" si="1"/>
@@ -41539,7 +41537,7 @@
       </c>
       <c r="F56" s="400" t="str">
         <f>_xll.qlLiborSwap($E56,Currency,FixingType,$C56,$D56,Discounting,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GbpLiborSwapIsda51Y#0001</v>
+        <v>GbpLiborSwapIsda51Y#0003</v>
       </c>
       <c r="G56" s="405" t="str">
         <f>_xll.ohRangeRetrieveError(F56)</f>
@@ -41556,7 +41554,7 @@
       </c>
       <c r="D57" s="398" t="str">
         <f>GBPLibor!$D$9</f>
-        <v>GBP6M#0000</v>
+        <v>GBP6M#0003</v>
       </c>
       <c r="E57" s="399" t="str">
         <f t="shared" si="1"/>
@@ -41564,7 +41562,7 @@
       </c>
       <c r="F57" s="400" t="str">
         <f>_xll.qlLiborSwap($E57,Currency,FixingType,$C57,$D57,Discounting,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GbpLiborSwapIsda52Y#0001</v>
+        <v>GbpLiborSwapIsda52Y#0003</v>
       </c>
       <c r="G57" s="405" t="str">
         <f>_xll.ohRangeRetrieveError(F57)</f>
@@ -41581,7 +41579,7 @@
       </c>
       <c r="D58" s="398" t="str">
         <f>GBPLibor!$D$9</f>
-        <v>GBP6M#0000</v>
+        <v>GBP6M#0003</v>
       </c>
       <c r="E58" s="399" t="str">
         <f t="shared" si="1"/>
@@ -41589,7 +41587,7 @@
       </c>
       <c r="F58" s="400" t="str">
         <f>_xll.qlLiborSwap($E58,Currency,FixingType,$C58,$D58,Discounting,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GbpLiborSwapIsda53Y#0001</v>
+        <v>GbpLiborSwapIsda53Y#0003</v>
       </c>
       <c r="G58" s="405" t="str">
         <f>_xll.ohRangeRetrieveError(F58)</f>
@@ -41606,7 +41604,7 @@
       </c>
       <c r="D59" s="398" t="str">
         <f>GBPLibor!$D$9</f>
-        <v>GBP6M#0000</v>
+        <v>GBP6M#0003</v>
       </c>
       <c r="E59" s="399" t="str">
         <f t="shared" si="1"/>
@@ -41614,7 +41612,7 @@
       </c>
       <c r="F59" s="400" t="str">
         <f>_xll.qlLiborSwap($E59,Currency,FixingType,$C59,$D59,Discounting,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GbpLiborSwapIsda54Y#0001</v>
+        <v>GbpLiborSwapIsda54Y#0003</v>
       </c>
       <c r="G59" s="405" t="str">
         <f>_xll.ohRangeRetrieveError(F59)</f>
@@ -41631,7 +41629,7 @@
       </c>
       <c r="D60" s="398" t="str">
         <f>GBPLibor!$D$9</f>
-        <v>GBP6M#0000</v>
+        <v>GBP6M#0003</v>
       </c>
       <c r="E60" s="399" t="str">
         <f t="shared" si="1"/>
@@ -41639,7 +41637,7 @@
       </c>
       <c r="F60" s="400" t="str">
         <f>_xll.qlLiborSwap($E60,Currency,FixingType,$C60,$D60,Discounting,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GbpLiborSwapIsda55Y#0001</v>
+        <v>GbpLiborSwapIsda55Y#0003</v>
       </c>
       <c r="G60" s="405" t="str">
         <f>_xll.ohRangeRetrieveError(F60)</f>
@@ -41656,7 +41654,7 @@
       </c>
       <c r="D61" s="398" t="str">
         <f>GBPLibor!$D$9</f>
-        <v>GBP6M#0000</v>
+        <v>GBP6M#0003</v>
       </c>
       <c r="E61" s="399" t="str">
         <f t="shared" si="1"/>
@@ -41664,7 +41662,7 @@
       </c>
       <c r="F61" s="400" t="str">
         <f>_xll.qlLiborSwap($E61,Currency,FixingType,$C61,$D61,Discounting,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GbpLiborSwapIsda56Y#0001</v>
+        <v>GbpLiborSwapIsda56Y#0003</v>
       </c>
       <c r="G61" s="405" t="str">
         <f>_xll.ohRangeRetrieveError(F61)</f>
@@ -41681,7 +41679,7 @@
       </c>
       <c r="D62" s="398" t="str">
         <f>GBPLibor!$D$9</f>
-        <v>GBP6M#0000</v>
+        <v>GBP6M#0003</v>
       </c>
       <c r="E62" s="399" t="str">
         <f t="shared" si="1"/>
@@ -41689,7 +41687,7 @@
       </c>
       <c r="F62" s="400" t="str">
         <f>_xll.qlLiborSwap($E62,Currency,FixingType,$C62,$D62,Discounting,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GbpLiborSwapIsda57Y#0001</v>
+        <v>GbpLiborSwapIsda57Y#0003</v>
       </c>
       <c r="G62" s="405" t="str">
         <f>_xll.ohRangeRetrieveError(F62)</f>
@@ -41706,7 +41704,7 @@
       </c>
       <c r="D63" s="398" t="str">
         <f>GBPLibor!$D$9</f>
-        <v>GBP6M#0000</v>
+        <v>GBP6M#0003</v>
       </c>
       <c r="E63" s="399" t="str">
         <f t="shared" si="1"/>
@@ -41714,7 +41712,7 @@
       </c>
       <c r="F63" s="400" t="str">
         <f>_xll.qlLiborSwap($E63,Currency,FixingType,$C63,$D63,Discounting,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GbpLiborSwapIsda58Y#0001</v>
+        <v>GbpLiborSwapIsda58Y#0003</v>
       </c>
       <c r="G63" s="405" t="str">
         <f>_xll.ohRangeRetrieveError(F63)</f>
@@ -41731,7 +41729,7 @@
       </c>
       <c r="D64" s="398" t="str">
         <f>GBPLibor!$D$9</f>
-        <v>GBP6M#0000</v>
+        <v>GBP6M#0003</v>
       </c>
       <c r="E64" s="399" t="str">
         <f t="shared" si="1"/>
@@ -41739,7 +41737,7 @@
       </c>
       <c r="F64" s="400" t="str">
         <f>_xll.qlLiborSwap($E64,Currency,FixingType,$C64,$D64,Discounting,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GbpLiborSwapIsda59Y#0001</v>
+        <v>GbpLiborSwapIsda59Y#0003</v>
       </c>
       <c r="G64" s="405" t="str">
         <f>_xll.ohRangeRetrieveError(F64)</f>
@@ -41756,7 +41754,7 @@
       </c>
       <c r="D65" s="398" t="str">
         <f>GBPLibor!$D$9</f>
-        <v>GBP6M#0000</v>
+        <v>GBP6M#0003</v>
       </c>
       <c r="E65" s="399" t="str">
         <f t="shared" si="1"/>
@@ -41764,7 +41762,7 @@
       </c>
       <c r="F65" s="400" t="str">
         <f>_xll.qlLiborSwap($E65,Currency,FixingType,$C65,$D65,Discounting,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GbpLiborSwapIsda60Y#0001</v>
+        <v>GbpLiborSwapIsda60Y#0003</v>
       </c>
       <c r="G65" s="405" t="str">
         <f>_xll.ohRangeRetrieveError(F65)</f>
@@ -41930,15 +41928,15 @@
       </c>
       <c r="D4" s="33" t="str">
         <f>_xll.qlRelinkableHandleYieldTermStructure(UPPER(Currency)&amp;C4,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GBPON#0000</v>
+        <v>GBPON#0003</v>
       </c>
       <c r="E4" s="34" t="str">
         <f>_xll.qlSonia("Sonia",D4,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>Sonia#0000</v>
+        <v>Sonia#0003</v>
       </c>
       <c r="F4" s="34" t="str">
         <f>_xll.qlLastFixingQuote("Eonia"&amp;$F$3,E4,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EoniaLastFixing_Quote#0000</v>
+        <v>EoniaLastFixing_Quote#0003</v>
       </c>
       <c r="G4" s="26"/>
       <c r="H4" s="173" t="str">
@@ -41973,11 +41971,11 @@
       <c r="D5" s="33"/>
       <c r="E5" s="34" t="str">
         <f>_xll.qlLibor(PROPER(Currency)&amp;FamilyName&amp;C5,Currency,C5,D5,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GbpLiborSW#0000</v>
+        <v>GbpLiborSW#0003</v>
       </c>
       <c r="F5" s="34" t="str">
         <f>_xll.qlLastFixingQuote(PROPER(Currency)&amp;FamilyName&amp;C5&amp;$F$3,E5,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GbpLiborSWLastFixing_Quote#0000</v>
+        <v>GbpLiborSWLastFixing_Quote#0003</v>
       </c>
       <c r="G5" s="26"/>
       <c r="H5" s="29" t="str">
@@ -42011,15 +42009,15 @@
       </c>
       <c r="D6" s="33" t="str">
         <f>_xll.qlRelinkableHandleYieldTermStructure(UPPER(Currency)&amp;C6,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GBP1M#0000</v>
+        <v>GBP1M#0003</v>
       </c>
       <c r="E6" s="34" t="str">
         <f>_xll.qlLibor(PROPER(Currency)&amp;FamilyName&amp;C6,Currency,C6,D6,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GbpLibor1M#0000</v>
+        <v>GbpLibor1M#0003</v>
       </c>
       <c r="F6" s="34" t="str">
         <f>_xll.qlLastFixingQuote(PROPER(Currency)&amp;FamilyName&amp;C6&amp;$F$3,E6,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GbpLibor1MLastFixing_Quote#0000</v>
+        <v>GbpLibor1MLastFixing_Quote#0003</v>
       </c>
       <c r="G6" s="26"/>
       <c r="H6" s="29" t="str">
@@ -42054,11 +42052,11 @@
       <c r="D7" s="33"/>
       <c r="E7" s="34" t="str">
         <f>_xll.qlLibor(PROPER(Currency)&amp;FamilyName&amp;C7,Currency,C7,D7,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GbpLibor2M#0000</v>
+        <v>GbpLibor2M#0003</v>
       </c>
       <c r="F7" s="34" t="str">
         <f>_xll.qlLastFixingQuote(PROPER(Currency)&amp;FamilyName&amp;C7&amp;$F$3,E7,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GbpLibor2MLastFixing_Quote#0000</v>
+        <v>GbpLibor2MLastFixing_Quote#0003</v>
       </c>
       <c r="G7" s="26"/>
       <c r="H7" s="29" t="str">
@@ -42092,15 +42090,15 @@
       </c>
       <c r="D8" s="33" t="str">
         <f>_xll.qlRelinkableHandleYieldTermStructure(UPPER(Currency)&amp;C8,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GBP3M#0000</v>
+        <v>GBP3M#0003</v>
       </c>
       <c r="E8" s="34" t="str">
         <f>_xll.qlLibor(PROPER(Currency)&amp;FamilyName&amp;C8,Currency,C8,D8,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GbpLibor3M#0000</v>
+        <v>GbpLibor3M#0003</v>
       </c>
       <c r="F8" s="34" t="str">
         <f>_xll.qlLastFixingQuote(PROPER(Currency)&amp;FamilyName&amp;C8&amp;$F$3,E8,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GbpLibor3MLastFixing_Quote#0000</v>
+        <v>GbpLibor3MLastFixing_Quote#0003</v>
       </c>
       <c r="G8" s="26"/>
       <c r="H8" s="29" t="str">
@@ -42134,15 +42132,15 @@
       </c>
       <c r="D9" s="33" t="str">
         <f>_xll.qlRelinkableHandleYieldTermStructure(UPPER(Currency)&amp;C9,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GBP6M#0000</v>
+        <v>GBP6M#0003</v>
       </c>
       <c r="E9" s="34" t="str">
         <f>_xll.qlLibor(PROPER(Currency)&amp;FamilyName&amp;C9,Currency,C9,D9,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GbpLibor6M#0000</v>
+        <v>GbpLibor6M#0003</v>
       </c>
       <c r="F9" s="34" t="str">
         <f>_xll.qlLastFixingQuote(PROPER(Currency)&amp;FamilyName&amp;C9&amp;$F$3,E9,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GbpLibor6MLastFixing_Quote#0000</v>
+        <v>GbpLibor6MLastFixing_Quote#0003</v>
       </c>
       <c r="G9" s="26"/>
       <c r="H9" s="29" t="str">
@@ -42176,15 +42174,15 @@
       </c>
       <c r="D10" s="33" t="str">
         <f>_xll.qlRelinkableHandleYieldTermStructure(UPPER(Currency)&amp;C10,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GBP1Y#0000</v>
+        <v>GBP1Y#0003</v>
       </c>
       <c r="E10" s="34" t="str">
         <f>_xll.qlLibor(PROPER(Currency)&amp;FamilyName&amp;C10,Currency,C10,D10,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GbpLibor1Y#0000</v>
+        <v>GbpLibor1Y#0003</v>
       </c>
       <c r="F10" s="34" t="str">
         <f>_xll.qlLastFixingQuote(PROPER(Currency)&amp;FamilyName&amp;C10&amp;$F$3,E10,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GbpLibor1YLastFixing_Quote#0000</v>
+        <v>GbpLibor1YLastFixing_Quote#0003</v>
       </c>
       <c r="G10" s="26"/>
       <c r="H10" s="169" t="str">
@@ -42218,7 +42216,7 @@
       </c>
       <c r="D11" s="381" t="str">
         <f>_xll.qlRelinkableHandleYieldTermStructure(UPPER(Currency)&amp;C11,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GBPSTD#0000</v>
+        <v>GBPSTD#0003</v>
       </c>
       <c r="E11" s="143"/>
       <c r="F11" s="382"/>
@@ -42901,7 +42899,7 @@
       <c r="R2" s="177"/>
       <c r="S2" s="196">
         <f>_xll.ohTrigger(S5:S11)</f>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="T2" s="217"/>
     </row>
@@ -42980,7 +42978,7 @@
       </c>
       <c r="F5" s="60" t="str">
         <f>_xll.qlSimpleQuote(E5,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GBPOND_Quote#0000</v>
+        <v>GBPOND_Quote#0003</v>
       </c>
       <c r="G5" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F5)</f>
@@ -42991,16 +42989,13 @@
       <c r="K5" s="76" t="s">
         <v>56</v>
       </c>
-      <c r="L5" s="77" t="str">
-        <f t="shared" ref="L5:L11" si="1">Currency&amp;K5&amp;"FSR"</f>
-        <v>GBPONFSR</v>
-      </c>
+      <c r="L5" s="77"/>
       <c r="M5" s="267" t="str">
-        <f t="array" ref="M5:M11">GBPLibor!H4:H10</f>
+        <f>GBPLibor!H4</f>
         <v>GBPONFSR=</v>
       </c>
       <c r="N5" s="383">
-        <f t="array" ref="N5:N11">GBPLibor!J4:J10</f>
+        <f>GBPLibor!J4</f>
         <v>0.48125000000000001</v>
       </c>
       <c r="O5" s="265"/>
@@ -43021,7 +43016,7 @@
     <row r="6" spans="1:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="56"/>
       <c r="B6" s="62" t="str">
-        <f t="shared" ref="B6:B11" si="2">K6</f>
+        <f t="shared" ref="B6:B11" si="1">K6</f>
         <v>SW</v>
       </c>
       <c r="C6" s="63"/>
@@ -43034,7 +43029,7 @@
       </c>
       <c r="F6" s="53" t="str">
         <f>_xll.qlSimpleQuote(E6,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GBPSWD_Quote#0000</v>
+        <v>GBPSWD_Quote#0003</v>
       </c>
       <c r="G6" s="65" t="str">
         <f>_xll.ohRangeRetrieveError(F6)</f>
@@ -43045,14 +43040,13 @@
       <c r="K6" s="78" t="s">
         <v>19</v>
       </c>
-      <c r="L6" s="267" t="str">
-        <f t="shared" si="1"/>
-        <v>GBPSWFSR</v>
-      </c>
+      <c r="L6" s="267"/>
       <c r="M6" s="267" t="str">
+        <f>GBPLibor!H5</f>
         <v>GBPSWFSR=</v>
       </c>
       <c r="N6" s="384">
+        <f>GBPLibor!J5</f>
         <v>0.48987999999999998</v>
       </c>
       <c r="O6" s="265"/>
@@ -43072,7 +43066,7 @@
     <row r="7" spans="1:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="56"/>
       <c r="B7" s="62" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>1M</v>
       </c>
       <c r="C7" s="63"/>
@@ -43085,7 +43079,7 @@
       </c>
       <c r="F7" s="53" t="str">
         <f>_xll.qlSimpleQuote(E7,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GBP1MD_Quote#0000</v>
+        <v>GBP1MD_Quote#0003</v>
       </c>
       <c r="G7" s="65" t="str">
         <f>_xll.ohRangeRetrieveError(F7)</f>
@@ -43096,14 +43090,13 @@
       <c r="K7" s="78" t="s">
         <v>16</v>
       </c>
-      <c r="L7" s="267" t="str">
-        <f t="shared" si="1"/>
-        <v>GBP1MFSR</v>
-      </c>
+      <c r="L7" s="267"/>
       <c r="M7" s="267" t="str">
+        <f>GBPLibor!H6</f>
         <v>GBP1MFSR=</v>
       </c>
       <c r="N7" s="384">
+        <f>GBPLibor!J6</f>
         <v>0.50944</v>
       </c>
       <c r="O7" s="265"/>
@@ -43123,7 +43116,7 @@
     <row r="8" spans="1:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="56"/>
       <c r="B8" s="62" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>2M</v>
       </c>
       <c r="C8" s="63"/>
@@ -43136,7 +43129,7 @@
       </c>
       <c r="F8" s="53" t="str">
         <f>_xll.qlSimpleQuote(E8,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GBP2MD_Quote#0000</v>
+        <v>GBP2MD_Quote#0003</v>
       </c>
       <c r="G8" s="65" t="str">
         <f>_xll.ohRangeRetrieveError(F8)</f>
@@ -43147,14 +43140,13 @@
       <c r="K8" s="78" t="s">
         <v>15</v>
       </c>
-      <c r="L8" s="267" t="str">
-        <f t="shared" si="1"/>
-        <v>GBP2MFSR</v>
-      </c>
+      <c r="L8" s="267"/>
       <c r="M8" s="267" t="str">
+        <f>GBPLibor!H7</f>
         <v>GBP2MFSR=</v>
       </c>
       <c r="N8" s="384">
+        <f>GBPLibor!J7</f>
         <v>0.54175000000000006</v>
       </c>
       <c r="O8" s="265"/>
@@ -43174,7 +43166,7 @@
     <row r="9" spans="1:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="56"/>
       <c r="B9" s="62" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>3M</v>
       </c>
       <c r="C9" s="63"/>
@@ -43187,7 +43179,7 @@
       </c>
       <c r="F9" s="53" t="str">
         <f>_xll.qlSimpleQuote(E9,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GBP3MD_Quote#0000</v>
+        <v>GBP3MD_Quote#0003</v>
       </c>
       <c r="G9" s="65" t="str">
         <f>_xll.ohRangeRetrieveError(F9)</f>
@@ -43198,14 +43190,13 @@
       <c r="K9" s="78" t="s">
         <v>14</v>
       </c>
-      <c r="L9" s="267" t="str">
-        <f t="shared" si="1"/>
-        <v>GBP3MFSR</v>
-      </c>
+      <c r="L9" s="267"/>
       <c r="M9" s="267" t="str">
+        <f>GBPLibor!H8</f>
         <v>GBP3MFSR=</v>
       </c>
       <c r="N9" s="384">
+        <f>GBPLibor!J8</f>
         <v>0.58312999999999993</v>
       </c>
       <c r="O9" s="265"/>
@@ -43225,7 +43216,7 @@
     <row r="10" spans="1:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="56"/>
       <c r="B10" s="62" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>6M</v>
       </c>
       <c r="C10" s="63"/>
@@ -43238,7 +43229,7 @@
       </c>
       <c r="F10" s="53" t="str">
         <f>_xll.qlSimpleQuote(E10,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GBP6MD_Quote#0000</v>
+        <v>GBP6MD_Quote#0003</v>
       </c>
       <c r="G10" s="65" t="str">
         <f>_xll.ohRangeRetrieveError(F10)</f>
@@ -43249,14 +43240,13 @@
       <c r="K10" s="78" t="s">
         <v>11</v>
       </c>
-      <c r="L10" s="267" t="str">
-        <f t="shared" si="1"/>
-        <v>GBP6MFSR</v>
-      </c>
+      <c r="L10" s="267"/>
       <c r="M10" s="267" t="str">
+        <f>GBPLibor!H9</f>
         <v>GBP6MFSR=</v>
       </c>
       <c r="N10" s="384">
+        <f>GBPLibor!J9</f>
         <v>0.75</v>
       </c>
       <c r="O10" s="265"/>
@@ -43276,7 +43266,7 @@
     <row r="11" spans="1:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="56"/>
       <c r="B11" s="66" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>1Y</v>
       </c>
       <c r="C11" s="67"/>
@@ -43289,7 +43279,7 @@
       </c>
       <c r="F11" s="55" t="str">
         <f>_xll.qlSimpleQuote(E11,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GBP1YD_Quote#0000</v>
+        <v>GBP1YD_Quote#0003</v>
       </c>
       <c r="G11" s="69" t="str">
         <f>_xll.ohRangeRetrieveError(F11)</f>
@@ -43300,14 +43290,13 @@
       <c r="K11" s="81" t="s">
         <v>5</v>
       </c>
-      <c r="L11" s="269" t="str">
-        <f t="shared" si="1"/>
-        <v>GBP1YFSR</v>
-      </c>
+      <c r="L11" s="269"/>
       <c r="M11" s="269" t="str">
+        <f>GBPLibor!H10</f>
         <v>GBP1YFSR=</v>
       </c>
       <c r="N11" s="385">
+        <f>GBPLibor!J10</f>
         <v>1.0427500000000001</v>
       </c>
       <c r="O11" s="265"/>
@@ -43463,7 +43452,7 @@
       <c r="W2" s="265"/>
       <c r="X2" s="162">
         <f>_xll.ohTrigger(X5:X58)</f>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="Y2" s="213"/>
     </row>
@@ -43565,7 +43554,7 @@
       </c>
       <c r="F5" s="187" t="str">
         <f>_xll.qlSimpleQuote(E5,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GBP1x4F_Quote#0000</v>
+        <v>GBP1x4F_Quote#0003</v>
       </c>
       <c r="G5" s="243" t="str">
         <f>_xll.ohRangeRetrieveError(F5)</f>
@@ -43640,7 +43629,7 @@
       </c>
       <c r="F6" s="188" t="str">
         <f>_xll.qlSimpleQuote(E6,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GBP2x5F_Quote#0000</v>
+        <v>GBP2x5F_Quote#0003</v>
       </c>
       <c r="G6" s="244" t="str">
         <f>_xll.ohRangeRetrieveError(F6)</f>
@@ -43713,7 +43702,7 @@
       </c>
       <c r="F7" s="188" t="str">
         <f>_xll.qlSimpleQuote(E7,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GBP3x6F_Quote#0000</v>
+        <v>GBP3x6F_Quote#0003</v>
       </c>
       <c r="G7" s="244" t="str">
         <f>_xll.ohRangeRetrieveError(F7)</f>
@@ -43786,7 +43775,7 @@
       </c>
       <c r="F8" s="188" t="str">
         <f>_xll.qlSimpleQuote(E8,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GBP4x7F_Quote#0000</v>
+        <v>GBP4x7F_Quote#0003</v>
       </c>
       <c r="G8" s="244" t="str">
         <f>_xll.ohRangeRetrieveError(F8)</f>
@@ -43859,7 +43848,7 @@
       </c>
       <c r="F9" s="188" t="str">
         <f>_xll.qlSimpleQuote(E9,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GBP5x8F_Quote#0000</v>
+        <v>GBP5x8F_Quote#0003</v>
       </c>
       <c r="G9" s="244" t="str">
         <f>_xll.ohRangeRetrieveError(F9)</f>
@@ -43932,7 +43921,7 @@
       </c>
       <c r="F10" s="188" t="str">
         <f>_xll.qlSimpleQuote(E10,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GBP6x9F_Quote#0000</v>
+        <v>GBP6x9F_Quote#0003</v>
       </c>
       <c r="G10" s="244" t="str">
         <f>_xll.ohRangeRetrieveError(F10)</f>
@@ -44005,7 +43994,7 @@
       </c>
       <c r="F11" s="188" t="str">
         <f>_xll.qlSimpleQuote(E11,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GBP7x10F_Quote#0000</v>
+        <v>GBP7x10F_Quote#0003</v>
       </c>
       <c r="G11" s="244" t="str">
         <f>_xll.ohRangeRetrieveError(F11)</f>
@@ -44078,7 +44067,7 @@
       </c>
       <c r="F12" s="188" t="str">
         <f>_xll.qlSimpleQuote(E12,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GBP8x11F_Quote#0000</v>
+        <v>GBP8x11F_Quote#0003</v>
       </c>
       <c r="G12" s="244" t="str">
         <f>_xll.ohRangeRetrieveError(F12)</f>
@@ -44151,7 +44140,7 @@
       </c>
       <c r="F13" s="188" t="str">
         <f>_xll.qlSimpleQuote(E13,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GBP9x12F_Quote#0000</v>
+        <v>GBP9x12F_Quote#0003</v>
       </c>
       <c r="G13" s="244" t="str">
         <f>_xll.ohRangeRetrieveError(F13)</f>
@@ -44224,7 +44213,7 @@
       </c>
       <c r="F14" s="188" t="str">
         <f>_xll.qlSimpleQuote(E14,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GBP10x13F_Quote#0000</v>
+        <v>GBP10x13F_Quote#0003</v>
       </c>
       <c r="G14" s="244" t="str">
         <f>_xll.ohRangeRetrieveError(F14)</f>
@@ -44297,7 +44286,7 @@
       </c>
       <c r="F15" s="188" t="str">
         <f>_xll.qlSimpleQuote(E15,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GBP11x14F_Quote#0000</v>
+        <v>GBP11x14F_Quote#0003</v>
       </c>
       <c r="G15" s="244" t="str">
         <f>_xll.ohRangeRetrieveError(F15)</f>
@@ -44370,7 +44359,7 @@
       </c>
       <c r="F16" s="188" t="str">
         <f>_xll.qlSimpleQuote(E16,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GBP12x15F_Quote#0000</v>
+        <v>GBP12x15F_Quote#0003</v>
       </c>
       <c r="G16" s="244" t="str">
         <f>_xll.ohRangeRetrieveError(F16)</f>
@@ -44443,7 +44432,7 @@
       </c>
       <c r="F17" s="187" t="str">
         <f>_xll.qlSimpleQuote(E17,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GBP1x7F_Quote#0000</v>
+        <v>GBP1x7F_Quote#0003</v>
       </c>
       <c r="G17" s="243" t="str">
         <f>_xll.ohRangeRetrieveError(F17)</f>
@@ -44516,7 +44505,7 @@
       </c>
       <c r="F18" s="188" t="str">
         <f>_xll.qlSimpleQuote(E18,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GBP2x8F_Quote#0000</v>
+        <v>GBP2x8F_Quote#0003</v>
       </c>
       <c r="G18" s="244" t="str">
         <f>_xll.ohRangeRetrieveError(F18)</f>
@@ -44589,7 +44578,7 @@
       </c>
       <c r="F19" s="188" t="str">
         <f>_xll.qlSimpleQuote(E19,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GBP3x9F_Quote#0000</v>
+        <v>GBP3x9F_Quote#0003</v>
       </c>
       <c r="G19" s="244" t="str">
         <f>_xll.ohRangeRetrieveError(F19)</f>
@@ -44662,7 +44651,7 @@
       </c>
       <c r="F20" s="188" t="str">
         <f>_xll.qlSimpleQuote(E20,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GBP4x10F_Quote#0000</v>
+        <v>GBP4x10F_Quote#0003</v>
       </c>
       <c r="G20" s="244" t="str">
         <f>_xll.ohRangeRetrieveError(F20)</f>
@@ -44735,7 +44724,7 @@
       </c>
       <c r="F21" s="188" t="str">
         <f>_xll.qlSimpleQuote(E21,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GBP5x11F_Quote#0000</v>
+        <v>GBP5x11F_Quote#0003</v>
       </c>
       <c r="G21" s="244" t="str">
         <f>_xll.ohRangeRetrieveError(F21)</f>
@@ -44808,7 +44797,7 @@
       </c>
       <c r="F22" s="188" t="str">
         <f>_xll.qlSimpleQuote(E22,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GBP6x12F_Quote#0000</v>
+        <v>GBP6x12F_Quote#0003</v>
       </c>
       <c r="G22" s="244" t="str">
         <f>_xll.ohRangeRetrieveError(F22)</f>
@@ -44881,7 +44870,7 @@
       </c>
       <c r="F23" s="188" t="str">
         <f>_xll.qlSimpleQuote(E23,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GBP7x13F_Quote#0000</v>
+        <v>GBP7x13F_Quote#0003</v>
       </c>
       <c r="G23" s="244" t="str">
         <f>_xll.ohRangeRetrieveError(F23)</f>
@@ -44954,7 +44943,7 @@
       </c>
       <c r="F24" s="188" t="str">
         <f>_xll.qlSimpleQuote(E24,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GBP8x14F_Quote#0000</v>
+        <v>GBP8x14F_Quote#0003</v>
       </c>
       <c r="G24" s="244" t="str">
         <f>_xll.ohRangeRetrieveError(F24)</f>
@@ -45027,7 +45016,7 @@
       </c>
       <c r="F25" s="188" t="str">
         <f>_xll.qlSimpleQuote(E25,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GBP9x15F_Quote#0000</v>
+        <v>GBP9x15F_Quote#0003</v>
       </c>
       <c r="G25" s="244" t="str">
         <f>_xll.ohRangeRetrieveError(F25)</f>
@@ -45100,7 +45089,7 @@
       </c>
       <c r="F26" s="188" t="str">
         <f>_xll.qlSimpleQuote(E26,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GBP10x16F_Quote#0000</v>
+        <v>GBP10x16F_Quote#0003</v>
       </c>
       <c r="G26" s="244" t="str">
         <f>_xll.ohRangeRetrieveError(F26)</f>
@@ -45173,7 +45162,7 @@
       </c>
       <c r="F27" s="188" t="str">
         <f>_xll.qlSimpleQuote(E27,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GBP11x17F_Quote#0000</v>
+        <v>GBP11x17F_Quote#0003</v>
       </c>
       <c r="G27" s="244" t="str">
         <f>_xll.ohRangeRetrieveError(F27)</f>
@@ -45246,7 +45235,7 @@
       </c>
       <c r="F28" s="188" t="str">
         <f>_xll.qlSimpleQuote(E28,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GBP12x18F_Quote#0000</v>
+        <v>GBP12x18F_Quote#0003</v>
       </c>
       <c r="G28" s="244" t="str">
         <f>_xll.ohRangeRetrieveError(F28)</f>
@@ -45319,7 +45308,7 @@
       </c>
       <c r="F29" s="188" t="str">
         <f>_xll.qlSimpleQuote(E29,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GBP13x19F_Quote#0000</v>
+        <v>GBP13x19F_Quote#0003</v>
       </c>
       <c r="G29" s="244" t="str">
         <f>_xll.ohRangeRetrieveError(F29)</f>
@@ -45392,7 +45381,7 @@
       </c>
       <c r="F30" s="188" t="str">
         <f>_xll.qlSimpleQuote(E30,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GBP14x20F_Quote#0000</v>
+        <v>GBP14x20F_Quote#0003</v>
       </c>
       <c r="G30" s="244" t="str">
         <f>_xll.ohRangeRetrieveError(F30)</f>
@@ -45465,7 +45454,7 @@
       </c>
       <c r="F31" s="188" t="str">
         <f>_xll.qlSimpleQuote(E31,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GBP15x21F_Quote#0000</v>
+        <v>GBP15x21F_Quote#0003</v>
       </c>
       <c r="G31" s="244" t="str">
         <f>_xll.ohRangeRetrieveError(F31)</f>
@@ -45538,7 +45527,7 @@
       </c>
       <c r="F32" s="188" t="str">
         <f>_xll.qlSimpleQuote(E32,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GBP16x22F_Quote#0000</v>
+        <v>GBP16x22F_Quote#0003</v>
       </c>
       <c r="G32" s="244" t="str">
         <f>_xll.ohRangeRetrieveError(F32)</f>
@@ -45611,7 +45600,7 @@
       </c>
       <c r="F33" s="188" t="str">
         <f>_xll.qlSimpleQuote(E33,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GBP17x23F_Quote#0000</v>
+        <v>GBP17x23F_Quote#0003</v>
       </c>
       <c r="G33" s="244" t="str">
         <f>_xll.ohRangeRetrieveError(F33)</f>
@@ -45684,7 +45673,7 @@
       </c>
       <c r="F34" s="189" t="str">
         <f>_xll.qlSimpleQuote(E34,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GBP18x24F_Quote#0000</v>
+        <v>GBP18x24F_Quote#0003</v>
       </c>
       <c r="G34" s="245" t="str">
         <f>_xll.ohRangeRetrieveError(F34)</f>
@@ -45757,7 +45746,7 @@
       </c>
       <c r="F35" s="188" t="str">
         <f>_xll.qlSimpleQuote(E35,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GBP1x13F_Quote#0000</v>
+        <v>GBP1x13F_Quote#0003</v>
       </c>
       <c r="G35" s="244" t="str">
         <f>_xll.ohRangeRetrieveError(F35)</f>
@@ -45830,7 +45819,7 @@
       </c>
       <c r="F36" s="188" t="str">
         <f>_xll.qlSimpleQuote(E36,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GBP2x14F_Quote#0000</v>
+        <v>GBP2x14F_Quote#0003</v>
       </c>
       <c r="G36" s="244" t="str">
         <f>_xll.ohRangeRetrieveError(F36)</f>
@@ -45903,7 +45892,7 @@
       </c>
       <c r="F37" s="188" t="str">
         <f>_xll.qlSimpleQuote(E37,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GBP3x15F_Quote#0000</v>
+        <v>GBP3x15F_Quote#0003</v>
       </c>
       <c r="G37" s="244" t="str">
         <f>_xll.ohRangeRetrieveError(F37)</f>
@@ -45976,7 +45965,7 @@
       </c>
       <c r="F38" s="188" t="str">
         <f>_xll.qlSimpleQuote(E38,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GBP4x16F_Quote#0000</v>
+        <v>GBP4x16F_Quote#0003</v>
       </c>
       <c r="G38" s="244" t="str">
         <f>_xll.ohRangeRetrieveError(F38)</f>
@@ -46049,7 +46038,7 @@
       </c>
       <c r="F39" s="188" t="str">
         <f>_xll.qlSimpleQuote(E39,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GBP5x17F_Quote#0000</v>
+        <v>GBP5x17F_Quote#0003</v>
       </c>
       <c r="G39" s="244" t="str">
         <f>_xll.ohRangeRetrieveError(F39)</f>
@@ -46122,7 +46111,7 @@
       </c>
       <c r="F40" s="188" t="str">
         <f>_xll.qlSimpleQuote(E40,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GBP6x18F_Quote#0000</v>
+        <v>GBP6x18F_Quote#0003</v>
       </c>
       <c r="G40" s="244" t="str">
         <f>_xll.ohRangeRetrieveError(F40)</f>
@@ -46195,7 +46184,7 @@
       </c>
       <c r="F41" s="188" t="str">
         <f>_xll.qlSimpleQuote(E41,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GBP7x19F_Quote#0000</v>
+        <v>GBP7x19F_Quote#0003</v>
       </c>
       <c r="G41" s="244" t="str">
         <f>_xll.ohRangeRetrieveError(F41)</f>
@@ -46268,7 +46257,7 @@
       </c>
       <c r="F42" s="188" t="str">
         <f>_xll.qlSimpleQuote(E42,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GBP8x20F_Quote#0000</v>
+        <v>GBP8x20F_Quote#0003</v>
       </c>
       <c r="G42" s="244" t="str">
         <f>_xll.ohRangeRetrieveError(F42)</f>
@@ -46341,7 +46330,7 @@
       </c>
       <c r="F43" s="188" t="str">
         <f>_xll.qlSimpleQuote(E43,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GBP9x21F_Quote#0000</v>
+        <v>GBP9x21F_Quote#0003</v>
       </c>
       <c r="G43" s="244" t="str">
         <f>_xll.ohRangeRetrieveError(F43)</f>
@@ -46414,7 +46403,7 @@
       </c>
       <c r="F44" s="188" t="str">
         <f>_xll.qlSimpleQuote(E44,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GBP10x22F_Quote#0000</v>
+        <v>GBP10x22F_Quote#0003</v>
       </c>
       <c r="G44" s="244" t="str">
         <f>_xll.ohRangeRetrieveError(F44)</f>
@@ -46487,7 +46476,7 @@
       </c>
       <c r="F45" s="188" t="str">
         <f>_xll.qlSimpleQuote(E45,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GBP11x23F_Quote#0000</v>
+        <v>GBP11x23F_Quote#0003</v>
       </c>
       <c r="G45" s="244" t="str">
         <f>_xll.ohRangeRetrieveError(F45)</f>
@@ -46560,7 +46549,7 @@
       </c>
       <c r="F46" s="188" t="str">
         <f>_xll.qlSimpleQuote(E46,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GBP12x24F_Quote#0000</v>
+        <v>GBP12x24F_Quote#0003</v>
       </c>
       <c r="G46" s="244" t="str">
         <f>_xll.ohRangeRetrieveError(F46)</f>
@@ -46633,7 +46622,7 @@
       </c>
       <c r="F47" s="188" t="str">
         <f>_xll.qlSimpleQuote(E47,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GBP13x25F_Quote#0000</v>
+        <v>GBP13x25F_Quote#0003</v>
       </c>
       <c r="G47" s="244" t="str">
         <f>_xll.ohRangeRetrieveError(F47)</f>
@@ -46706,7 +46695,7 @@
       </c>
       <c r="F48" s="188" t="str">
         <f>_xll.qlSimpleQuote(E48,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GBP14x26F_Quote#0000</v>
+        <v>GBP14x26F_Quote#0003</v>
       </c>
       <c r="G48" s="244" t="str">
         <f>_xll.ohRangeRetrieveError(F48)</f>
@@ -46779,7 +46768,7 @@
       </c>
       <c r="F49" s="188" t="str">
         <f>_xll.qlSimpleQuote(E49,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GBP15x27F_Quote#0000</v>
+        <v>GBP15x27F_Quote#0003</v>
       </c>
       <c r="G49" s="244" t="str">
         <f>_xll.ohRangeRetrieveError(F49)</f>
@@ -46852,7 +46841,7 @@
       </c>
       <c r="F50" s="188" t="str">
         <f>_xll.qlSimpleQuote(E50,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GBP16x28F_Quote#0000</v>
+        <v>GBP16x28F_Quote#0003</v>
       </c>
       <c r="G50" s="244" t="str">
         <f>_xll.ohRangeRetrieveError(F50)</f>
@@ -46925,7 +46914,7 @@
       </c>
       <c r="F51" s="188" t="str">
         <f>_xll.qlSimpleQuote(E51,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GBP17x29F_Quote#0000</v>
+        <v>GBP17x29F_Quote#0003</v>
       </c>
       <c r="G51" s="244" t="str">
         <f>_xll.ohRangeRetrieveError(F51)</f>
@@ -46998,7 +46987,7 @@
       </c>
       <c r="F52" s="188" t="str">
         <f>_xll.qlSimpleQuote(E52,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GBP18x30F_Quote#0000</v>
+        <v>GBP18x30F_Quote#0003</v>
       </c>
       <c r="G52" s="244" t="str">
         <f>_xll.ohRangeRetrieveError(F52)</f>
@@ -47071,7 +47060,7 @@
       </c>
       <c r="F53" s="188" t="str">
         <f>_xll.qlSimpleQuote(E53,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GBP19x31F_Quote#0000</v>
+        <v>GBP19x31F_Quote#0003</v>
       </c>
       <c r="G53" s="244" t="str">
         <f>_xll.ohRangeRetrieveError(F53)</f>
@@ -47144,7 +47133,7 @@
       </c>
       <c r="F54" s="188" t="str">
         <f>_xll.qlSimpleQuote(E54,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GBP20x32F_Quote#0000</v>
+        <v>GBP20x32F_Quote#0003</v>
       </c>
       <c r="G54" s="244" t="str">
         <f>_xll.ohRangeRetrieveError(F54)</f>
@@ -47217,7 +47206,7 @@
       </c>
       <c r="F55" s="188" t="str">
         <f>_xll.qlSimpleQuote(E55,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GBP21x33F_Quote#0000</v>
+        <v>GBP21x33F_Quote#0003</v>
       </c>
       <c r="G55" s="244" t="str">
         <f>_xll.ohRangeRetrieveError(F55)</f>
@@ -47290,7 +47279,7 @@
       </c>
       <c r="F56" s="188" t="str">
         <f>_xll.qlSimpleQuote(E56,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GBP22x34F_Quote#0000</v>
+        <v>GBP22x34F_Quote#0003</v>
       </c>
       <c r="G56" s="244" t="str">
         <f>_xll.ohRangeRetrieveError(F56)</f>
@@ -47363,7 +47352,7 @@
       </c>
       <c r="F57" s="188" t="str">
         <f>_xll.qlSimpleQuote(E57,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GBP23x35F_Quote#0000</v>
+        <v>GBP23x35F_Quote#0003</v>
       </c>
       <c r="G57" s="244" t="str">
         <f>_xll.ohRangeRetrieveError(F57)</f>
@@ -47436,7 +47425,7 @@
       </c>
       <c r="F58" s="189" t="str">
         <f>_xll.qlSimpleQuote(E58,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GBP24x36F_Quote#0000</v>
+        <v>GBP24x36F_Quote#0003</v>
       </c>
       <c r="G58" s="245" t="str">
         <f>_xll.ohRangeRetrieveError(F58)</f>
@@ -47620,7 +47609,7 @@
       <c r="Z2" s="177"/>
       <c r="AA2" s="196">
         <f>_xll.ohTrigger(AA5:AA9)</f>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AB2" s="217"/>
     </row>
@@ -47735,11 +47724,11 @@
       </c>
       <c r="G5" s="187" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;N5&amp;O5&amp;M5&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GBPF1SP_Quote#0000</v>
+        <v>GBPF1SP_Quote#0003</v>
       </c>
       <c r="H5" s="187" t="str">
         <f>_xll.qlCompositeQuote(Currency&amp;$B5&amp;$C5&amp;$D5&amp;QuoteSuffix,F5,G5,"+",Permanent,ISERROR(Futures3M!$F$5:$F$46),ObjectOverwrite)</f>
-        <v>GBPOISU5_Quote#0000</v>
+        <v>GBPOISU5_Quote#0003</v>
       </c>
       <c r="I5" s="243" t="str">
         <f>_xll.ohRangeRetrieveError(H5)</f>
@@ -47817,11 +47806,11 @@
       </c>
       <c r="G6" s="188" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;N6&amp;O6&amp;M6&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GBPF2SP_Quote#0000</v>
+        <v>GBPF2SP_Quote#0003</v>
       </c>
       <c r="H6" s="188" t="str">
         <f>_xll.qlCompositeQuote(Currency&amp;$B6&amp;$C6&amp;$D6&amp;QuoteSuffix,F6,G6,"+",Permanent,ISERROR(Futures3M!$F$5:$F$46),ObjectOverwrite)</f>
-        <v>GBPOISZ5_Quote#0000</v>
+        <v>GBPOISZ5_Quote#0003</v>
       </c>
       <c r="I6" s="244" t="str">
         <f>_xll.ohRangeRetrieveError(H6)</f>
@@ -47897,11 +47886,11 @@
       </c>
       <c r="G7" s="188" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;N7&amp;O7&amp;M7&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GBPF3SP_Quote#0000</v>
+        <v>GBPF3SP_Quote#0003</v>
       </c>
       <c r="H7" s="188" t="str">
         <f>_xll.qlCompositeQuote(Currency&amp;$B7&amp;$C7&amp;$D7&amp;QuoteSuffix,F7,G7,"+",Permanent,ISERROR(Futures3M!$F$5:$F$46),ObjectOverwrite)</f>
-        <v>GBPOISH6_Quote#0000</v>
+        <v>GBPOISH6_Quote#0003</v>
       </c>
       <c r="I7" s="244" t="str">
         <f>_xll.ohRangeRetrieveError(H7)</f>
@@ -47977,11 +47966,11 @@
       </c>
       <c r="G8" s="188" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;N8&amp;O8&amp;M8&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GBPF4SP_Quote#0000</v>
+        <v>GBPF4SP_Quote#0003</v>
       </c>
       <c r="H8" s="188" t="str">
         <f>_xll.qlCompositeQuote(Currency&amp;$B8&amp;$C8&amp;$D8&amp;QuoteSuffix,F8,G8,"+",Permanent,ISERROR(Futures3M!$F$5:$F$46),ObjectOverwrite)</f>
-        <v>GBPOISM6_Quote#0000</v>
+        <v>GBPOISM6_Quote#0003</v>
       </c>
       <c r="I8" s="244" t="str">
         <f>_xll.ohRangeRetrieveError(H8)</f>
@@ -48057,11 +48046,11 @@
       </c>
       <c r="G9" s="189" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;N9&amp;O9&amp;M9&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GBPF5SP_Quote#0000</v>
+        <v>GBPF5SP_Quote#0003</v>
       </c>
       <c r="H9" s="189" t="str">
         <f>_xll.qlCompositeQuote(Currency&amp;$B9&amp;$C9&amp;$D9&amp;QuoteSuffix,F9,G9,"+",Permanent,ISERROR(Futures3M!$F$5:$F$46),ObjectOverwrite)</f>
-        <v>GBPOISU6_Quote#0000</v>
+        <v>GBPOISU6_Quote#0003</v>
       </c>
       <c r="I9" s="245" t="str">
         <f>_xll.ohRangeRetrieveError(H9)</f>
@@ -48492,7 +48481,7 @@
       <c r="Z2" s="174"/>
       <c r="AA2" s="196">
         <f>_xll.ohTrigger(AA5:AA8)</f>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AB2" s="325"/>
     </row>
@@ -48622,7 +48611,7 @@
       </c>
       <c r="F5" s="187" t="str">
         <f>_xll.qlSimpleQuote(E5,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GBPIMMFRA6MN5_Quote#0000</v>
+        <v>GBPIMMFRA6MN5_Quote#0003</v>
       </c>
       <c r="G5" s="243" t="str">
         <f>_xll.ohRangeRetrieveError(F5)</f>
@@ -48703,7 +48692,7 @@
       </c>
       <c r="F6" s="188" t="str">
         <f>_xll.qlSimpleQuote(E6,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GBPIMMFRA6MQ5_Quote#0000</v>
+        <v>GBPIMMFRA6MQ5_Quote#0003</v>
       </c>
       <c r="G6" s="244" t="str">
         <f>_xll.ohRangeRetrieveError(F6)</f>
@@ -48780,7 +48769,7 @@
       </c>
       <c r="F7" s="188" t="str">
         <f>_xll.qlSimpleQuote(E7,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GBPIMMFRA6MU5_Quote#0000</v>
+        <v>GBPIMMFRA6MU5_Quote#0003</v>
       </c>
       <c r="G7" s="244" t="str">
         <f>_xll.ohRangeRetrieveError(F7)</f>
@@ -48857,7 +48846,7 @@
       </c>
       <c r="F8" s="189" t="str">
         <f>_xll.qlSimpleQuote(E8,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GBPIMMFRA6MV5_Quote#0000</v>
+        <v>GBPIMMFRA6MV5_Quote#0003</v>
       </c>
       <c r="G8" s="245" t="str">
         <f>_xll.ohRangeRetrieveError(F8)</f>
@@ -49054,7 +49043,7 @@
       <c r="W2" s="177"/>
       <c r="X2" s="196">
         <f>_xll.ohTrigger(X5:X40)</f>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="Y2" s="217"/>
     </row>
@@ -49153,7 +49142,7 @@
       </c>
       <c r="F5" s="187" t="str">
         <f>_xll.qlSimpleQuote(E5,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GBPSWOIS_Quote#0000</v>
+        <v>GBPSWOIS_Quote#0003</v>
       </c>
       <c r="G5" s="243" t="str">
         <f>_xll.ohRangeRetrieveError(F5)</f>
@@ -49221,7 +49210,7 @@
       </c>
       <c r="F6" s="188" t="str">
         <f>_xll.qlSimpleQuote(E6,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GBP2WOIS_Quote#0000</v>
+        <v>GBP2WOIS_Quote#0003</v>
       </c>
       <c r="G6" s="244" t="str">
         <f>_xll.ohRangeRetrieveError(F6)</f>
@@ -49288,7 +49277,7 @@
       </c>
       <c r="F7" s="188" t="str">
         <f>_xll.qlSimpleQuote(E7,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GBP3WOIS_Quote#0000</v>
+        <v>GBP3WOIS_Quote#0003</v>
       </c>
       <c r="G7" s="244" t="str">
         <f>_xll.ohRangeRetrieveError(F7)</f>
@@ -49355,7 +49344,7 @@
       </c>
       <c r="F8" s="188" t="str">
         <f>_xll.qlSimpleQuote(E8,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GBP1MOIS_Quote#0000</v>
+        <v>GBP1MOIS_Quote#0003</v>
       </c>
       <c r="G8" s="244" t="str">
         <f>_xll.ohRangeRetrieveError(F8)</f>
@@ -49422,7 +49411,7 @@
       </c>
       <c r="F9" s="188" t="str">
         <f>_xll.qlSimpleQuote(E9,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GBP2MOIS_Quote#0000</v>
+        <v>GBP2MOIS_Quote#0003</v>
       </c>
       <c r="G9" s="244" t="str">
         <f>_xll.ohRangeRetrieveError(F9)</f>
@@ -49489,7 +49478,7 @@
       </c>
       <c r="F10" s="188" t="str">
         <f>_xll.qlSimpleQuote(E10,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GBP3MOIS_Quote#0000</v>
+        <v>GBP3MOIS_Quote#0003</v>
       </c>
       <c r="G10" s="244" t="str">
         <f>_xll.ohRangeRetrieveError(F10)</f>
@@ -49556,7 +49545,7 @@
       </c>
       <c r="F11" s="188" t="str">
         <f>_xll.qlSimpleQuote(E11,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GBP4MOIS_Quote#0000</v>
+        <v>GBP4MOIS_Quote#0003</v>
       </c>
       <c r="G11" s="244" t="str">
         <f>_xll.ohRangeRetrieveError(F11)</f>
@@ -49623,7 +49612,7 @@
       </c>
       <c r="F12" s="188" t="str">
         <f>_xll.qlSimpleQuote(E12,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GBP5MOIS_Quote#0000</v>
+        <v>GBP5MOIS_Quote#0003</v>
       </c>
       <c r="G12" s="244" t="str">
         <f>_xll.ohRangeRetrieveError(F12)</f>
@@ -49690,7 +49679,7 @@
       </c>
       <c r="F13" s="188" t="str">
         <f>_xll.qlSimpleQuote(E13,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GBP6MOIS_Quote#0000</v>
+        <v>GBP6MOIS_Quote#0003</v>
       </c>
       <c r="G13" s="244" t="str">
         <f>_xll.ohRangeRetrieveError(F13)</f>
@@ -49757,7 +49746,7 @@
       </c>
       <c r="F14" s="188" t="str">
         <f>_xll.qlSimpleQuote(E14,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GBP7MOIS_Quote#0000</v>
+        <v>GBP7MOIS_Quote#0003</v>
       </c>
       <c r="G14" s="244" t="str">
         <f>_xll.ohRangeRetrieveError(F14)</f>
@@ -49824,7 +49813,7 @@
       </c>
       <c r="F15" s="188" t="str">
         <f>_xll.qlSimpleQuote(E15,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GBP8MOIS_Quote#0000</v>
+        <v>GBP8MOIS_Quote#0003</v>
       </c>
       <c r="G15" s="244" t="str">
         <f>_xll.ohRangeRetrieveError(F15)</f>
@@ -49891,7 +49880,7 @@
       </c>
       <c r="F16" s="188" t="str">
         <f>_xll.qlSimpleQuote(E16,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GBP9MOIS_Quote#0000</v>
+        <v>GBP9MOIS_Quote#0003</v>
       </c>
       <c r="G16" s="244" t="str">
         <f>_xll.ohRangeRetrieveError(F16)</f>
@@ -49958,7 +49947,7 @@
       </c>
       <c r="F17" s="188" t="str">
         <f>_xll.qlSimpleQuote(E17,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GBP10MOIS_Quote#0000</v>
+        <v>GBP10MOIS_Quote#0003</v>
       </c>
       <c r="G17" s="244" t="str">
         <f>_xll.ohRangeRetrieveError(F17)</f>
@@ -50025,7 +50014,7 @@
       </c>
       <c r="F18" s="188" t="str">
         <f>_xll.qlSimpleQuote(E18,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GBP11MOIS_Quote#0000</v>
+        <v>GBP11MOIS_Quote#0003</v>
       </c>
       <c r="G18" s="244" t="str">
         <f>_xll.ohRangeRetrieveError(F18)</f>
@@ -50092,7 +50081,7 @@
       </c>
       <c r="F19" s="188" t="str">
         <f>_xll.qlSimpleQuote(E19,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GBP1YOIS_Quote#0000</v>
+        <v>GBP1YOIS_Quote#0003</v>
       </c>
       <c r="G19" s="244" t="str">
         <f>_xll.ohRangeRetrieveError(F19)</f>
@@ -50159,7 +50148,7 @@
       </c>
       <c r="F20" s="188" t="str">
         <f>_xll.qlSimpleQuote(E20,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GBP15MOIS_Quote#0000</v>
+        <v>GBP15MOIS_Quote#0003</v>
       </c>
       <c r="G20" s="244" t="str">
         <f>_xll.ohRangeRetrieveError(F20)</f>
@@ -50226,7 +50215,7 @@
       </c>
       <c r="F21" s="188" t="str">
         <f>_xll.qlSimpleQuote(E21,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GBP18MOIS_Quote#0000</v>
+        <v>GBP18MOIS_Quote#0003</v>
       </c>
       <c r="G21" s="244" t="str">
         <f>_xll.ohRangeRetrieveError(F21)</f>
@@ -50293,7 +50282,7 @@
       </c>
       <c r="F22" s="188" t="str">
         <f>_xll.qlSimpleQuote(E22,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GBP21MOIS_Quote#0000</v>
+        <v>GBP21MOIS_Quote#0003</v>
       </c>
       <c r="G22" s="244" t="str">
         <f>_xll.ohRangeRetrieveError(F22)</f>
@@ -50360,7 +50349,7 @@
       </c>
       <c r="F23" s="188" t="str">
         <f>_xll.qlSimpleQuote(E23,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GBP2YOIS_Quote#0000</v>
+        <v>GBP2YOIS_Quote#0003</v>
       </c>
       <c r="G23" s="244" t="str">
         <f>_xll.ohRangeRetrieveError(F23)</f>
@@ -50427,7 +50416,7 @@
       </c>
       <c r="F24" s="188" t="str">
         <f>_xll.qlSimpleQuote(E24,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GBP3YOIS_Quote#0000</v>
+        <v>GBP3YOIS_Quote#0003</v>
       </c>
       <c r="G24" s="244" t="str">
         <f>_xll.ohRangeRetrieveError(F24)</f>
@@ -50494,7 +50483,7 @@
       </c>
       <c r="F25" s="188" t="str">
         <f>_xll.qlSimpleQuote(E25,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GBP4YOIS_Quote#0000</v>
+        <v>GBP4YOIS_Quote#0003</v>
       </c>
       <c r="G25" s="244" t="str">
         <f>_xll.ohRangeRetrieveError(F25)</f>
@@ -50561,7 +50550,7 @@
       </c>
       <c r="F26" s="188" t="str">
         <f>_xll.qlSimpleQuote(E26,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GBP5YOIS_Quote#0000</v>
+        <v>GBP5YOIS_Quote#0003</v>
       </c>
       <c r="G26" s="244" t="str">
         <f>_xll.ohRangeRetrieveError(F26)</f>
@@ -50628,7 +50617,7 @@
       </c>
       <c r="F27" s="188" t="str">
         <f>_xll.qlSimpleQuote(E27,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GBP6YOIS_Quote#0000</v>
+        <v>GBP6YOIS_Quote#0003</v>
       </c>
       <c r="G27" s="244" t="str">
         <f>_xll.ohRangeRetrieveError(F27)</f>
@@ -50695,7 +50684,7 @@
       </c>
       <c r="F28" s="188" t="str">
         <f>_xll.qlSimpleQuote(E28,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GBP7YOIS_Quote#0000</v>
+        <v>GBP7YOIS_Quote#0003</v>
       </c>
       <c r="G28" s="244" t="str">
         <f>_xll.ohRangeRetrieveError(F28)</f>
@@ -50762,7 +50751,7 @@
       </c>
       <c r="F29" s="188" t="str">
         <f>_xll.qlSimpleQuote(E29,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GBP8YOIS_Quote#0000</v>
+        <v>GBP8YOIS_Quote#0003</v>
       </c>
       <c r="G29" s="244" t="str">
         <f>_xll.ohRangeRetrieveError(F29)</f>
@@ -50829,7 +50818,7 @@
       </c>
       <c r="F30" s="188" t="str">
         <f>_xll.qlSimpleQuote(E30,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GBP9YOIS_Quote#0000</v>
+        <v>GBP9YOIS_Quote#0003</v>
       </c>
       <c r="G30" s="244" t="str">
         <f>_xll.ohRangeRetrieveError(F30)</f>
@@ -50896,7 +50885,7 @@
       </c>
       <c r="F31" s="188" t="str">
         <f>_xll.qlSimpleQuote(E31,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GBP10YOIS_Quote#0000</v>
+        <v>GBP10YOIS_Quote#0003</v>
       </c>
       <c r="G31" s="244" t="str">
         <f>_xll.ohRangeRetrieveError(F31)</f>
@@ -50963,7 +50952,7 @@
       </c>
       <c r="F32" s="188" t="str">
         <f>_xll.qlSimpleQuote(E32,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GBP11YOIS_Quote#0000</v>
+        <v>GBP11YOIS_Quote#0003</v>
       </c>
       <c r="G32" s="244" t="str">
         <f>_xll.ohRangeRetrieveError(F32)</f>
@@ -51030,7 +51019,7 @@
       </c>
       <c r="F33" s="188" t="str">
         <f>_xll.qlSimpleQuote(E33,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GBP12YOIS_Quote#0000</v>
+        <v>GBP12YOIS_Quote#0003</v>
       </c>
       <c r="G33" s="244" t="str">
         <f>_xll.ohRangeRetrieveError(F33)</f>
@@ -51097,7 +51086,7 @@
       </c>
       <c r="F34" s="188" t="str">
         <f>_xll.qlSimpleQuote(E34,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GBP15YOIS_Quote#0000</v>
+        <v>GBP15YOIS_Quote#0003</v>
       </c>
       <c r="G34" s="244" t="str">
         <f>_xll.ohRangeRetrieveError(F34)</f>
@@ -51164,7 +51153,7 @@
       </c>
       <c r="F35" s="188" t="str">
         <f>_xll.qlSimpleQuote(E35,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GBP20YOIS_Quote#0000</v>
+        <v>GBP20YOIS_Quote#0003</v>
       </c>
       <c r="G35" s="244" t="str">
         <f>_xll.ohRangeRetrieveError(F35)</f>
@@ -51231,7 +51220,7 @@
       </c>
       <c r="F36" s="188" t="str">
         <f>_xll.qlSimpleQuote(E36,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GBP25YOIS_Quote#0000</v>
+        <v>GBP25YOIS_Quote#0003</v>
       </c>
       <c r="G36" s="244" t="str">
         <f>_xll.ohRangeRetrieveError(F36)</f>
@@ -51298,7 +51287,7 @@
       </c>
       <c r="F37" s="188" t="str">
         <f>_xll.qlSimpleQuote(E37,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GBP30YOIS_Quote#0000</v>
+        <v>GBP30YOIS_Quote#0003</v>
       </c>
       <c r="G37" s="244" t="str">
         <f>_xll.ohRangeRetrieveError(F37)</f>
@@ -51365,7 +51354,7 @@
       </c>
       <c r="F38" s="188" t="str">
         <f>_xll.qlSimpleQuote(E38,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GBP40YOIS_Quote#0000</v>
+        <v>GBP40YOIS_Quote#0003</v>
       </c>
       <c r="G38" s="244" t="str">
         <f>_xll.ohRangeRetrieveError(F38)</f>
@@ -51432,7 +51421,7 @@
       </c>
       <c r="F39" s="188" t="str">
         <f>_xll.qlSimpleQuote(E39,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GBP50YOIS_Quote#0000</v>
+        <v>GBP50YOIS_Quote#0003</v>
       </c>
       <c r="G39" s="244" t="str">
         <f>_xll.ohRangeRetrieveError(F39)</f>
@@ -51499,7 +51488,7 @@
       </c>
       <c r="F40" s="188" t="str">
         <f>_xll.qlSimpleQuote(E40,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GBP60YOIS_Quote#0000</v>
+        <v>GBP60YOIS_Quote#0003</v>
       </c>
       <c r="G40" s="244" t="str">
         <f>_xll.ohRangeRetrieveError(F40)</f>
@@ -51701,7 +51690,7 @@
       <c r="Y2" s="177"/>
       <c r="Z2" s="196">
         <f ca="1">_xll.ohTrigger(Z5:Z16)</f>
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="AA2" s="217"/>
     </row>
@@ -53147,7 +53136,7 @@
       <c r="AC2" s="174"/>
       <c r="AD2" s="196">
         <f>_xll.ohTrigger(AD5:AD46)</f>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AE2" s="325"/>
     </row>
@@ -53291,7 +53280,7 @@
       </c>
       <c r="F5" s="187" t="str">
         <f>_xll.qlSimpleQuote(E5,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GBPFUT3MN5_Quote#0000</v>
+        <v>GBPFUT3MN5_Quote#0003</v>
       </c>
       <c r="G5" s="243" t="str">
         <f>_xll.ohRangeRetrieveError(F5)</f>
@@ -53303,7 +53292,7 @@
       </c>
       <c r="I5" s="187" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote($H5,IborIndex,$D5,$F5,Volatility,MeanReversion,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GBPFUT3MN5ConvAdj_Quote#0000</v>
+        <v>GBPFUT3MN5ConvAdj_Quote#0003</v>
       </c>
       <c r="J5" s="243" t="str">
         <f>_xll.ohRangeRetrieveError(I5)</f>
@@ -53384,7 +53373,7 @@
       </c>
       <c r="F6" s="188" t="str">
         <f>_xll.qlSimpleQuote(E6,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GBPFUT3MQ5_Quote#0000</v>
+        <v>GBPFUT3MQ5_Quote#0003</v>
       </c>
       <c r="G6" s="244" t="str">
         <f>_xll.ohRangeRetrieveError(F6)</f>
@@ -53396,7 +53385,7 @@
       </c>
       <c r="I6" s="188" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote($H6,IborIndex,$D6,$F6,Volatility,MeanReversion,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GBPFUT3MQ5ConvAdj_Quote#0000</v>
+        <v>GBPFUT3MQ5ConvAdj_Quote#0003</v>
       </c>
       <c r="J6" s="244" t="str">
         <f>_xll.ohRangeRetrieveError(I6)</f>
@@ -53473,7 +53462,7 @@
       </c>
       <c r="F7" s="188" t="str">
         <f>_xll.qlSimpleQuote(E7,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GBPFUT3MU5_Quote#0000</v>
+        <v>GBPFUT3MU5_Quote#0003</v>
       </c>
       <c r="G7" s="244" t="str">
         <f>_xll.ohRangeRetrieveError(F7)</f>
@@ -53485,7 +53474,7 @@
       </c>
       <c r="I7" s="188" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote($H7,IborIndex,$D7,$F7,Volatility,MeanReversion,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GBPFUT3MU5ConvAdj_Quote#0000</v>
+        <v>GBPFUT3MU5ConvAdj_Quote#0003</v>
       </c>
       <c r="J7" s="244" t="str">
         <f>_xll.ohRangeRetrieveError(I7)</f>
@@ -53562,7 +53551,7 @@
       </c>
       <c r="F8" s="188" t="str">
         <f>_xll.qlSimpleQuote(E8,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GBPFUT3MV5_Quote#0000</v>
+        <v>GBPFUT3MV5_Quote#0003</v>
       </c>
       <c r="G8" s="244" t="str">
         <f>_xll.ohRangeRetrieveError(F8)</f>
@@ -53574,7 +53563,7 @@
       </c>
       <c r="I8" s="188" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote($H8,IborIndex,$D8,$F8,Volatility,MeanReversion,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GBPFUT3MV5ConvAdj_Quote#0000</v>
+        <v>GBPFUT3MV5ConvAdj_Quote#0003</v>
       </c>
       <c r="J8" s="244" t="str">
         <f>_xll.ohRangeRetrieveError(I8)</f>
@@ -53651,7 +53640,7 @@
       </c>
       <c r="F9" s="188" t="str">
         <f>_xll.qlSimpleQuote(E9,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GBPFUT3MX5_Quote#0000</v>
+        <v>GBPFUT3MX5_Quote#0003</v>
       </c>
       <c r="G9" s="244" t="str">
         <f>_xll.ohRangeRetrieveError(F9)</f>
@@ -53663,7 +53652,7 @@
       </c>
       <c r="I9" s="188" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote($H9,IborIndex,$D9,$F9,Volatility,MeanReversion,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GBPFUT3MX5ConvAdj_Quote#0000</v>
+        <v>GBPFUT3MX5ConvAdj_Quote#0003</v>
       </c>
       <c r="J9" s="244" t="str">
         <f>_xll.ohRangeRetrieveError(I9)</f>
@@ -53740,7 +53729,7 @@
       </c>
       <c r="F10" s="188" t="str">
         <f>_xll.qlSimpleQuote(E10,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GBPFUT3MZ5_Quote#0000</v>
+        <v>GBPFUT3MZ5_Quote#0003</v>
       </c>
       <c r="G10" s="244" t="str">
         <f>_xll.ohRangeRetrieveError(F10)</f>
@@ -53752,7 +53741,7 @@
       </c>
       <c r="I10" s="188" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote($H10,IborIndex,$D10,$F10,Volatility,MeanReversion,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GBPFUT3MZ5ConvAdj_Quote#0000</v>
+        <v>GBPFUT3MZ5ConvAdj_Quote#0003</v>
       </c>
       <c r="J10" s="244" t="str">
         <f>_xll.ohRangeRetrieveError(I10)</f>
@@ -53829,7 +53818,7 @@
       </c>
       <c r="F11" s="188" t="str">
         <f>_xll.qlSimpleQuote(E11,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GBPFUT3MF6_Quote#0000</v>
+        <v>GBPFUT3MF6_Quote#0003</v>
       </c>
       <c r="G11" s="244" t="str">
         <f>_xll.ohRangeRetrieveError(F11)</f>
@@ -53841,7 +53830,7 @@
       </c>
       <c r="I11" s="188" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote($H11,IborIndex,$D11,$F11,Volatility,MeanReversion,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GBPFUT3MF6ConvAdj_Quote#0000</v>
+        <v>GBPFUT3MF6ConvAdj_Quote#0003</v>
       </c>
       <c r="J11" s="244" t="str">
         <f>_xll.ohRangeRetrieveError(I11)</f>
@@ -53918,7 +53907,7 @@
       </c>
       <c r="F12" s="188" t="str">
         <f>_xll.qlSimpleQuote(E12,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GBPFUT3MG6_Quote#0000</v>
+        <v>GBPFUT3MG6_Quote#0003</v>
       </c>
       <c r="G12" s="244" t="str">
         <f>_xll.ohRangeRetrieveError(F12)</f>
@@ -53930,7 +53919,7 @@
       </c>
       <c r="I12" s="188" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote($H12,IborIndex,$D12,$F12,Volatility,MeanReversion,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GBPFUT3MG6ConvAdj_Quote#0000</v>
+        <v>GBPFUT3MG6ConvAdj_Quote#0003</v>
       </c>
       <c r="J12" s="244" t="str">
         <f>_xll.ohRangeRetrieveError(I12)</f>
@@ -54007,7 +53996,7 @@
       </c>
       <c r="F13" s="188" t="str">
         <f>_xll.qlSimpleQuote(E13,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GBPFUT3MH6_Quote#0000</v>
+        <v>GBPFUT3MH6_Quote#0003</v>
       </c>
       <c r="G13" s="244" t="str">
         <f>_xll.ohRangeRetrieveError(F13)</f>
@@ -54019,7 +54008,7 @@
       </c>
       <c r="I13" s="188" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote($H13,IborIndex,$D13,$F13,Volatility,MeanReversion,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GBPFUT3MH6ConvAdj_Quote#0000</v>
+        <v>GBPFUT3MH6ConvAdj_Quote#0003</v>
       </c>
       <c r="J13" s="244" t="str">
         <f>_xll.ohRangeRetrieveError(I13)</f>
@@ -54096,7 +54085,7 @@
       </c>
       <c r="F14" s="188" t="str">
         <f>_xll.qlSimpleQuote(E14,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GBPFUT3MJ6_Quote#0000</v>
+        <v>GBPFUT3MJ6_Quote#0003</v>
       </c>
       <c r="G14" s="244" t="str">
         <f>_xll.ohRangeRetrieveError(F14)</f>
@@ -54108,7 +54097,7 @@
       </c>
       <c r="I14" s="188" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote($H14,IborIndex,$D14,$F14,Volatility,MeanReversion,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GBPFUT3MJ6ConvAdj_Quote#0000</v>
+        <v>GBPFUT3MJ6ConvAdj_Quote#0003</v>
       </c>
       <c r="J14" s="244" t="str">
         <f>_xll.ohRangeRetrieveError(I14)</f>
@@ -54185,7 +54174,7 @@
       </c>
       <c r="F15" s="188" t="str">
         <f>_xll.qlSimpleQuote(E15,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GBPFUT3MK6_Quote#0000</v>
+        <v>GBPFUT3MK6_Quote#0003</v>
       </c>
       <c r="G15" s="244" t="str">
         <f>_xll.ohRangeRetrieveError(F15)</f>
@@ -54197,7 +54186,7 @@
       </c>
       <c r="I15" s="188" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote($H15,IborIndex,$D15,$F15,Volatility,MeanReversion,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GBPFUT3MK6ConvAdj_Quote#0000</v>
+        <v>GBPFUT3MK6ConvAdj_Quote#0003</v>
       </c>
       <c r="J15" s="244" t="str">
         <f>_xll.ohRangeRetrieveError(I15)</f>
@@ -54274,7 +54263,7 @@
       </c>
       <c r="F16" s="188" t="str">
         <f>_xll.qlSimpleQuote(E16,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GBPFUT3MM6_Quote#0000</v>
+        <v>GBPFUT3MM6_Quote#0003</v>
       </c>
       <c r="G16" s="244" t="str">
         <f>_xll.ohRangeRetrieveError(F16)</f>
@@ -54286,7 +54275,7 @@
       </c>
       <c r="I16" s="188" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote($H16,IborIndex,$D16,$F16,Volatility,MeanReversion,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GBPFUT3MM6ConvAdj_Quote#0000</v>
+        <v>GBPFUT3MM6ConvAdj_Quote#0003</v>
       </c>
       <c r="J16" s="244" t="str">
         <f>_xll.ohRangeRetrieveError(I16)</f>
@@ -54363,7 +54352,7 @@
       </c>
       <c r="F17" s="188" t="str">
         <f>_xll.qlSimpleQuote(E17,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GBPFUT3MU6_Quote#0000</v>
+        <v>GBPFUT3MU6_Quote#0003</v>
       </c>
       <c r="G17" s="244" t="str">
         <f>_xll.ohRangeRetrieveError(F17)</f>
@@ -54375,7 +54364,7 @@
       </c>
       <c r="I17" s="188" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote($H17,IborIndex,$D17,$F17,Volatility,MeanReversion,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GBPFUT3MU6ConvAdj_Quote#0000</v>
+        <v>GBPFUT3MU6ConvAdj_Quote#0003</v>
       </c>
       <c r="J17" s="244" t="str">
         <f>_xll.ohRangeRetrieveError(I17)</f>
@@ -54452,7 +54441,7 @@
       </c>
       <c r="F18" s="188" t="str">
         <f>_xll.qlSimpleQuote(E18,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GBPFUT3MZ6_Quote#0000</v>
+        <v>GBPFUT3MZ6_Quote#0003</v>
       </c>
       <c r="G18" s="244" t="str">
         <f>_xll.ohRangeRetrieveError(F18)</f>
@@ -54464,7 +54453,7 @@
       </c>
       <c r="I18" s="188" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote($H18,IborIndex,$D18,$F18,Volatility,MeanReversion,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GBPFUT3MZ6ConvAdj_Quote#0000</v>
+        <v>GBPFUT3MZ6ConvAdj_Quote#0003</v>
       </c>
       <c r="J18" s="244" t="str">
         <f>_xll.ohRangeRetrieveError(I18)</f>
@@ -54541,7 +54530,7 @@
       </c>
       <c r="F19" s="188" t="str">
         <f>_xll.qlSimpleQuote(E19,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GBPFUT3MH7_Quote#0000</v>
+        <v>GBPFUT3MH7_Quote#0003</v>
       </c>
       <c r="G19" s="244" t="str">
         <f>_xll.ohRangeRetrieveError(F19)</f>
@@ -54553,7 +54542,7 @@
       </c>
       <c r="I19" s="188" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote($H19,IborIndex,$D19,$F19,Volatility,MeanReversion,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GBPFUT3MH7ConvAdj_Quote#0000</v>
+        <v>GBPFUT3MH7ConvAdj_Quote#0003</v>
       </c>
       <c r="J19" s="244" t="str">
         <f>_xll.ohRangeRetrieveError(I19)</f>
@@ -54630,7 +54619,7 @@
       </c>
       <c r="F20" s="188" t="str">
         <f>_xll.qlSimpleQuote(E20,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GBPFUT3MM7_Quote#0000</v>
+        <v>GBPFUT3MM7_Quote#0003</v>
       </c>
       <c r="G20" s="244" t="str">
         <f>_xll.ohRangeRetrieveError(F20)</f>
@@ -54642,7 +54631,7 @@
       </c>
       <c r="I20" s="188" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote($H20,IborIndex,$D20,$F20,Volatility,MeanReversion,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GBPFUT3MM7ConvAdj_Quote#0000</v>
+        <v>GBPFUT3MM7ConvAdj_Quote#0003</v>
       </c>
       <c r="J20" s="244" t="str">
         <f>_xll.ohRangeRetrieveError(I20)</f>
@@ -54719,7 +54708,7 @@
       </c>
       <c r="F21" s="188" t="str">
         <f>_xll.qlSimpleQuote(E21,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GBPFUT3MU7_Quote#0000</v>
+        <v>GBPFUT3MU7_Quote#0003</v>
       </c>
       <c r="G21" s="244" t="str">
         <f>_xll.ohRangeRetrieveError(F21)</f>
@@ -54731,7 +54720,7 @@
       </c>
       <c r="I21" s="188" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote($H21,IborIndex,$D21,$F21,Volatility,MeanReversion,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GBPFUT3MU7ConvAdj_Quote#0000</v>
+        <v>GBPFUT3MU7ConvAdj_Quote#0003</v>
       </c>
       <c r="J21" s="244" t="str">
         <f>_xll.ohRangeRetrieveError(I21)</f>
@@ -54808,7 +54797,7 @@
       </c>
       <c r="F22" s="188" t="str">
         <f>_xll.qlSimpleQuote(E22,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GBPFUT3MZ7_Quote#0000</v>
+        <v>GBPFUT3MZ7_Quote#0003</v>
       </c>
       <c r="G22" s="244" t="str">
         <f>_xll.ohRangeRetrieveError(F22)</f>
@@ -54820,7 +54809,7 @@
       </c>
       <c r="I22" s="188" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote($H22,IborIndex,$D22,$F22,Volatility,MeanReversion,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GBPFUT3MZ7ConvAdj_Quote#0000</v>
+        <v>GBPFUT3MZ7ConvAdj_Quote#0003</v>
       </c>
       <c r="J22" s="244" t="str">
         <f>_xll.ohRangeRetrieveError(I22)</f>
@@ -54897,7 +54886,7 @@
       </c>
       <c r="F23" s="188" t="str">
         <f>_xll.qlSimpleQuote(E23,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GBPFUT3MH8_Quote#0000</v>
+        <v>GBPFUT3MH8_Quote#0003</v>
       </c>
       <c r="G23" s="244" t="str">
         <f>_xll.ohRangeRetrieveError(F23)</f>
@@ -54909,7 +54898,7 @@
       </c>
       <c r="I23" s="188" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote($H23,IborIndex,$D23,$F23,Volatility,MeanReversion,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GBPFUT3MH8ConvAdj_Quote#0000</v>
+        <v>GBPFUT3MH8ConvAdj_Quote#0003</v>
       </c>
       <c r="J23" s="244" t="str">
         <f>_xll.ohRangeRetrieveError(I23)</f>
@@ -54986,7 +54975,7 @@
       </c>
       <c r="F24" s="188" t="str">
         <f>_xll.qlSimpleQuote(E24,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GBPFUT3MM8_Quote#0000</v>
+        <v>GBPFUT3MM8_Quote#0003</v>
       </c>
       <c r="G24" s="244" t="str">
         <f>_xll.ohRangeRetrieveError(F24)</f>
@@ -54998,7 +54987,7 @@
       </c>
       <c r="I24" s="188" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote($H24,IborIndex,$D24,$F24,Volatility,MeanReversion,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GBPFUT3MM8ConvAdj_Quote#0000</v>
+        <v>GBPFUT3MM8ConvAdj_Quote#0003</v>
       </c>
       <c r="J24" s="244" t="str">
         <f>_xll.ohRangeRetrieveError(I24)</f>
@@ -55075,7 +55064,7 @@
       </c>
       <c r="F25" s="188" t="str">
         <f>_xll.qlSimpleQuote(E25,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GBPFUT3MU8_Quote#0000</v>
+        <v>GBPFUT3MU8_Quote#0003</v>
       </c>
       <c r="G25" s="244" t="str">
         <f>_xll.ohRangeRetrieveError(F25)</f>
@@ -55087,7 +55076,7 @@
       </c>
       <c r="I25" s="188" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote($H25,IborIndex,$D25,$F25,Volatility,MeanReversion,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GBPFUT3MU8ConvAdj_Quote#0000</v>
+        <v>GBPFUT3MU8ConvAdj_Quote#0003</v>
       </c>
       <c r="J25" s="244" t="str">
         <f>_xll.ohRangeRetrieveError(I25)</f>
@@ -55164,7 +55153,7 @@
       </c>
       <c r="F26" s="188" t="str">
         <f>_xll.qlSimpleQuote(E26,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GBPFUT3MZ8_Quote#0000</v>
+        <v>GBPFUT3MZ8_Quote#0003</v>
       </c>
       <c r="G26" s="244" t="str">
         <f>_xll.ohRangeRetrieveError(F26)</f>
@@ -55176,7 +55165,7 @@
       </c>
       <c r="I26" s="188" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote($H26,IborIndex,$D26,$F26,Volatility,MeanReversion,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GBPFUT3MZ8ConvAdj_Quote#0000</v>
+        <v>GBPFUT3MZ8ConvAdj_Quote#0003</v>
       </c>
       <c r="J26" s="244" t="str">
         <f>_xll.ohRangeRetrieveError(I26)</f>
@@ -55253,7 +55242,7 @@
       </c>
       <c r="F27" s="188" t="str">
         <f>_xll.qlSimpleQuote(E27,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GBPFUT3MH9_Quote#0000</v>
+        <v>GBPFUT3MH9_Quote#0003</v>
       </c>
       <c r="G27" s="244" t="str">
         <f>_xll.ohRangeRetrieveError(F27)</f>
@@ -55265,7 +55254,7 @@
       </c>
       <c r="I27" s="188" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote($H27,IborIndex,$D27,$F27,Volatility,MeanReversion,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GBPFUT3MH9ConvAdj_Quote#0000</v>
+        <v>GBPFUT3MH9ConvAdj_Quote#0003</v>
       </c>
       <c r="J27" s="244" t="str">
         <f>_xll.ohRangeRetrieveError(I27)</f>
@@ -55342,7 +55331,7 @@
       </c>
       <c r="F28" s="188" t="str">
         <f>_xll.qlSimpleQuote(E28,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GBPFUT3MM9_Quote#0000</v>
+        <v>GBPFUT3MM9_Quote#0003</v>
       </c>
       <c r="G28" s="244" t="str">
         <f>_xll.ohRangeRetrieveError(F28)</f>
@@ -55354,7 +55343,7 @@
       </c>
       <c r="I28" s="188" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote($H28,IborIndex,$D28,$F28,Volatility,MeanReversion,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GBPFUT3MM9ConvAdj_Quote#0000</v>
+        <v>GBPFUT3MM9ConvAdj_Quote#0003</v>
       </c>
       <c r="J28" s="244" t="str">
         <f>_xll.ohRangeRetrieveError(I28)</f>
@@ -55431,7 +55420,7 @@
       </c>
       <c r="F29" s="188" t="str">
         <f>_xll.qlSimpleQuote(E29,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GBPFUT3MU9_Quote#0000</v>
+        <v>GBPFUT3MU9_Quote#0003</v>
       </c>
       <c r="G29" s="244" t="str">
         <f>_xll.ohRangeRetrieveError(F29)</f>
@@ -55443,7 +55432,7 @@
       </c>
       <c r="I29" s="188" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote($H29,IborIndex,$D29,$F29,Volatility,MeanReversion,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GBPFUT3MU9ConvAdj_Quote#0000</v>
+        <v>GBPFUT3MU9ConvAdj_Quote#0003</v>
       </c>
       <c r="J29" s="244" t="str">
         <f>_xll.ohRangeRetrieveError(I29)</f>
@@ -55520,7 +55509,7 @@
       </c>
       <c r="F30" s="188" t="str">
         <f>_xll.qlSimpleQuote(E30,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GBPFUT3MZ9_Quote#0000</v>
+        <v>GBPFUT3MZ9_Quote#0003</v>
       </c>
       <c r="G30" s="244" t="str">
         <f>_xll.ohRangeRetrieveError(F30)</f>
@@ -55532,7 +55521,7 @@
       </c>
       <c r="I30" s="188" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote($H30,IborIndex,$D30,$F30,Volatility,MeanReversion,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GBPFUT3MZ9ConvAdj_Quote#0000</v>
+        <v>GBPFUT3MZ9ConvAdj_Quote#0003</v>
       </c>
       <c r="J30" s="244" t="str">
         <f>_xll.ohRangeRetrieveError(I30)</f>
@@ -55609,7 +55598,7 @@
       </c>
       <c r="F31" s="188" t="str">
         <f>_xll.qlSimpleQuote(E31,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GBPFUT3MH0_Quote#0000</v>
+        <v>GBPFUT3MH0_Quote#0003</v>
       </c>
       <c r="G31" s="244" t="str">
         <f>_xll.ohRangeRetrieveError(F31)</f>
@@ -55621,7 +55610,7 @@
       </c>
       <c r="I31" s="188" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote($H31,IborIndex,$D31,$F31,Volatility,MeanReversion,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GBPFUT3MH0ConvAdj_Quote#0000</v>
+        <v>GBPFUT3MH0ConvAdj_Quote#0003</v>
       </c>
       <c r="J31" s="244" t="str">
         <f>_xll.ohRangeRetrieveError(I31)</f>
@@ -55698,7 +55687,7 @@
       </c>
       <c r="F32" s="188" t="str">
         <f>_xll.qlSimpleQuote(E32,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GBPFUT3MM0_Quote#0000</v>
+        <v>GBPFUT3MM0_Quote#0003</v>
       </c>
       <c r="G32" s="244" t="str">
         <f>_xll.ohRangeRetrieveError(F32)</f>
@@ -55710,7 +55699,7 @@
       </c>
       <c r="I32" s="188" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote($H32,IborIndex,$D32,$F32,Volatility,MeanReversion,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GBPFUT3MM0ConvAdj_Quote#0000</v>
+        <v>GBPFUT3MM0ConvAdj_Quote#0003</v>
       </c>
       <c r="J32" s="244" t="str">
         <f>_xll.ohRangeRetrieveError(I32)</f>
@@ -55787,7 +55776,7 @@
       </c>
       <c r="F33" s="188" t="str">
         <f>_xll.qlSimpleQuote(E33,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GBPFUT3MU0_Quote#0000</v>
+        <v>GBPFUT3MU0_Quote#0003</v>
       </c>
       <c r="G33" s="244" t="str">
         <f>_xll.ohRangeRetrieveError(F33)</f>
@@ -55799,7 +55788,7 @@
       </c>
       <c r="I33" s="188" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote($H33,IborIndex,$D33,$F33,Volatility,MeanReversion,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GBPFUT3MU0ConvAdj_Quote#0000</v>
+        <v>GBPFUT3MU0ConvAdj_Quote#0003</v>
       </c>
       <c r="J33" s="244" t="str">
         <f>_xll.ohRangeRetrieveError(I33)</f>
@@ -55876,7 +55865,7 @@
       </c>
       <c r="F34" s="188" t="str">
         <f>_xll.qlSimpleQuote(E34,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GBPFUT3MZ0_Quote#0000</v>
+        <v>GBPFUT3MZ0_Quote#0003</v>
       </c>
       <c r="G34" s="244" t="str">
         <f>_xll.ohRangeRetrieveError(F34)</f>
@@ -55888,7 +55877,7 @@
       </c>
       <c r="I34" s="188" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote($H34,IborIndex,$D34,$F34,Volatility,MeanReversion,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GBPFUT3MZ0ConvAdj_Quote#0000</v>
+        <v>GBPFUT3MZ0ConvAdj_Quote#0003</v>
       </c>
       <c r="J34" s="244" t="str">
         <f>_xll.ohRangeRetrieveError(I34)</f>
@@ -55965,7 +55954,7 @@
       </c>
       <c r="F35" s="188" t="str">
         <f>_xll.qlSimpleQuote(E35,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GBPFUT3MH1_Quote#0000</v>
+        <v>GBPFUT3MH1_Quote#0003</v>
       </c>
       <c r="G35" s="244" t="str">
         <f>_xll.ohRangeRetrieveError(F35)</f>
@@ -55977,7 +55966,7 @@
       </c>
       <c r="I35" s="188" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote($H35,IborIndex,$D35,$F35,Volatility,MeanReversion,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GBPFUT3MH1ConvAdj_Quote#0000</v>
+        <v>GBPFUT3MH1ConvAdj_Quote#0003</v>
       </c>
       <c r="J35" s="244" t="str">
         <f>_xll.ohRangeRetrieveError(I35)</f>
@@ -56054,7 +56043,7 @@
       </c>
       <c r="F36" s="188" t="str">
         <f>_xll.qlSimpleQuote(E36,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GBPFUT3MM1_Quote#0000</v>
+        <v>GBPFUT3MM1_Quote#0003</v>
       </c>
       <c r="G36" s="244" t="str">
         <f>_xll.ohRangeRetrieveError(F36)</f>
@@ -56066,7 +56055,7 @@
       </c>
       <c r="I36" s="188" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote($H36,IborIndex,$D36,$F36,Volatility,MeanReversion,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GBPFUT3MM1ConvAdj_Quote#0000</v>
+        <v>GBPFUT3MM1ConvAdj_Quote#0003</v>
       </c>
       <c r="J36" s="244" t="str">
         <f>_xll.ohRangeRetrieveError(I36)</f>
@@ -56143,7 +56132,7 @@
       </c>
       <c r="F37" s="188" t="str">
         <f>_xll.qlSimpleQuote(E37,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GBPFUT3MU1_Quote#0000</v>
+        <v>GBPFUT3MU1_Quote#0003</v>
       </c>
       <c r="G37" s="244" t="str">
         <f>_xll.ohRangeRetrieveError(F37)</f>
@@ -56155,7 +56144,7 @@
       </c>
       <c r="I37" s="188" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote($H37,IborIndex,$D37,$F37,Volatility,MeanReversion,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GBPFUT3MU1ConvAdj_Quote#0000</v>
+        <v>GBPFUT3MU1ConvAdj_Quote#0003</v>
       </c>
       <c r="J37" s="244" t="str">
         <f>_xll.ohRangeRetrieveError(I37)</f>
@@ -56232,7 +56221,7 @@
       </c>
       <c r="F38" s="188" t="str">
         <f>_xll.qlSimpleQuote(E38,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GBPFUT3MZ1_Quote#0000</v>
+        <v>GBPFUT3MZ1_Quote#0003</v>
       </c>
       <c r="G38" s="244" t="str">
         <f>_xll.ohRangeRetrieveError(F38)</f>
@@ -56244,7 +56233,7 @@
       </c>
       <c r="I38" s="188" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote($H38,IborIndex,$D38,$F38,Volatility,MeanReversion,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GBPFUT3MZ1ConvAdj_Quote#0000</v>
+        <v>GBPFUT3MZ1ConvAdj_Quote#0003</v>
       </c>
       <c r="J38" s="244" t="str">
         <f>_xll.ohRangeRetrieveError(I38)</f>
@@ -56321,7 +56310,7 @@
       </c>
       <c r="F39" s="188" t="str">
         <f>_xll.qlSimpleQuote(E39,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GBPFUT3MH2_Quote#0000</v>
+        <v>GBPFUT3MH2_Quote#0003</v>
       </c>
       <c r="G39" s="244" t="str">
         <f>_xll.ohRangeRetrieveError(F39)</f>
@@ -56333,7 +56322,7 @@
       </c>
       <c r="I39" s="188" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote($H39,IborIndex,$D39,$F39,Volatility,MeanReversion,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GBPFUT3MH2ConvAdj_Quote#0000</v>
+        <v>GBPFUT3MH2ConvAdj_Quote#0003</v>
       </c>
       <c r="J39" s="244" t="str">
         <f>_xll.ohRangeRetrieveError(I39)</f>
@@ -56410,7 +56399,7 @@
       </c>
       <c r="F40" s="188" t="str">
         <f>_xll.qlSimpleQuote(E40,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GBPFUT3MM2_Quote#0000</v>
+        <v>GBPFUT3MM2_Quote#0003</v>
       </c>
       <c r="G40" s="244" t="str">
         <f>_xll.ohRangeRetrieveError(F40)</f>
@@ -56422,7 +56411,7 @@
       </c>
       <c r="I40" s="188" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote($H40,IborIndex,$D40,$F40,Volatility,MeanReversion,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GBPFUT3MM2ConvAdj_Quote#0000</v>
+        <v>GBPFUT3MM2ConvAdj_Quote#0003</v>
       </c>
       <c r="J40" s="244" t="str">
         <f>_xll.ohRangeRetrieveError(I40)</f>
@@ -56499,7 +56488,7 @@
       </c>
       <c r="F41" s="188" t="str">
         <f>_xll.qlSimpleQuote(E41,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GBPFUT3MU2_Quote#0000</v>
+        <v>GBPFUT3MU2_Quote#0003</v>
       </c>
       <c r="G41" s="244" t="str">
         <f>_xll.ohRangeRetrieveError(F41)</f>
@@ -56511,7 +56500,7 @@
       </c>
       <c r="I41" s="188" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote($H41,IborIndex,$D41,$F41,Volatility,MeanReversion,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GBPFUT3MU2ConvAdj_Quote#0000</v>
+        <v>GBPFUT3MU2ConvAdj_Quote#0003</v>
       </c>
       <c r="J41" s="244" t="str">
         <f>_xll.ohRangeRetrieveError(I41)</f>
@@ -56588,7 +56577,7 @@
       </c>
       <c r="F42" s="188" t="str">
         <f>_xll.qlSimpleQuote(E42,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GBPFUT3MZ2_Quote#0000</v>
+        <v>GBPFUT3MZ2_Quote#0003</v>
       </c>
       <c r="G42" s="244" t="str">
         <f>_xll.ohRangeRetrieveError(F42)</f>
@@ -56600,7 +56589,7 @@
       </c>
       <c r="I42" s="188" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote($H42,IborIndex,$D42,$F42,Volatility,MeanReversion,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GBPFUT3MZ2ConvAdj_Quote#0000</v>
+        <v>GBPFUT3MZ2ConvAdj_Quote#0003</v>
       </c>
       <c r="J42" s="244" t="str">
         <f>_xll.ohRangeRetrieveError(I42)</f>
@@ -56677,7 +56666,7 @@
       </c>
       <c r="F43" s="188" t="str">
         <f>_xll.qlSimpleQuote(E43,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GBPFUT3MH3_Quote#0000</v>
+        <v>GBPFUT3MH3_Quote#0003</v>
       </c>
       <c r="G43" s="244" t="str">
         <f>_xll.ohRangeRetrieveError(F43)</f>
@@ -56689,7 +56678,7 @@
       </c>
       <c r="I43" s="188" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote($H43,IborIndex,$D43,$F43,Volatility,MeanReversion,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GBPFUT3MH3ConvAdj_Quote#0000</v>
+        <v>GBPFUT3MH3ConvAdj_Quote#0003</v>
       </c>
       <c r="J43" s="244" t="str">
         <f>_xll.ohRangeRetrieveError(I43)</f>
@@ -56766,7 +56755,7 @@
       </c>
       <c r="F44" s="188" t="str">
         <f>_xll.qlSimpleQuote(E44,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GBPFUT3MM3_Quote#0000</v>
+        <v>GBPFUT3MM3_Quote#0003</v>
       </c>
       <c r="G44" s="244" t="str">
         <f>_xll.ohRangeRetrieveError(F44)</f>
@@ -56778,7 +56767,7 @@
       </c>
       <c r="I44" s="188" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote($H44,IborIndex,$D44,$F44,Volatility,MeanReversion,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GBPFUT3MM3ConvAdj_Quote#0000</v>
+        <v>GBPFUT3MM3ConvAdj_Quote#0003</v>
       </c>
       <c r="J44" s="244" t="str">
         <f>_xll.ohRangeRetrieveError(I44)</f>
@@ -56855,7 +56844,7 @@
       </c>
       <c r="F45" s="188" t="str">
         <f>_xll.qlSimpleQuote(E45,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GBPFUT3MU3_Quote#0000</v>
+        <v>GBPFUT3MU3_Quote#0003</v>
       </c>
       <c r="G45" s="244" t="str">
         <f>_xll.ohRangeRetrieveError(F45)</f>
@@ -56867,7 +56856,7 @@
       </c>
       <c r="I45" s="188" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote($H45,IborIndex,$D45,$F45,Volatility,MeanReversion,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GBPFUT3MU3ConvAdj_Quote#0000</v>
+        <v>GBPFUT3MU3ConvAdj_Quote#0003</v>
       </c>
       <c r="J45" s="244" t="str">
         <f>_xll.ohRangeRetrieveError(I45)</f>
@@ -56944,7 +56933,7 @@
       </c>
       <c r="F46" s="189" t="str">
         <f>_xll.qlSimpleQuote(E46,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GBPFUT3MZ3_Quote#0000</v>
+        <v>GBPFUT3MZ3_Quote#0003</v>
       </c>
       <c r="G46" s="245" t="str">
         <f>_xll.ohRangeRetrieveError(F46)</f>
@@ -56956,7 +56945,7 @@
       </c>
       <c r="I46" s="189" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote($H46,IborIndex,$D46,$F46,Volatility,MeanReversion,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GBPFUT3MZ3ConvAdj_Quote#0000</v>
+        <v>GBPFUT3MZ3ConvAdj_Quote#0003</v>
       </c>
       <c r="J46" s="245" t="str">
         <f>_xll.ohRangeRetrieveError(I46)</f>
